--- a/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B4FBA9-4602-4990-8BFC-C1523C9FF1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2166C662-7FFE-417E-9635-91E92D74B30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_part_20250924" sheetId="5" r:id="rId1"/>
@@ -364,25 +364,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -393,6 +378,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,9 +400,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C29D5C-8639-4163-9432-7C70C26E1499}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -753,10 +753,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -778,10 +778,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="28"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -805,10 +805,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -830,10 +830,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -857,10 +857,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1">
         <v>89.053336678229613</v>
       </c>
@@ -882,10 +882,10 @@
       <c r="I4" s="5">
         <v>50.508830814568753</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="8">
         <v>5.4385382756811014</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="18">
@@ -939,7 +939,7 @@
       <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="10">
@@ -968,7 +968,7 @@
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="19">
         <v>93.053143481633342</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="K6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="22"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="19">
         <v>91.579621507683157</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="K7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="22"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="19">
         <v>90.212611412440125</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="K8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="19">
         <v>90.084819072829347</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="K9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="19">
         <v>89.661415756191658</v>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="K10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="19">
         <v>89.817152397512075</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="K11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="19">
         <v>88.193943430883195</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="22"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="8">
         <v>4.738300568518703</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="18">
@@ -1359,7 +1359,7 @@
       <c r="K13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="M13" s="18">
@@ -1388,7 +1388,7 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="19">
         <v>92.492694573482453</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="K14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="19">
         <v>4.2020365592810807</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="19">
         <v>91.321718469306248</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="K15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="29"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="19">
         <v>4.0707928609350361</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="19">
         <v>91.514534439455929</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="19">
         <v>3.922662122179057</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="19">
@@ -1571,7 +1571,7 @@
       <c r="K17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="22" t="s">
         <v>31</v>
       </c>
       <c r="M17">
@@ -1600,7 +1600,7 @@
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="19">
         <v>91.096670386422005</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="K18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18">
         <v>4.4913349382120487</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="19">
         <v>91.140892222251068</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="K19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="22"/>
       <c r="M19">
         <v>3.903249518826176</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="20">
         <v>91.081684674319575</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="K20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="26"/>
       <c r="M20" s="8">
         <v>4.1769763320911357</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="18">
@@ -1783,7 +1783,7 @@
       <c r="K21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="21" t="s">
         <v>29</v>
       </c>
       <c r="M21" s="18">
@@ -1812,7 +1812,7 @@
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="19">
         <v>92.990178692433901</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="K22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="21"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="19">
         <v>3.6904396057483901</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="19">
         <v>91.404302805387587</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="K23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="21"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="19">
         <v>4.2752844258887936</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="19">
         <v>91.836930538614808</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="K24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="21"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="19">
         <v>3.8814886103074699</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="19">
@@ -1995,7 +1995,7 @@
       <c r="K25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="22" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="19">
@@ -2024,7 +2024,7 @@
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="19">
         <v>93.140736511561499</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="K26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="21"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="19">
         <v>4.0606812542101052</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="19">
         <v>92.481062408267675</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="K27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="21"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="19">
         <v>4.0404090948996982</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="19">
         <v>82.988413971285794</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="K28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L28" s="21"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="19">
         <v>6.4965045402129054</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="A29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="20"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2191,7 +2191,7 @@
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="22"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="20"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -2258,10 +2258,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="26"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="15">
         <v>92.567111769713335</v>
       </c>
@@ -2283,10 +2283,10 @@
       <c r="I32" s="16">
         <v>43.622535641382179</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L32" s="32"/>
+      <c r="L32" s="30"/>
       <c r="M32">
         <v>3.88093621561358</v>
       </c>
@@ -2310,10 +2310,10 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="26"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="15">
         <v>92.338566773632834</v>
       </c>
@@ -2335,10 +2335,10 @@
       <c r="I33" s="16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L33" s="26"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="15">
         <v>4.0483086633488163</v>
       </c>
@@ -2362,10 +2362,10 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="26"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="15">
         <v>88.499186482198567</v>
       </c>
@@ -2387,10 +2387,10 @@
       <c r="I34" s="16">
         <v>44.56238292926399</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L34" s="34"/>
+      <c r="L34" s="32"/>
       <c r="M34">
         <v>5.9037054685544437</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="10">
@@ -2444,7 +2444,7 @@
       <c r="K35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="21" t="s">
         <v>15</v>
       </c>
       <c r="M35" s="10">
@@ -2473,7 +2473,7 @@
       <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="22"/>
       <c r="C36">
         <v>92.603782215910087</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="K36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="21"/>
+      <c r="L36" s="22"/>
       <c r="M36">
         <v>4.4405799374618198</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="A37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37">
         <v>91.081927840808433</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="K37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="21"/>
+      <c r="L37" s="22"/>
       <c r="M37">
         <v>5.0278535681088243</v>
       </c>
@@ -2577,7 +2577,7 @@
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="22"/>
       <c r="C38">
         <v>89.644638837679821</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="K38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="21"/>
+      <c r="L38" s="22"/>
       <c r="M38">
         <v>5.6337263714853885</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="22"/>
       <c r="C39">
         <v>89.487105403835685</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="K39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L39" s="21"/>
+      <c r="L39" s="22"/>
       <c r="M39">
         <v>5.5869146897287463</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="22"/>
       <c r="C40">
         <v>89.019136482146294</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="K40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="21"/>
+      <c r="L40" s="22"/>
       <c r="M40">
         <v>5.5440228882484019</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="22"/>
       <c r="C41">
         <v>89.238869796493674</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="K41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="21"/>
+      <c r="L41" s="22"/>
       <c r="M41">
         <v>4.9520431158543712</v>
       </c>
@@ -2785,7 +2785,7 @@
       <c r="A42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="8">
         <v>87.528624354026661</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="K42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L42" s="22"/>
+      <c r="L42" s="26"/>
       <c r="M42" s="8">
         <v>5.0598364128504718</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C43" s="10">
@@ -2864,7 +2864,7 @@
       <c r="K43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="27" t="s">
+      <c r="L43" s="21" t="s">
         <v>32</v>
       </c>
       <c r="M43" s="10">
@@ -2893,7 +2893,7 @@
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
       <c r="C44">
         <v>92.066966520323973</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="K44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L44" s="21"/>
+      <c r="L44" s="22"/>
       <c r="M44">
         <v>4.5862361191526402</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
       <c r="C45">
         <v>90.767440481934031</v>
       </c>
@@ -2970,7 +2970,7 @@
       <c r="K45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="21"/>
+      <c r="L45" s="22"/>
       <c r="M45">
         <v>4.4126117660826036</v>
       </c>
@@ -2997,7 +2997,7 @@
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
       <c r="C46">
         <v>90.941629733573507</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="K46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="21"/>
+      <c r="L46" s="22"/>
       <c r="M46">
         <v>4.3072256890080602</v>
       </c>
@@ -3049,7 +3049,7 @@
       <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C47">
@@ -3076,7 +3076,7 @@
       <c r="K47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="21" t="s">
+      <c r="L47" s="22" t="s">
         <v>31</v>
       </c>
       <c r="M47">
@@ -3105,7 +3105,7 @@
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="22"/>
       <c r="C48">
         <v>90.642246446502455</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="K48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="21"/>
+      <c r="L48" s="22"/>
       <c r="M48">
         <v>4.8046743223783803</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="22"/>
       <c r="C49">
         <v>90.617152023346819</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="K49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="21"/>
+      <c r="L49" s="22"/>
       <c r="M49">
         <v>4.2750077328577394</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="22"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="8">
         <v>90.581355357949491</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="K50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L50" s="22"/>
+      <c r="L50" s="26"/>
       <c r="M50" s="8">
         <v>4.4778305644230976</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="18">
@@ -3288,7 +3288,7 @@
       <c r="K51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L51" s="27" t="s">
+      <c r="L51" s="21" t="s">
         <v>29</v>
       </c>
       <c r="M51" s="18">
@@ -3317,7 +3317,7 @@
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="19">
         <v>92.579341430099007</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="K52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L52" s="21"/>
+      <c r="L52" s="22"/>
       <c r="M52" s="19">
         <v>3.9546659796940227</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="19">
         <v>90.838947223672307</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="K53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L53" s="21"/>
+      <c r="L53" s="22"/>
       <c r="M53" s="19">
         <v>4.7127350259472136</v>
       </c>
@@ -3421,7 +3421,7 @@
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="19">
         <v>91.285512236598578</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="K54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L54" s="21"/>
+      <c r="L54" s="22"/>
       <c r="M54" s="19">
         <v>4.2911852431583064</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="A55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="19">
@@ -3500,7 +3500,7 @@
       <c r="K55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L55" s="21" t="s">
+      <c r="L55" s="22" t="s">
         <v>30</v>
       </c>
       <c r="M55" s="19">
@@ -3529,7 +3529,7 @@
       <c r="A56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="19">
         <v>92.605708756255126</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="K56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L56" s="21"/>
+      <c r="L56" s="22"/>
       <c r="M56" s="19">
         <v>4.5806425177141055</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="19">
         <v>92.058134776134636</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="K57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L57" s="21"/>
+      <c r="L57" s="22"/>
       <c r="M57" s="19">
         <v>4.4300468024374355</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="19">
         <v>82.145275705850779</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="K58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="21"/>
+      <c r="L58" s="22"/>
       <c r="M58" s="19">
         <v>7.0119117816178136</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="A59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="20"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3696,7 +3696,7 @@
       <c r="K59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L59" s="22"/>
+      <c r="L59" s="26"/>
       <c r="M59" s="20"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
@@ -3707,6 +3707,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="L55:L59"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="L25:L29"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="L51:L54"/>
     <mergeCell ref="B5:B12"/>
@@ -3723,22 +3739,6 @@
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="L55:L59"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="L35:L42"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="L25:L29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I4">
@@ -3817,7 +3817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407A0F26-EE3F-44D5-AD21-F0180FA13F65}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3882,10 +3882,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -3907,10 +3907,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="26"/>
+      <c r="L2" s="28"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -3934,10 +3934,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -3959,10 +3959,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -3986,10 +3986,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1">
         <v>89.053336678229613</v>
       </c>
@@ -4011,10 +4011,10 @@
       <c r="I4" s="5">
         <v>50.508830814568753</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="26"/>
+      <c r="L4" s="28"/>
       <c r="M4" s="8">
         <v>5.4385382756811014</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="10">
@@ -4068,7 +4068,7 @@
       <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="10">
@@ -4097,7 +4097,7 @@
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6">
         <v>93.053143481633342</v>
       </c>
@@ -4122,7 +4122,7 @@
       <c r="K6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="21"/>
+      <c r="L6" s="22"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7">
         <v>91.579621507683157</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="K7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="22"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8">
         <v>90.212611412440125</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="K8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="22"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9">
         <v>90.084819072829347</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="K9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10">
         <v>89.661415756191658</v>
       </c>
@@ -4330,7 +4330,7 @@
       <c r="K10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11">
         <v>89.817152397512075</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="K11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="22"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="26"/>
       <c r="C12">
         <v>88.193943430883195</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="22"/>
+      <c r="L12" s="26"/>
       <c r="M12">
         <v>4.738300568518703</v>
       </c>
@@ -4461,7 +4461,7 @@
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="18">
@@ -4488,7 +4488,7 @@
       <c r="K13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="24" t="s">
         <v>32</v>
       </c>
       <c r="M13" s="18">
@@ -4517,7 +4517,7 @@
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="19">
         <v>92.492694573482453</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="K14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="19">
         <v>4.2020365592810807</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="19">
         <v>91.321718469306248</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="K15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="29"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="19">
         <v>4.0707928609350361</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="19">
         <v>91.514534439455929</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="K16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="19">
         <v>3.922662122179057</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="19">
@@ -4700,7 +4700,7 @@
       <c r="K17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="24" t="s">
         <v>31</v>
       </c>
       <c r="M17" s="19">
@@ -4729,7 +4729,7 @@
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="19">
         <v>91.096670386422005</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="K18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="29"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="19">
         <v>4.4913349382120487</v>
       </c>
@@ -4781,7 +4781,7 @@
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="29"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="19">
         <v>91.140892222251068</v>
       </c>
@@ -4806,7 +4806,7 @@
       <c r="K19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="29"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="19">
         <v>3.903249518826176</v>
       </c>
@@ -4833,7 +4833,7 @@
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="19">
         <v>91.081684674319575</v>
       </c>
@@ -4858,7 +4858,7 @@
       <c r="K20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="29"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="19">
         <v>4.1769763320911357</v>
       </c>
@@ -4885,7 +4885,7 @@
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="19">
         <v>91.125234647358596</v>
       </c>
@@ -4910,7 +4910,7 @@
       <c r="K21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="29"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="19">
         <v>4.6221295992371028</v>
       </c>
@@ -4937,7 +4937,7 @@
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="19">
         <v>91.43489995588196</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="K22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="29"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="19">
         <v>4.2207267229748435</v>
       </c>
@@ -4989,7 +4989,7 @@
       <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="20">
         <v>91.676793628549277</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="30"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="20">
         <v>4.7069173345915063</v>
       </c>
@@ -5041,7 +5041,7 @@
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="10">
@@ -5068,7 +5068,7 @@
       <c r="K24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="21" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="10">
@@ -5097,7 +5097,7 @@
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="22"/>
       <c r="C25">
         <v>91.138051943932624</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="K25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="21"/>
+      <c r="L25" s="22"/>
       <c r="M25">
         <v>4.8341548736925946</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26">
         <v>89.464493637488204</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="K26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="21"/>
+      <c r="L26" s="22"/>
       <c r="M26">
         <v>4.9049220966264562</v>
       </c>
@@ -5201,7 +5201,7 @@
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="22"/>
       <c r="C27">
         <v>88.032999132057071</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="K27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="21"/>
+      <c r="L27" s="22"/>
       <c r="M27">
         <v>4.7933326181048139</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="A28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C28">
@@ -5280,7 +5280,7 @@
       <c r="K28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="M28">
@@ -5309,7 +5309,7 @@
       <c r="A29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="22"/>
       <c r="C29">
         <v>84.83746110837177</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="K29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="21"/>
+      <c r="L29" s="22"/>
       <c r="M29">
         <v>6.4398657108190296</v>
       </c>
@@ -5361,7 +5361,7 @@
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="22"/>
       <c r="C30">
         <v>89.603309717212085</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="K30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="21"/>
+      <c r="L30" s="22"/>
       <c r="M30">
         <v>4.6421688324031569</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="22"/>
       <c r="C31">
         <v>89.968586810151194</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="K31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="21"/>
+      <c r="L31" s="22"/>
       <c r="M31">
         <v>4.7831146921405292</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="22"/>
       <c r="C32">
         <v>90.691067108423653</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="K32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L32" s="21"/>
+      <c r="L32" s="22"/>
       <c r="M32">
         <v>5.4121743283478736</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="22"/>
       <c r="C33">
         <v>91.112509623785684</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="K33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L33" s="21"/>
+      <c r="L33" s="22"/>
       <c r="M33">
         <v>4.5520179996051642</v>
       </c>
@@ -5569,7 +5569,7 @@
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8">
         <v>91.827074628673245</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="K34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="22"/>
+      <c r="L34" s="26"/>
       <c r="M34" s="8">
         <v>4.4549479265356586</v>
       </c>
@@ -5621,7 +5621,7 @@
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="18">
@@ -5648,7 +5648,7 @@
       <c r="K35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="21" t="s">
         <v>29</v>
       </c>
       <c r="M35" s="18">
@@ -5677,7 +5677,7 @@
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="19">
         <v>92.990178692433901</v>
       </c>
@@ -5702,7 +5702,7 @@
       <c r="K36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L36" s="21"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="19">
         <v>3.6904396057483901</v>
       </c>
@@ -5729,7 +5729,7 @@
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="19">
         <v>91.404302805387587</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="K37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="21"/>
+      <c r="L37" s="22"/>
       <c r="M37" s="19">
         <v>4.2752844258887936</v>
       </c>
@@ -5781,7 +5781,7 @@
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="19">
         <v>91.836930538614808</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="K38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="21"/>
+      <c r="L38" s="22"/>
       <c r="M38" s="19">
         <v>3.8814886103074699</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="19">
@@ -5860,7 +5860,7 @@
       <c r="K39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="21" t="s">
+      <c r="L39" s="22" t="s">
         <v>30</v>
       </c>
       <c r="M39" s="19">
@@ -5889,7 +5889,7 @@
       <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="19">
         <v>93.140736511561499</v>
       </c>
@@ -5914,7 +5914,7 @@
       <c r="K40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="21"/>
+      <c r="L40" s="22"/>
       <c r="M40" s="19">
         <v>4.0606812542101052</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="19">
         <v>92.481062408267675</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="K41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="21"/>
+      <c r="L41" s="22"/>
       <c r="M41" s="19">
         <v>4.0404090948996982</v>
       </c>
@@ -5993,7 +5993,7 @@
       <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="19">
         <v>82.988413971285794</v>
       </c>
@@ -6018,7 +6018,7 @@
       <c r="K42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L42" s="21"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="19">
         <v>6.4965045402129054</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="A43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="20"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -6056,7 +6056,7 @@
       <c r="K43" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L43" s="22"/>
+      <c r="L43" s="26"/>
       <c r="M43" s="20"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -6123,10 +6123,10 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="26"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="15">
         <v>92.567111769713335</v>
       </c>
@@ -6148,10 +6148,10 @@
       <c r="I46" s="16">
         <v>43.622535641382179</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L46" s="32"/>
+      <c r="L46" s="30"/>
       <c r="M46">
         <v>3.88093621561358</v>
       </c>
@@ -6175,10 +6175,10 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="26"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="15">
         <v>92.338566773632834</v>
       </c>
@@ -6200,10 +6200,10 @@
       <c r="I47" s="16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="K47" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L47" s="26"/>
+      <c r="L47" s="28"/>
       <c r="M47" s="15">
         <v>4.0483086633488163</v>
       </c>
@@ -6227,10 +6227,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="26"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="15">
         <v>88.499186482198567</v>
       </c>
@@ -6252,10 +6252,10 @@
       <c r="I48" s="16">
         <v>44.56238292926399</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="34"/>
+      <c r="L48" s="32"/>
       <c r="M48">
         <v>5.9037054685544437</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="10">
@@ -6309,7 +6309,7 @@
       <c r="K49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="27" t="s">
+      <c r="L49" s="21" t="s">
         <v>15</v>
       </c>
       <c r="M49" s="10">
@@ -6338,7 +6338,7 @@
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="22"/>
       <c r="C50">
         <v>92.603782215910087</v>
       </c>
@@ -6363,7 +6363,7 @@
       <c r="K50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="21"/>
+      <c r="L50" s="22"/>
       <c r="M50">
         <v>4.4405799374618198</v>
       </c>
@@ -6390,7 +6390,7 @@
       <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="22"/>
       <c r="C51">
         <v>91.081927840808433</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="K51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L51" s="21"/>
+      <c r="L51" s="22"/>
       <c r="M51">
         <v>5.0278535681088243</v>
       </c>
@@ -6442,7 +6442,7 @@
       <c r="A52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="22"/>
       <c r="C52">
         <v>89.644638837679821</v>
       </c>
@@ -6467,7 +6467,7 @@
       <c r="K52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="21"/>
+      <c r="L52" s="22"/>
       <c r="M52">
         <v>5.6337263714853885</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="22"/>
       <c r="C53">
         <v>89.487105403835685</v>
       </c>
@@ -6519,7 +6519,7 @@
       <c r="K53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="21"/>
+      <c r="L53" s="22"/>
       <c r="M53">
         <v>5.5869146897287463</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="22"/>
       <c r="C54">
         <v>89.019136482146294</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="K54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L54" s="21"/>
+      <c r="L54" s="22"/>
       <c r="M54">
         <v>5.5440228882484019</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="21"/>
+      <c r="B55" s="22"/>
       <c r="C55">
         <v>89.238869796493674</v>
       </c>
@@ -6623,7 +6623,7 @@
       <c r="K55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L55" s="21"/>
+      <c r="L55" s="22"/>
       <c r="M55">
         <v>4.9520431158543712</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="A56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="22"/>
       <c r="C56">
         <v>87.528624354026661</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="K56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="21"/>
+      <c r="L56" s="22"/>
       <c r="M56">
         <v>5.0598364128504718</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C57" s="10">
@@ -6729,7 +6729,7 @@
       <c r="K57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L57" s="27" t="s">
+      <c r="L57" s="21" t="s">
         <v>32</v>
       </c>
       <c r="M57" s="10">
@@ -6758,7 +6758,7 @@
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="22"/>
       <c r="C58">
         <v>92.066966520323973</v>
       </c>
@@ -6783,7 +6783,7 @@
       <c r="K58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="21"/>
+      <c r="L58" s="22"/>
       <c r="M58">
         <v>4.5862361191526402</v>
       </c>
@@ -6810,7 +6810,7 @@
       <c r="A59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59">
         <v>90.767440481934031</v>
       </c>
@@ -6835,7 +6835,7 @@
       <c r="K59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L59" s="21"/>
+      <c r="L59" s="22"/>
       <c r="M59">
         <v>4.4126117660826036</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="A60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="22"/>
       <c r="C60">
         <v>90.941629733573507</v>
       </c>
@@ -6887,7 +6887,7 @@
       <c r="K60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="21"/>
+      <c r="L60" s="22"/>
       <c r="M60">
         <v>4.3072256890080602</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="A61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C61">
@@ -6941,7 +6941,7 @@
       <c r="K61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L61" s="21" t="s">
+      <c r="L61" s="22" t="s">
         <v>31</v>
       </c>
       <c r="M61">
@@ -6970,7 +6970,7 @@
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62">
         <v>90.642246446502455</v>
       </c>
@@ -6995,7 +6995,7 @@
       <c r="K62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L62" s="21"/>
+      <c r="L62" s="22"/>
       <c r="M62">
         <v>4.8046743223783803</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="A63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63">
         <v>90.617152023346819</v>
       </c>
@@ -7047,7 +7047,7 @@
       <c r="K63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L63" s="21"/>
+      <c r="L63" s="22"/>
       <c r="M63">
         <v>4.2750077328577394</v>
       </c>
@@ -7074,7 +7074,7 @@
       <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="22"/>
       <c r="C64">
         <v>90.581355357949491</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="K64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L64" s="21"/>
+      <c r="L64" s="22"/>
       <c r="M64">
         <v>4.4778305644230976</v>
       </c>
@@ -7126,7 +7126,7 @@
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="22"/>
       <c r="C65">
         <v>90.510302373601434</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="K65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="21"/>
+      <c r="L65" s="22"/>
       <c r="M65">
         <v>5.1076806654003626</v>
       </c>
@@ -7178,7 +7178,7 @@
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66">
         <v>90.77523149389998</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="K66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L66" s="21"/>
+      <c r="L66" s="22"/>
       <c r="M66">
         <v>4.8120651940731003</v>
       </c>
@@ -7230,7 +7230,7 @@
       <c r="A67" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="22"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="8">
         <v>91.156513297158639</v>
       </c>
@@ -7255,7 +7255,7 @@
       <c r="K67" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="22"/>
+      <c r="L67" s="26"/>
       <c r="M67" s="8">
         <v>5.1638895836383742</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="A68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="18">
@@ -7309,7 +7309,7 @@
       <c r="K68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L68" s="27" t="s">
+      <c r="L68" s="21" t="s">
         <v>24</v>
       </c>
       <c r="M68" s="18">
@@ -7338,7 +7338,7 @@
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="19">
         <v>90.753018873298217</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="K69" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L69" s="21"/>
+      <c r="L69" s="22"/>
       <c r="M69" s="19">
         <v>5.1087302616689314</v>
       </c>
@@ -7390,7 +7390,7 @@
       <c r="A70" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="19">
         <v>88.959040489692839</v>
       </c>
@@ -7415,7 +7415,7 @@
       <c r="K70" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="21"/>
+      <c r="L70" s="22"/>
       <c r="M70" s="19">
         <v>5.2249135280576802</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="A71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="19">
         <v>87.426198957053913</v>
       </c>
@@ -7467,7 +7467,7 @@
       <c r="K71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L71" s="21"/>
+      <c r="L71" s="22"/>
       <c r="M71" s="19">
         <v>5.0521972348656563</v>
       </c>
@@ -7494,7 +7494,7 @@
       <c r="A72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C72" s="19">
@@ -7521,7 +7521,7 @@
       <c r="K72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="21" t="s">
+      <c r="L72" s="22" t="s">
         <v>25</v>
       </c>
       <c r="M72" s="19">
@@ -7550,7 +7550,7 @@
       <c r="A73" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="21"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="19">
         <v>84.199090152702041</v>
       </c>
@@ -7575,7 +7575,7 @@
       <c r="K73" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="21"/>
+      <c r="L73" s="22"/>
       <c r="M73" s="19">
         <v>6.8541808049040309</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="A74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="21"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="19">
         <v>89.131692863681508</v>
       </c>
@@ -7627,7 +7627,7 @@
       <c r="K74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L74" s="21"/>
+      <c r="L74" s="22"/>
       <c r="M74" s="19">
         <v>4.9480273201097891</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="A75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="21"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="19">
         <v>89.343160521159632</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="K75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L75" s="21"/>
+      <c r="L75" s="22"/>
       <c r="M75" s="19">
         <v>5.1733129187131341</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="A76" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="19">
         <v>90.136569338183705</v>
       </c>
@@ -7731,7 +7731,7 @@
       <c r="K76" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L76" s="21"/>
+      <c r="L76" s="22"/>
       <c r="M76" s="19">
         <v>5.9292139017037657</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="A77" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="21"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="19">
         <v>90.588436953510907</v>
       </c>
@@ -7783,7 +7783,7 @@
       <c r="K77" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L77" s="21"/>
+      <c r="L77" s="22"/>
       <c r="M77" s="19">
         <v>4.9553180055876025</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="A78" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="22"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="20">
         <v>91.279707682254013</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="K78" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L78" s="22"/>
+      <c r="L78" s="26"/>
       <c r="M78" s="20">
         <v>4.8729900980426155</v>
       </c>
@@ -7862,7 +7862,7 @@
       <c r="A79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C79" s="18">
@@ -7889,7 +7889,7 @@
       <c r="K79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L79" s="27" t="s">
+      <c r="L79" s="21" t="s">
         <v>29</v>
       </c>
       <c r="M79" s="18">
@@ -7918,7 +7918,7 @@
       <c r="A80" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="21"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="19">
         <v>92.579341430099007</v>
       </c>
@@ -7943,7 +7943,7 @@
       <c r="K80" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L80" s="21"/>
+      <c r="L80" s="22"/>
       <c r="M80" s="19">
         <v>3.9546659796940227</v>
       </c>
@@ -7970,7 +7970,7 @@
       <c r="A81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="21"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="19">
         <v>90.838947223672307</v>
       </c>
@@ -7995,7 +7995,7 @@
       <c r="K81" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L81" s="21"/>
+      <c r="L81" s="22"/>
       <c r="M81" s="19">
         <v>4.7127350259472136</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="A82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="21"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="19">
         <v>91.285512236598578</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="K82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L82" s="21"/>
+      <c r="L82" s="22"/>
       <c r="M82" s="19">
         <v>4.2911852431583064</v>
       </c>
@@ -8074,7 +8074,7 @@
       <c r="A83" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C83" s="19">
@@ -8101,7 +8101,7 @@
       <c r="K83" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L83" s="21" t="s">
+      <c r="L83" s="22" t="s">
         <v>30</v>
       </c>
       <c r="M83" s="19">
@@ -8130,7 +8130,7 @@
       <c r="A84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="19">
         <v>92.605708756255126</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="K84" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L84" s="21"/>
+      <c r="L84" s="22"/>
       <c r="M84" s="19">
         <v>4.5806425177141055</v>
       </c>
@@ -8182,7 +8182,7 @@
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="21"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="19">
         <v>92.058134776134636</v>
       </c>
@@ -8207,7 +8207,7 @@
       <c r="K85" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L85" s="21"/>
+      <c r="L85" s="22"/>
       <c r="M85" s="19">
         <v>4.4300468024374355</v>
       </c>
@@ -8234,7 +8234,7 @@
       <c r="A86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="19">
         <v>82.145275705850779</v>
       </c>
@@ -8259,7 +8259,7 @@
       <c r="K86" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L86" s="21"/>
+      <c r="L86" s="22"/>
       <c r="M86" s="19">
         <v>7.0119117816178136</v>
       </c>
@@ -8286,7 +8286,7 @@
       <c r="A87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="22"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="20"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -8297,7 +8297,7 @@
       <c r="K87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L87" s="22"/>
+      <c r="L87" s="26"/>
       <c r="M87" s="20"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
@@ -8308,32 +8308,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="L79:L82"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="L39:L43"/>
     <mergeCell ref="B83:B87"/>
     <mergeCell ref="L83:L87"/>
     <mergeCell ref="B28:B34"/>
@@ -8348,6 +8322,32 @@
     <mergeCell ref="L35:L38"/>
     <mergeCell ref="B72:B78"/>
     <mergeCell ref="L72:L78"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="L79:L82"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I12 C17:I34">

--- a/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2166C662-7FFE-417E-9635-91E92D74B30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D5A028-5A3B-4C68-AF76-AEF42163CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_part_20250924" sheetId="5" r:id="rId1"/>
@@ -35,17 +35,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="33">
   <si>
     <t>sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>origin fcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffusion inverse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -166,6 +162,10 @@
     <t>first-order graph laplacian highpass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>diffusion inversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -187,15 +187,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -320,11 +326,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,23 +407,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,27 +449,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,9 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C29D5C-8639-4163-9432-7C70C26E1499}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -698,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -725,7 +791,7 @@
         <v>0.05</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>0</v>
@@ -753,10 +819,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -778,10 +844,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="32"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -805,10 +871,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="28"/>
+      <c r="A3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="34"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -830,10 +896,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="28"/>
+      <c r="K3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="34"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -856,2924 +922,2784 @@
         <v>5.9024255132996721</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="1">
-        <v>89.053336678229613</v>
-      </c>
-      <c r="D4" s="1">
-        <v>87.986349362883772</v>
-      </c>
-      <c r="E4" s="1">
-        <v>86.416240624918913</v>
-      </c>
-      <c r="F4" s="1">
-        <v>74.093123642938082</v>
-      </c>
-      <c r="G4" s="1">
-        <v>69.399602649388555</v>
-      </c>
-      <c r="H4" s="1">
-        <v>61.120531607828212</v>
-      </c>
-      <c r="I4" s="5">
-        <v>50.508830814568753</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="8">
-        <v>5.4385382756811014</v>
-      </c>
-      <c r="N4" s="8">
-        <v>5.4024441408924888</v>
-      </c>
-      <c r="O4" s="8">
-        <v>5.6964067574908341</v>
-      </c>
-      <c r="P4" s="8">
-        <v>7.4383055835405463</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>7.4880994431935202</v>
-      </c>
-      <c r="R4" s="8">
-        <v>9.6490657247660767</v>
-      </c>
-      <c r="S4" s="9">
-        <v>9.6316297451622628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="18">
+        <v>93.113146884200262</v>
+      </c>
+      <c r="D4" s="10">
+        <v>91.749533588814217</v>
+      </c>
+      <c r="E4" s="10">
+        <v>89.670738212844995</v>
+      </c>
+      <c r="F4" s="10">
+        <v>84.982303768487057</v>
+      </c>
+      <c r="G4" s="10">
+        <v>75.762685375017682</v>
+      </c>
+      <c r="H4" s="10">
+        <v>59.272017924030493</v>
+      </c>
+      <c r="I4" s="11">
+        <v>46.333889854871863</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="10">
+        <v>3.7040095151106671</v>
+      </c>
+      <c r="N4" s="10">
+        <v>4.6660308741510574</v>
+      </c>
+      <c r="O4" s="10">
+        <v>5.1856842653375148</v>
+      </c>
+      <c r="P4" s="10">
+        <v>5.2152535917282474</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>8.4738202288327695</v>
+      </c>
+      <c r="R4" s="10">
+        <v>10.941424406710301</v>
+      </c>
+      <c r="S4" s="11">
+        <v>9.3189278272958713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="26"/>
+      <c r="B5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="19">
+        <v>93.053143481633299</v>
+      </c>
+      <c r="D5">
+        <v>90.886348497824386</v>
+      </c>
+      <c r="E5">
+        <v>90.323197720856868</v>
+      </c>
+      <c r="F5">
+        <v>84.953837547614299</v>
+      </c>
+      <c r="G5">
+        <v>79.620631089657635</v>
+      </c>
+      <c r="H5">
+        <v>62.912758760888927</v>
+      </c>
+      <c r="I5" s="6">
+        <v>44.508037843464628</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>3.9872752197675312</v>
+      </c>
+      <c r="N5">
+        <v>5.1957321462377806</v>
+      </c>
+      <c r="O5">
+        <v>4.4991564068781216</v>
+      </c>
+      <c r="P5">
+        <v>4.6223904455976488</v>
+      </c>
+      <c r="Q5">
+        <v>6.4013560400427734</v>
+      </c>
+      <c r="R5">
+        <v>8.8397279842025007</v>
+      </c>
+      <c r="S5" s="6">
+        <v>6.5281759752004502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="19">
+        <v>91.579621507683157</v>
+      </c>
+      <c r="D6">
+        <v>88.21834387264019</v>
+      </c>
+      <c r="E6">
+        <v>87.647303754069384</v>
+      </c>
+      <c r="F6">
+        <v>83.887553813902656</v>
+      </c>
+      <c r="G6">
+        <v>79.48606245152061</v>
+      </c>
+      <c r="H6">
+        <v>64.136108443844662</v>
+      </c>
+      <c r="I6" s="6">
+        <v>54.648806073870297</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>4.5335274096690847</v>
+      </c>
+      <c r="N6">
+        <v>6.1233749140175817</v>
+      </c>
+      <c r="O6">
+        <v>6.026762504697138</v>
+      </c>
+      <c r="P6">
+        <v>5.8968066838744084</v>
+      </c>
+      <c r="Q6">
+        <v>6.9627477602587504</v>
+      </c>
+      <c r="R6">
+        <v>9.7411206013203078</v>
+      </c>
+      <c r="S6" s="6">
+        <v>10.77245562517648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="19">
+        <v>90.212611412440125</v>
+      </c>
+      <c r="D7">
+        <v>89.419775834277686</v>
+      </c>
+      <c r="E7">
+        <v>88.372612796535151</v>
+      </c>
+      <c r="F7">
+        <v>80.476068132077273</v>
+      </c>
+      <c r="G7">
+        <v>76.559488692232051</v>
+      </c>
+      <c r="H7">
+        <v>63.95654229996223</v>
+      </c>
+      <c r="I7" s="6">
+        <v>55.218118957199742</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <v>5.1774780277668837</v>
+      </c>
+      <c r="N7">
+        <v>5.8855849597253371</v>
+      </c>
+      <c r="O7">
+        <v>5.2696422924576174</v>
+      </c>
+      <c r="P7">
+        <v>5.587508332190076</v>
+      </c>
+      <c r="Q7">
+        <v>6.7799979714244687</v>
+      </c>
+      <c r="R7">
+        <v>9.2029739138063036</v>
+      </c>
+      <c r="S7" s="6">
+        <v>10.83407146633883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19">
+        <v>90.084819072829347</v>
+      </c>
+      <c r="D8">
+        <v>89.303151411344388</v>
+      </c>
+      <c r="E8">
+        <v>87.066863323500485</v>
+      </c>
+      <c r="F8">
+        <v>79.445084588390316</v>
+      </c>
+      <c r="G8">
+        <v>75.107777748942439</v>
+      </c>
+      <c r="H8">
+        <v>66.874047353350818</v>
+      </c>
+      <c r="I8" s="6">
+        <v>56.21099086785641</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>5.1380550132743084</v>
+      </c>
+      <c r="N8">
+        <v>5.1384270278292172</v>
+      </c>
+      <c r="O8">
+        <v>5.7921632754264394</v>
+      </c>
+      <c r="P8">
+        <v>6.0323058838530139</v>
+      </c>
+      <c r="Q8">
+        <v>6.9748198258504468</v>
+      </c>
+      <c r="R8">
+        <v>8.4516432861658437</v>
+      </c>
+      <c r="S8" s="6">
+        <v>10.429185716172441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19">
+        <v>89.661415756191658</v>
+      </c>
+      <c r="D9">
+        <v>88.04566648500419</v>
+      </c>
+      <c r="E9">
+        <v>85.426324333832184</v>
+      </c>
+      <c r="F9">
+        <v>79.378521152143776</v>
+      </c>
+      <c r="G9">
+        <v>74.409023146105653</v>
+      </c>
+      <c r="H9">
+        <v>63.85187011421668</v>
+      </c>
+      <c r="I9" s="6">
+        <v>54.269229549275238</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>5.0704882397024411</v>
+      </c>
+      <c r="N9">
+        <v>5.7251909141599304</v>
+      </c>
+      <c r="O9">
+        <v>5.5987654006730407</v>
+      </c>
+      <c r="P9">
+        <v>6.3734778433530899</v>
+      </c>
+      <c r="Q9">
+        <v>7.2863433217209206</v>
+      </c>
+      <c r="R9">
+        <v>9.0724857709392399</v>
+      </c>
+      <c r="S9" s="6">
+        <v>8.683376959047429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19">
+        <v>89.817152397512075</v>
+      </c>
+      <c r="D10">
+        <v>87.963572349241787</v>
+      </c>
+      <c r="E10">
+        <v>86.141990847671707</v>
+      </c>
+      <c r="F10">
+        <v>79.671415842697584</v>
+      </c>
+      <c r="G10">
+        <v>72.8931046116316</v>
+      </c>
+      <c r="H10">
+        <v>62.949650660184503</v>
+      </c>
+      <c r="I10" s="6">
+        <v>53.296066574970368</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>4.5124657638145411</v>
+      </c>
+      <c r="N10">
+        <v>5.5577830969957622</v>
+      </c>
+      <c r="O10">
+        <v>5.8964754984458603</v>
+      </c>
+      <c r="P10">
+        <v>6.1197864859382767</v>
+      </c>
+      <c r="Q10">
+        <v>8.0864460568245384</v>
+      </c>
+      <c r="R10">
+        <v>9.0456060191729577</v>
+      </c>
+      <c r="S10" s="6">
+        <v>7.5733819125010093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="19">
+        <v>88.193943430883195</v>
+      </c>
+      <c r="D11">
+        <v>87.287459234076422</v>
+      </c>
+      <c r="E11">
+        <v>85.93863845419655</v>
+      </c>
+      <c r="F11">
+        <v>78.286323122749053</v>
+      </c>
+      <c r="G11">
+        <v>71.682952851379923</v>
+      </c>
+      <c r="H11">
+        <v>61.892856627940851</v>
+      </c>
+      <c r="I11" s="6">
+        <v>53.60330683368079</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="8">
+        <v>4.738300568518703</v>
+      </c>
+      <c r="N11" s="8">
+        <v>5.3990824812745153</v>
+      </c>
+      <c r="O11" s="8">
+        <v>5.4993364506178786</v>
+      </c>
+      <c r="P11" s="8">
+        <v>6.8508794301354952</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>7.4956271443809168</v>
+      </c>
+      <c r="R11" s="8">
+        <v>9.147247941361508</v>
+      </c>
+      <c r="S11" s="9">
+        <v>9.6741338439096989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="18">
+        <v>80.594538015034715</v>
+      </c>
+      <c r="D12" s="10">
+        <v>81.461569736762428</v>
+      </c>
+      <c r="E12" s="10">
+        <v>81.865007482763701</v>
+      </c>
+      <c r="F12" s="10">
+        <v>79.111151480549125</v>
+      </c>
+      <c r="G12" s="10">
+        <v>75.911657251937015</v>
+      </c>
+      <c r="H12" s="10">
+        <v>68.001787789398406</v>
+      </c>
+      <c r="I12" s="11">
+        <v>56.700502022797203</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="18">
+        <v>7.4838661591817894</v>
+      </c>
+      <c r="N12" s="10">
+        <v>6.6741662522295293</v>
+      </c>
+      <c r="O12" s="10">
+        <v>7.1315719220604494</v>
+      </c>
+      <c r="P12" s="10">
+        <v>6.9757458907570538</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>7.3131567401180817</v>
+      </c>
+      <c r="R12" s="10">
+        <v>8.7690273336010094</v>
+      </c>
+      <c r="S12" s="11">
+        <v>10.577901694699619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19">
+        <v>92.492694573482453</v>
+      </c>
+      <c r="D13">
+        <v>92.369772518216706</v>
+      </c>
+      <c r="E13">
+        <v>92.645709161267249</v>
+      </c>
+      <c r="F13">
+        <v>91.996510927141813</v>
+      </c>
+      <c r="G13">
+        <v>90.163605798204728</v>
+      </c>
+      <c r="H13">
+        <v>79.391736376035553</v>
+      </c>
+      <c r="I13" s="6">
+        <v>61.060709867732413</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="19">
+        <v>4.2020365592810807</v>
+      </c>
+      <c r="N13">
+        <v>4.1720466681044339</v>
+      </c>
+      <c r="O13">
+        <v>3.7581471432762932</v>
+      </c>
+      <c r="P13">
+        <v>4.3076189982827957</v>
+      </c>
+      <c r="Q13">
+        <v>4.9274917245957504</v>
+      </c>
+      <c r="R13">
+        <v>5.8087074538058436</v>
+      </c>
+      <c r="S13" s="6">
+        <v>8.3567598725458367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19">
+        <v>91.321718469306248</v>
+      </c>
+      <c r="D14">
+        <v>89.908179713203992</v>
+      </c>
+      <c r="E14">
+        <v>89.519035631796129</v>
+      </c>
+      <c r="F14">
+        <v>87.236166979529798</v>
+      </c>
+      <c r="G14">
+        <v>82.889456944552578</v>
+      </c>
+      <c r="H14">
+        <v>70.134009233067189</v>
+      </c>
+      <c r="I14" s="6">
+        <v>59.459012044510182</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="19">
+        <v>4.0707928609350361</v>
+      </c>
+      <c r="N14">
+        <v>3.976496136212496</v>
+      </c>
+      <c r="O14">
+        <v>4.5184261162470811</v>
+      </c>
+      <c r="P14">
+        <v>5.746859797294591</v>
+      </c>
+      <c r="Q14">
+        <v>6.3498230765681098</v>
+      </c>
+      <c r="R14">
+        <v>6.3431837766482779</v>
+      </c>
+      <c r="S14" s="6">
+        <v>7.7348894523697824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="19">
+        <v>91.514534439455929</v>
+      </c>
+      <c r="D15">
+        <v>89.479894578096122</v>
+      </c>
+      <c r="E15">
+        <v>87.050407010441248</v>
+      </c>
+      <c r="F15">
+        <v>83.565725770407468</v>
+      </c>
+      <c r="G15">
+        <v>79.632767872847793</v>
+      </c>
+      <c r="H15">
+        <v>68.019688751632799</v>
+      </c>
+      <c r="I15" s="6">
+        <v>60.326810785560419</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="19">
+        <v>3.922662122179057</v>
+      </c>
+      <c r="N15">
+        <v>4.7367085519659229</v>
+      </c>
+      <c r="O15">
+        <v>5.5769285385006562</v>
+      </c>
+      <c r="P15">
+        <v>5.2954929738559997</v>
+      </c>
+      <c r="Q15">
+        <v>5.4580645521669497</v>
+      </c>
+      <c r="R15">
+        <v>7.4106264160678892</v>
+      </c>
+      <c r="S15" s="6">
+        <v>8.2108297517240523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="19">
+        <v>92.432864182792827</v>
+      </c>
+      <c r="D16">
+        <v>91.019403282035299</v>
+      </c>
+      <c r="E16">
+        <v>88.109796220843876</v>
+      </c>
+      <c r="F16">
+        <v>81.021009408962598</v>
+      </c>
+      <c r="G16">
+        <v>74.963768429369338</v>
+      </c>
+      <c r="H16">
+        <v>62.069994838478991</v>
+      </c>
+      <c r="I16" s="6">
+        <v>50.038301946095267</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>4.2108570413798603</v>
+      </c>
+      <c r="N16">
+        <v>4.5462104148028173</v>
+      </c>
+      <c r="O16">
+        <v>5.5275766558417514</v>
+      </c>
+      <c r="P16">
+        <v>5.7946099467318044</v>
+      </c>
+      <c r="Q16">
+        <v>7.3784840362541857</v>
+      </c>
+      <c r="R16">
+        <v>9.4123823396153199</v>
+      </c>
+      <c r="S16" s="6">
+        <v>10.553686888253409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="19">
+        <v>91.096670386422005</v>
+      </c>
+      <c r="D17">
+        <v>91.461592805012742</v>
+      </c>
+      <c r="E17">
+        <v>90.880088351398641</v>
+      </c>
+      <c r="F17">
+        <v>90.735548462068579</v>
+      </c>
+      <c r="G17">
+        <v>89.142233064299873</v>
+      </c>
+      <c r="H17">
+        <v>78.28085306389616</v>
+      </c>
+      <c r="I17" s="6">
+        <v>59.137720337834523</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>4.4913349382120487</v>
+      </c>
+      <c r="N17">
+        <v>4.3617133625626803</v>
+      </c>
+      <c r="O17">
+        <v>4.3741571728634234</v>
+      </c>
+      <c r="P17">
+        <v>4.4188066662484271</v>
+      </c>
+      <c r="Q17">
+        <v>4.681135124851953</v>
+      </c>
+      <c r="R17">
+        <v>6.1678631460711726</v>
+      </c>
+      <c r="S17" s="6">
+        <v>8.9596963179764817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="19">
+        <v>91.140892222251068</v>
+      </c>
+      <c r="D18">
+        <v>90.778758178415643</v>
+      </c>
+      <c r="E18">
+        <v>89.714977349861726</v>
+      </c>
+      <c r="F18">
+        <v>87.390577196457869</v>
+      </c>
+      <c r="G18">
+        <v>83.092238398832748</v>
+      </c>
+      <c r="H18">
+        <v>70.535102668131501</v>
+      </c>
+      <c r="I18" s="6">
+        <v>59.655400709925409</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>3.903249518826176</v>
+      </c>
+      <c r="N18">
+        <v>3.7664964814263491</v>
+      </c>
+      <c r="O18">
+        <v>4.9476912235420389</v>
+      </c>
+      <c r="P18">
+        <v>5.2615038980739257</v>
+      </c>
+      <c r="Q18">
+        <v>6.0060955195153962</v>
+      </c>
+      <c r="R18">
+        <v>6.2539940538212067</v>
+      </c>
+      <c r="S18" s="6">
+        <v>8.2430478321177478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="20">
+        <v>91.081684674319575</v>
+      </c>
+      <c r="D19" s="8">
+        <v>89.615221584961816</v>
+      </c>
+      <c r="E19" s="8">
+        <v>87.015983413928026</v>
+      </c>
+      <c r="F19" s="8">
+        <v>83.854197123965903</v>
+      </c>
+      <c r="G19" s="8">
+        <v>79.498579860840763</v>
+      </c>
+      <c r="H19" s="8">
+        <v>67.591553560151908</v>
+      </c>
+      <c r="I19" s="9">
+        <v>60.079934370827893</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="8">
+        <v>4.1769763320911357</v>
+      </c>
+      <c r="N19" s="8">
+        <v>4.4319965815185709</v>
+      </c>
+      <c r="O19" s="8">
+        <v>5.5037527208820505</v>
+      </c>
+      <c r="P19" s="8">
+        <v>5.3798392628543743</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>5.5725273050107447</v>
+      </c>
+      <c r="R19" s="8">
+        <v>7.3081835420438876</v>
+      </c>
+      <c r="S19" s="9">
+        <v>8.3556750707367211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="18">
+        <v>88.513949082604526</v>
+      </c>
+      <c r="D20" s="10">
+        <v>88.752166252879931</v>
+      </c>
+      <c r="E20" s="10">
+        <v>89.430903381517155</v>
+      </c>
+      <c r="F20" s="10">
+        <v>87.189341314947967</v>
+      </c>
+      <c r="G20" s="10">
+        <v>81.951493236677365</v>
+      </c>
+      <c r="H20" s="10">
+        <v>71.992690248185539</v>
+      </c>
+      <c r="I20" s="11">
+        <v>58.695098285163937</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="18">
+        <v>5.8644717430546391</v>
+      </c>
+      <c r="N20" s="10">
+        <v>5.6908321451813064</v>
+      </c>
+      <c r="O20" s="10">
+        <v>5.3856407846749406</v>
+      </c>
+      <c r="P20" s="10">
+        <v>5.9986753142268174</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>6.8213383559665148</v>
+      </c>
+      <c r="R20" s="10">
+        <v>7.8986687341396467</v>
+      </c>
+      <c r="S20" s="11">
+        <v>10.136570070648981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="19">
+        <v>92.990178692433901</v>
+      </c>
+      <c r="D21">
+        <v>92.76305735055378</v>
+      </c>
+      <c r="E21">
+        <v>92.086575143383598</v>
+      </c>
+      <c r="F21">
+        <v>89.683091260881739</v>
+      </c>
+      <c r="G21">
+        <v>87.089450024077479</v>
+      </c>
+      <c r="H21">
+        <v>73.437774836575869</v>
+      </c>
+      <c r="I21" s="6">
+        <v>60.562173259860948</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="19">
+        <v>3.6904396057483901</v>
+      </c>
+      <c r="N21">
+        <v>3.4554363379819328</v>
+      </c>
+      <c r="O21">
+        <v>3.740268826017374</v>
+      </c>
+      <c r="P21">
+        <v>4.6456607636345391</v>
+      </c>
+      <c r="Q21">
+        <v>4.9509671158728299</v>
+      </c>
+      <c r="R21">
+        <v>6.2990472489182006</v>
+      </c>
+      <c r="S21" s="6">
+        <v>7.0831252667102271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="19">
+        <v>91.404302805387587</v>
+      </c>
+      <c r="D22">
+        <v>89.643716641147421</v>
+      </c>
+      <c r="E22">
+        <v>87.230180768576432</v>
+      </c>
+      <c r="F22">
+        <v>82.122688489231464</v>
+      </c>
+      <c r="G22">
+        <v>75.148372102411486</v>
+      </c>
+      <c r="H22">
+        <v>65.616617214105077</v>
+      </c>
+      <c r="I22" s="6">
+        <v>55.41235362474302</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="19">
+        <v>4.2752844258887936</v>
+      </c>
+      <c r="N22">
+        <v>5.0808876195145807</v>
+      </c>
+      <c r="O22">
+        <v>6.0796524822835334</v>
+      </c>
+      <c r="P22">
+        <v>7.640476010764683</v>
+      </c>
+      <c r="Q22">
+        <v>7.5749926606153277</v>
+      </c>
+      <c r="R22">
+        <v>7.9279646675813273</v>
+      </c>
+      <c r="S22" s="6">
+        <v>7.4134306008973159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="19">
+        <v>91.836930538614808</v>
+      </c>
+      <c r="D23">
+        <v>89.440142215763117</v>
+      </c>
+      <c r="E23">
+        <v>87.468645922542592</v>
+      </c>
+      <c r="F23">
+        <v>82.47090084400962</v>
+      </c>
+      <c r="G23">
+        <v>76.064671839721797</v>
+      </c>
+      <c r="H23">
+        <v>65.754023247029238</v>
+      </c>
+      <c r="I23" s="6">
+        <v>54.757027886631093</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="19">
+        <v>3.8814886103074699</v>
+      </c>
+      <c r="N23">
+        <v>4.7694392954748359</v>
+      </c>
+      <c r="O23">
+        <v>5.6167345654756806</v>
+      </c>
+      <c r="P23">
+        <v>7.2604991212516996</v>
+      </c>
+      <c r="Q23">
+        <v>7.5316620728768529</v>
+      </c>
+      <c r="R23">
+        <v>8.2692038110791746</v>
+      </c>
+      <c r="S23" s="6">
+        <v>7.26285291036847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18">
-        <v>93.113146884200262</v>
-      </c>
-      <c r="D5" s="10">
-        <v>91.749533588814217</v>
-      </c>
-      <c r="E5" s="10">
-        <v>89.670738212844995</v>
-      </c>
-      <c r="F5" s="10">
-        <v>84.982303768487057</v>
-      </c>
-      <c r="G5" s="10">
-        <v>75.762685375017682</v>
-      </c>
-      <c r="H5" s="10">
-        <v>59.272017924030493</v>
-      </c>
-      <c r="I5" s="11">
-        <v>46.333889854871863</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="C24" s="19">
+        <v>93.01581328558207</v>
+      </c>
+      <c r="D24">
+        <v>91.556045755874493</v>
+      </c>
+      <c r="E24">
+        <v>89.672191512613992</v>
+      </c>
+      <c r="F24">
+        <v>84.233540082526673</v>
+      </c>
+      <c r="G24">
+        <v>75.630766702134096</v>
+      </c>
+      <c r="H24">
+        <v>58.992055871302227</v>
+      </c>
+      <c r="I24" s="6">
+        <v>47.500041811203673</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="19">
+        <v>3.6887589073733711</v>
+      </c>
+      <c r="N24">
+        <v>4.7981509529003992</v>
+      </c>
+      <c r="O24">
+        <v>5.1153571646784171</v>
+      </c>
+      <c r="P24">
+        <v>5.1553236474073074</v>
+      </c>
+      <c r="Q24">
+        <v>8.2888302831848293</v>
+      </c>
+      <c r="R24">
+        <v>10.44111300178367</v>
+      </c>
+      <c r="S24" s="6">
+        <v>8.6130591880736986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="C25" s="19">
+        <v>93.140736511561499</v>
+      </c>
+      <c r="D25">
+        <v>91.299275945293644</v>
+      </c>
+      <c r="E25">
+        <v>89.600726073178265</v>
+      </c>
+      <c r="F25">
+        <v>84.143744034694649</v>
+      </c>
+      <c r="G25">
+        <v>73.708177983085207</v>
+      </c>
+      <c r="H25">
+        <v>59.630642710288733</v>
+      </c>
+      <c r="I25" s="6">
+        <v>49.010795941141367</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="19">
+        <v>4.0606812542101052</v>
+      </c>
+      <c r="N25">
+        <v>4.6219315319205574</v>
+      </c>
+      <c r="O25">
+        <v>4.4366102899596527</v>
+      </c>
+      <c r="P25">
+        <v>4.7746509131752264</v>
+      </c>
+      <c r="Q25">
+        <v>7.8224932377096854</v>
+      </c>
+      <c r="R25">
+        <v>10.472706543681371</v>
+      </c>
+      <c r="S25" s="6">
+        <v>10.31157948273713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="19">
+        <v>92.481062408267675</v>
+      </c>
+      <c r="D26">
+        <v>90.7445162443735</v>
+      </c>
+      <c r="E26">
+        <v>87.867585359734946</v>
+      </c>
+      <c r="F26">
+        <v>78.549690452916266</v>
+      </c>
+      <c r="G26">
+        <v>70.910154932136095</v>
+      </c>
+      <c r="H26">
+        <v>61.407734207620017</v>
+      </c>
+      <c r="I26" s="6">
+        <v>49.914304333659167</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="19">
+        <v>4.0404090948996982</v>
+      </c>
+      <c r="N26">
+        <v>4.6290467798148507</v>
+      </c>
+      <c r="O26">
+        <v>5.1035960429293752</v>
+      </c>
+      <c r="P26">
+        <v>6.2863316753197109</v>
+      </c>
+      <c r="Q26">
+        <v>7.604179761836888</v>
+      </c>
+      <c r="R26">
+        <v>10.014574255537051</v>
+      </c>
+      <c r="S26" s="6">
+        <v>10.624435465486309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="19">
+        <v>82.988413971285794</v>
+      </c>
+      <c r="D27">
+        <v>82.316897204993126</v>
+      </c>
+      <c r="E27">
+        <v>80.487478265382904</v>
+      </c>
+      <c r="F27">
+        <v>71.31253153862346</v>
+      </c>
+      <c r="G27">
+        <v>68.982349904987657</v>
+      </c>
+      <c r="H27">
+        <v>64.152120693085578</v>
+      </c>
+      <c r="I27" s="6">
+        <v>55.799392728310792</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="19">
+        <v>6.4965045402129054</v>
+      </c>
+      <c r="N27">
+        <v>6.8352677669423176</v>
+      </c>
+      <c r="O27">
+        <v>7.5204813847637411</v>
+      </c>
+      <c r="P27">
+        <v>8.4988118108224189</v>
+      </c>
+      <c r="Q27">
+        <v>9.0985532884308071</v>
+      </c>
+      <c r="R27">
+        <v>9.0730676274315165</v>
+      </c>
+      <c r="S27" s="6">
+        <v>9.6923772636774519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14">
+        <v>1</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="S30" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="15">
+        <v>92.567111769713335</v>
+      </c>
+      <c r="D31" s="15">
+        <v>90.835858608343599</v>
+      </c>
+      <c r="E31" s="15">
+        <v>89.217505339533233</v>
+      </c>
+      <c r="F31" s="15">
+        <v>83.237245964288078</v>
+      </c>
+      <c r="G31" s="15">
+        <v>75.380430844191011</v>
+      </c>
+      <c r="H31" s="15">
+        <v>58.994367187597383</v>
+      </c>
+      <c r="I31" s="16">
+        <v>43.622535641382179</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="32"/>
+      <c r="M31">
+        <v>3.88093621561358</v>
+      </c>
+      <c r="N31">
+        <v>4.8164746829677396</v>
+      </c>
+      <c r="O31">
+        <v>5.2250608386616522</v>
+      </c>
+      <c r="P31">
+        <v>5.6675721086724113</v>
+      </c>
+      <c r="Q31">
+        <v>8.3263283482936075</v>
+      </c>
+      <c r="R31">
+        <v>10.49020927094638</v>
+      </c>
+      <c r="S31" s="6">
+        <v>11.060437347759546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="15">
+        <v>92.338566773632834</v>
+      </c>
+      <c r="D32" s="15">
+        <v>92.22816257293259</v>
+      </c>
+      <c r="E32" s="15">
+        <v>92.19353000091759</v>
+      </c>
+      <c r="F32" s="15">
+        <v>91.289781910285583</v>
+      </c>
+      <c r="G32" s="15">
+        <v>89.68940373291737</v>
+      </c>
+      <c r="H32" s="15">
+        <v>81.453332231966129</v>
+      </c>
+      <c r="I32" s="16">
+        <v>68.108240193153023</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="34"/>
+      <c r="M32" s="15">
+        <v>4.0483086633488163</v>
+      </c>
+      <c r="N32" s="15">
+        <v>3.9020890437152844</v>
+      </c>
+      <c r="O32" s="15">
+        <v>3.7923842410048425</v>
+      </c>
+      <c r="P32" s="15">
+        <v>4.4242632373638857</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>4.2715813123996149</v>
+      </c>
+      <c r="R32" s="15">
+        <v>6.1738858238669021</v>
+      </c>
+      <c r="S32" s="16">
+        <v>6.3931839578006242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="10">
-        <v>3.7040095151106671</v>
-      </c>
-      <c r="N5" s="10">
-        <v>4.6660308741510574</v>
-      </c>
-      <c r="O5" s="10">
-        <v>5.1856842653375148</v>
-      </c>
-      <c r="P5" s="10">
-        <v>5.2152535917282474</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>8.4738202288327695</v>
-      </c>
-      <c r="R5" s="10">
-        <v>10.941424406710301</v>
-      </c>
-      <c r="S5" s="11">
-        <v>9.3189278272958713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="C33" s="10">
+        <v>92.585967481796871</v>
+      </c>
+      <c r="D33" s="10">
+        <v>91.313417902038879</v>
+      </c>
+      <c r="E33" s="10">
+        <v>89.071433240773374</v>
+      </c>
+      <c r="F33" s="10">
+        <v>84.430667065862025</v>
+      </c>
+      <c r="G33" s="10">
+        <v>74.620110321660178</v>
+      </c>
+      <c r="H33" s="10">
+        <v>57.729776408047563</v>
+      </c>
+      <c r="I33" s="11">
+        <v>40.926778409266866</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="10">
+        <v>4.1190461448812883</v>
+      </c>
+      <c r="N33" s="10">
+        <v>5.0479140386031087</v>
+      </c>
+      <c r="O33" s="10">
+        <v>5.7227029784618981</v>
+      </c>
+      <c r="P33" s="10">
+        <v>5.4985207967748737</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>8.9665209094802485</v>
+      </c>
+      <c r="R33" s="10">
+        <v>11.349059301553211</v>
+      </c>
+      <c r="S33" s="11">
+        <v>11.05617423164966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="26"/>
+      <c r="B34" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>92.603782215910087</v>
+      </c>
+      <c r="D34">
+        <v>90.262334808427767</v>
+      </c>
+      <c r="E34">
+        <v>89.82540629282677</v>
+      </c>
+      <c r="F34">
+        <v>84.400771771755316</v>
+      </c>
+      <c r="G34">
+        <v>78.772449333136279</v>
+      </c>
+      <c r="H34">
+        <v>61.840203650833359</v>
+      </c>
+      <c r="I34" s="6">
+        <v>38.412876121977916</v>
+      </c>
+      <c r="K34" s="26"/>
+      <c r="L34" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34">
+        <v>4.4405799374618198</v>
+      </c>
+      <c r="N34">
+        <v>5.7451202216286257</v>
+      </c>
+      <c r="O34">
+        <v>4.8670511789444468</v>
+      </c>
+      <c r="P34">
+        <v>4.9325366781832338</v>
+      </c>
+      <c r="Q34">
+        <v>7.029848092265345</v>
+      </c>
+      <c r="R34">
+        <v>9.0186943841326457</v>
+      </c>
+      <c r="S34" s="6">
+        <v>7.771449833097023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="26"/>
+      <c r="B35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>91.081927840808433</v>
+      </c>
+      <c r="D35">
+        <v>87.684987506619976</v>
+      </c>
+      <c r="E35">
+        <v>87.27081687164015</v>
+      </c>
+      <c r="F35">
+        <v>83.161961006389646</v>
+      </c>
+      <c r="G35">
+        <v>78.602198625513438</v>
+      </c>
+      <c r="H35">
+        <v>62.429217703804063</v>
+      </c>
+      <c r="I35" s="6">
+        <v>50.327216453861126</v>
+      </c>
+      <c r="K35" s="26"/>
+      <c r="L35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35">
+        <v>5.0278535681088243</v>
+      </c>
+      <c r="N35">
+        <v>6.4718041382743881</v>
+      </c>
+      <c r="O35">
+        <v>6.3307190280562127</v>
+      </c>
+      <c r="P35">
+        <v>6.3795918367927573</v>
+      </c>
+      <c r="Q35">
+        <v>7.6119651620777704</v>
+      </c>
+      <c r="R35">
+        <v>10.57249776824408</v>
+      </c>
+      <c r="S35" s="6">
+        <v>12.72817257493416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26"/>
+      <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="19">
-        <v>93.053143481633342</v>
-      </c>
-      <c r="D6">
-        <v>90.886348497824386</v>
-      </c>
-      <c r="E6">
-        <v>90.323197720856868</v>
-      </c>
-      <c r="F6">
-        <v>84.953837547614299</v>
-      </c>
-      <c r="G6">
-        <v>79.620631089657635</v>
-      </c>
-      <c r="H6">
-        <v>62.912758760888927</v>
-      </c>
-      <c r="I6" s="6">
-        <v>44.508037843464628</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="C36">
+        <v>89.644638837679821</v>
+      </c>
+      <c r="D36">
+        <v>88.832235357085267</v>
+      </c>
+      <c r="E36">
+        <v>87.784876095604616</v>
+      </c>
+      <c r="F36">
+        <v>79.565194861748779</v>
+      </c>
+      <c r="G36">
+        <v>75.734515312347014</v>
+      </c>
+      <c r="H36">
+        <v>62.439186953401219</v>
+      </c>
+      <c r="I36" s="6">
+        <v>50.474777835549446</v>
+      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6">
-        <v>3.9872752197675312</v>
-      </c>
-      <c r="N6">
-        <v>5.1957321462377806</v>
-      </c>
-      <c r="O6">
-        <v>4.4991564068781216</v>
-      </c>
-      <c r="P6">
-        <v>4.6223904455976488</v>
-      </c>
-      <c r="Q6">
-        <v>6.4013560400427734</v>
-      </c>
-      <c r="R6">
-        <v>8.8397279842025007</v>
-      </c>
-      <c r="S6" s="6">
-        <v>6.5281759752004547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="19">
-        <v>91.579621507683157</v>
-      </c>
-      <c r="D7">
-        <v>88.21834387264019</v>
-      </c>
-      <c r="E7">
-        <v>87.647303754069384</v>
-      </c>
-      <c r="F7">
-        <v>83.887553813902656</v>
-      </c>
-      <c r="G7">
-        <v>79.48606245152061</v>
-      </c>
-      <c r="H7">
-        <v>64.136108443844662</v>
-      </c>
-      <c r="I7" s="6">
-        <v>54.648806073870297</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7">
-        <v>4.5335274096690847</v>
-      </c>
-      <c r="N7">
-        <v>6.1233749140175817</v>
-      </c>
-      <c r="O7">
-        <v>6.026762504697138</v>
-      </c>
-      <c r="P7">
-        <v>5.8968066838744084</v>
-      </c>
-      <c r="Q7">
-        <v>6.9627477602587504</v>
-      </c>
-      <c r="R7">
-        <v>9.7411206013203078</v>
-      </c>
-      <c r="S7" s="6">
-        <v>10.77245562517648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="M36">
+        <v>5.6337263714853885</v>
+      </c>
+      <c r="N36">
+        <v>6.3295758340906003</v>
+      </c>
+      <c r="O36">
+        <v>5.712095802065237</v>
+      </c>
+      <c r="P36">
+        <v>6.0565246528809871</v>
+      </c>
+      <c r="Q36">
+        <v>7.1392332762901995</v>
+      </c>
+      <c r="R36">
+        <v>9.8513477784150112</v>
+      </c>
+      <c r="S36" s="6">
+        <v>12.535546063955879</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>89.487105403835685</v>
+      </c>
+      <c r="D37">
+        <v>88.707572078492916</v>
+      </c>
+      <c r="E37">
+        <v>86.426030723556863</v>
+      </c>
+      <c r="F37">
+        <v>78.49543423448246</v>
+      </c>
+      <c r="G37">
+        <v>74.133652201259196</v>
+      </c>
+      <c r="H37">
+        <v>65.444157538801676</v>
+      </c>
+      <c r="I37" s="6">
+        <v>52.493719332914743</v>
+      </c>
+      <c r="K37" s="26"/>
+      <c r="L37" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37">
+        <v>5.5869146897287463</v>
+      </c>
+      <c r="N37">
+        <v>5.7426745960735408</v>
+      </c>
+      <c r="O37">
+        <v>6.3807802799052684</v>
+      </c>
+      <c r="P37">
+        <v>6.6617360492423048</v>
+      </c>
+      <c r="Q37">
+        <v>7.4710432104834563</v>
+      </c>
+      <c r="R37">
+        <v>9.1192677577277852</v>
+      </c>
+      <c r="S37" s="6">
+        <v>11.62676144298649</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="26"/>
+      <c r="B38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>89.019136482146294</v>
+      </c>
+      <c r="D38">
+        <v>87.41881497347002</v>
+      </c>
+      <c r="E38">
+        <v>84.760203320527722</v>
+      </c>
+      <c r="F38">
+        <v>78.539871405940673</v>
+      </c>
+      <c r="G38">
+        <v>73.359996619176897</v>
+      </c>
+      <c r="H38">
+        <v>62.13074772235575</v>
+      </c>
+      <c r="I38" s="6">
+        <v>50.478879685998855</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38">
+        <v>5.5440228882484019</v>
+      </c>
+      <c r="N38">
+        <v>6.1890179838423203</v>
+      </c>
+      <c r="O38">
+        <v>5.9586184293843134</v>
+      </c>
+      <c r="P38">
+        <v>6.8545846160008956</v>
+      </c>
+      <c r="Q38">
+        <v>7.9156374588352119</v>
+      </c>
+      <c r="R38">
+        <v>9.791245427984272</v>
+      </c>
+      <c r="S38" s="6">
+        <v>10.04604976368349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="26"/>
+      <c r="B39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>89.238869796493674</v>
+      </c>
+      <c r="D39">
+        <v>87.306095031975872</v>
+      </c>
+      <c r="E39">
+        <v>85.566169092021809</v>
+      </c>
+      <c r="F39">
+        <v>78.895888119014472</v>
+      </c>
+      <c r="G39">
+        <v>71.73637384351656</v>
+      </c>
+      <c r="H39">
+        <v>61.412781836092677</v>
+      </c>
+      <c r="I39" s="6">
+        <v>49.91230553601401</v>
+      </c>
+      <c r="K39" s="26"/>
+      <c r="L39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>4.9520431158543712</v>
+      </c>
+      <c r="N39">
+        <v>6.089338440962786</v>
+      </c>
+      <c r="O39">
+        <v>6.2868088050108852</v>
+      </c>
+      <c r="P39">
+        <v>6.5544539385805303</v>
+      </c>
+      <c r="Q39">
+        <v>9.0032669871014477</v>
+      </c>
+      <c r="R39">
+        <v>9.5917571263641719</v>
+      </c>
+      <c r="S39" s="6">
+        <v>8.39411943554272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="19">
-        <v>90.212611412440125</v>
-      </c>
-      <c r="D8">
-        <v>89.419775834277686</v>
-      </c>
-      <c r="E8">
-        <v>88.372612796535151</v>
-      </c>
-      <c r="F8">
-        <v>80.476068132077273</v>
-      </c>
-      <c r="G8">
-        <v>76.559488692232051</v>
-      </c>
-      <c r="H8">
-        <v>63.95654229996223</v>
-      </c>
-      <c r="I8" s="6">
-        <v>55.218118957199742</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="C40" s="8">
+        <v>87.528624354026661</v>
+      </c>
+      <c r="D40" s="8">
+        <v>86.802859639484197</v>
+      </c>
+      <c r="E40" s="8">
+        <v>85.315702308010216</v>
+      </c>
+      <c r="F40" s="8">
+        <v>77.466410195573999</v>
+      </c>
+      <c r="G40" s="8">
+        <v>70.744609004505662</v>
+      </c>
+      <c r="H40" s="8">
+        <v>60.340914073578965</v>
+      </c>
+      <c r="I40" s="9">
+        <v>50.624658682159797</v>
+      </c>
+      <c r="K40" s="27"/>
+      <c r="L40" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8">
-        <v>5.1774780277668837</v>
-      </c>
-      <c r="N8">
-        <v>5.8855849597253371</v>
-      </c>
-      <c r="O8">
-        <v>5.2696422924576174</v>
-      </c>
-      <c r="P8">
-        <v>5.587508332190076</v>
-      </c>
-      <c r="Q8">
-        <v>6.7799979714244687</v>
-      </c>
-      <c r="R8">
-        <v>9.2029739138063036</v>
-      </c>
-      <c r="S8" s="6">
-        <v>10.83407146633883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="M40" s="8">
+        <v>5.0598364128504718</v>
+      </c>
+      <c r="N40" s="8">
+        <v>5.6364339917960171</v>
+      </c>
+      <c r="O40" s="8">
+        <v>5.7486513894428279</v>
+      </c>
+      <c r="P40" s="8">
+        <v>7.4568896228696975</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>8.0033483489556136</v>
+      </c>
+      <c r="R40" s="8">
+        <v>9.802914975481821</v>
+      </c>
+      <c r="S40" s="9">
+        <v>10.868957426503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="19">
-        <v>90.084819072829347</v>
-      </c>
-      <c r="D9">
-        <v>89.303151411344388</v>
-      </c>
-      <c r="E9">
-        <v>87.066863323500485</v>
-      </c>
-      <c r="F9">
-        <v>79.445084588390316</v>
-      </c>
-      <c r="G9">
-        <v>75.107777748942439</v>
-      </c>
-      <c r="H9">
-        <v>66.874047353350818</v>
-      </c>
-      <c r="I9" s="6">
-        <v>56.21099086785641</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="C41" s="10">
+        <v>79.822274087201521</v>
+      </c>
+      <c r="D41" s="10">
+        <v>80.778688451203678</v>
+      </c>
+      <c r="E41" s="10">
+        <v>81.235621348026953</v>
+      </c>
+      <c r="F41" s="10">
+        <v>78.388392101605987</v>
+      </c>
+      <c r="G41" s="10">
+        <v>74.896268800791375</v>
+      </c>
+      <c r="H41" s="10">
+        <v>66.849727812112619</v>
+      </c>
+      <c r="I41" s="11">
+        <v>54.16366663354669</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9">
-        <v>5.1380550132743084</v>
-      </c>
-      <c r="N9">
-        <v>5.1384270278292172</v>
-      </c>
-      <c r="O9">
-        <v>5.7921632754264394</v>
-      </c>
-      <c r="P9">
-        <v>6.0323058838530139</v>
-      </c>
-      <c r="Q9">
-        <v>6.9748198258504468</v>
-      </c>
-      <c r="R9">
-        <v>8.4516432861658437</v>
-      </c>
-      <c r="S9" s="6">
-        <v>10.429185716172441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="M41" s="10">
+        <v>7.9423136815743947</v>
+      </c>
+      <c r="N41" s="10">
+        <v>7.0913207935750453</v>
+      </c>
+      <c r="O41" s="10">
+        <v>7.6126336301463384</v>
+      </c>
+      <c r="P41" s="10">
+        <v>7.4223737924041231</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>7.8281249785354792</v>
+      </c>
+      <c r="R41" s="10">
+        <v>9.5420643874435545</v>
+      </c>
+      <c r="S41" s="11">
+        <v>11.93678407231933</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="19">
-        <v>89.661415756191658</v>
-      </c>
-      <c r="D10">
-        <v>88.04566648500419</v>
-      </c>
-      <c r="E10">
-        <v>85.426324333832184</v>
-      </c>
-      <c r="F10">
-        <v>79.378521152143776</v>
-      </c>
-      <c r="G10">
-        <v>74.409023146105653</v>
-      </c>
-      <c r="H10">
-        <v>63.85187011421668</v>
-      </c>
-      <c r="I10" s="6">
-        <v>54.269229549275238</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="C42">
+        <v>92.066966520323973</v>
+      </c>
+      <c r="D42">
+        <v>91.997206382100771</v>
+      </c>
+      <c r="E42">
+        <v>92.207063308090554</v>
+      </c>
+      <c r="F42">
+        <v>91.578845428376383</v>
+      </c>
+      <c r="G42">
+        <v>89.807376758197009</v>
+      </c>
+      <c r="H42">
+        <v>78.693228668248281</v>
+      </c>
+      <c r="I42" s="6">
+        <v>59.400107247429965</v>
+      </c>
+      <c r="K42" s="29"/>
+      <c r="L42" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10">
-        <v>5.0704882397024411</v>
-      </c>
-      <c r="N10">
-        <v>5.7251909141599304</v>
-      </c>
-      <c r="O10">
-        <v>5.5987654006730407</v>
-      </c>
-      <c r="P10">
-        <v>6.3734778433530899</v>
-      </c>
-      <c r="Q10">
-        <v>7.2863433217209206</v>
-      </c>
-      <c r="R10">
-        <v>9.0724857709392399</v>
-      </c>
-      <c r="S10" s="6">
-        <v>8.683376959047429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="19">
-        <v>89.817152397512075</v>
-      </c>
-      <c r="D11">
-        <v>87.963572349241787</v>
-      </c>
-      <c r="E11">
-        <v>86.141990847671707</v>
-      </c>
-      <c r="F11">
-        <v>79.671415842697584</v>
-      </c>
-      <c r="G11">
-        <v>72.8931046116316</v>
-      </c>
-      <c r="H11">
-        <v>62.949650660184503</v>
-      </c>
-      <c r="I11" s="6">
-        <v>53.296066574970368</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11">
-        <v>4.5124657638145411</v>
-      </c>
-      <c r="N11">
-        <v>5.5577830969957622</v>
-      </c>
-      <c r="O11">
-        <v>5.8964754984458603</v>
-      </c>
-      <c r="P11">
-        <v>6.1197864859382767</v>
-      </c>
-      <c r="Q11">
-        <v>8.0864460568245384</v>
-      </c>
-      <c r="R11">
-        <v>9.0456060191729577</v>
-      </c>
-      <c r="S11" s="6">
-        <v>7.5733819125010093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="19">
-        <v>88.193943430883195</v>
-      </c>
-      <c r="D12">
-        <v>87.287459234076422</v>
-      </c>
-      <c r="E12">
-        <v>85.93863845419655</v>
-      </c>
-      <c r="F12">
-        <v>78.286323122749053</v>
-      </c>
-      <c r="G12">
-        <v>71.682952851379923</v>
-      </c>
-      <c r="H12">
-        <v>61.892856627940851</v>
-      </c>
-      <c r="I12" s="6">
-        <v>53.60330683368079</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="8">
-        <v>4.738300568518703</v>
-      </c>
-      <c r="N12" s="8">
-        <v>5.3990824812745153</v>
-      </c>
-      <c r="O12" s="8">
-        <v>5.4993364506178786</v>
-      </c>
-      <c r="P12" s="8">
-        <v>6.8508794301354952</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>7.4956271443809168</v>
-      </c>
-      <c r="R12" s="8">
-        <v>9.147247941361508</v>
-      </c>
-      <c r="S12" s="9">
-        <v>9.6741338439096989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="18">
-        <v>80.594538015034715</v>
-      </c>
-      <c r="D13" s="10">
-        <v>81.461569736762428</v>
-      </c>
-      <c r="E13" s="10">
-        <v>81.865007482763701</v>
-      </c>
-      <c r="F13" s="10">
-        <v>79.111151480549125</v>
-      </c>
-      <c r="G13" s="10">
-        <v>75.911657251937015</v>
-      </c>
-      <c r="H13" s="10">
-        <v>68.001787789398406</v>
-      </c>
-      <c r="I13" s="11">
-        <v>56.700502022797203</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="18">
-        <v>7.4838661591817894</v>
-      </c>
-      <c r="N13" s="10">
-        <v>6.6741662522295293</v>
-      </c>
-      <c r="O13" s="10">
-        <v>7.1315719220604494</v>
-      </c>
-      <c r="P13" s="10">
-        <v>6.9757458907570538</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>7.3131567401180817</v>
-      </c>
-      <c r="R13" s="10">
-        <v>8.7690273336010094</v>
-      </c>
-      <c r="S13" s="11">
-        <v>10.577901694699619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="M42">
+        <v>4.5862361191526402</v>
+      </c>
+      <c r="N42">
+        <v>4.4666437433078885</v>
+      </c>
+      <c r="O42">
+        <v>4.1681863274169455</v>
+      </c>
+      <c r="P42">
+        <v>4.6138456124840079</v>
+      </c>
+      <c r="Q42">
+        <v>5.1290330567574181</v>
+      </c>
+      <c r="R42">
+        <v>6.0620536051523528</v>
+      </c>
+      <c r="S42" s="6">
+        <v>9.0603004854765601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>90.767440481934031</v>
+      </c>
+      <c r="D43">
+        <v>89.326742888022011</v>
+      </c>
+      <c r="E43">
+        <v>88.953713695844399</v>
+      </c>
+      <c r="F43">
+        <v>86.53853357346091</v>
+      </c>
+      <c r="G43">
+        <v>82.090667595564682</v>
+      </c>
+      <c r="H43">
+        <v>69.51245274156706</v>
+      </c>
+      <c r="I43" s="6">
+        <v>57.472415487547558</v>
+      </c>
+      <c r="K43" s="29"/>
+      <c r="L43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43">
+        <v>4.4126117660826036</v>
+      </c>
+      <c r="N43">
+        <v>4.2169626005720833</v>
+      </c>
+      <c r="O43">
+        <v>4.8002136380547658</v>
+      </c>
+      <c r="P43">
+        <v>6.3433480483529827</v>
+      </c>
+      <c r="Q43">
+        <v>6.6640597093001865</v>
+      </c>
+      <c r="R43">
+        <v>6.7349464223211086</v>
+      </c>
+      <c r="S43" s="6">
+        <v>8.3865817301991239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>90.941629733573507</v>
+      </c>
+      <c r="D44">
+        <v>88.868736298242538</v>
+      </c>
+      <c r="E44">
+        <v>86.130046400212223</v>
+      </c>
+      <c r="F44">
+        <v>82.88408060477704</v>
+      </c>
+      <c r="G44">
+        <v>78.813382771082146</v>
+      </c>
+      <c r="H44">
+        <v>66.914508802777192</v>
+      </c>
+      <c r="I44" s="6">
+        <v>58.03057290210014</v>
+      </c>
+      <c r="K44" s="29"/>
+      <c r="L44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>4.3072256890080602</v>
+      </c>
+      <c r="N44">
+        <v>5.0590845443102621</v>
+      </c>
+      <c r="O44">
+        <v>6.1087169629067919</v>
+      </c>
+      <c r="P44">
+        <v>5.5682994686496876</v>
+      </c>
+      <c r="Q44">
+        <v>5.8348314103045897</v>
+      </c>
+      <c r="R44">
+        <v>7.8141445822040012</v>
+      </c>
+      <c r="S44" s="6">
+        <v>8.8605715056275027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="19">
-        <v>92.492694573482453</v>
-      </c>
-      <c r="D14">
-        <v>92.369772518216706</v>
-      </c>
-      <c r="E14">
-        <v>92.645709161267249</v>
-      </c>
-      <c r="F14">
-        <v>91.996510927141813</v>
-      </c>
-      <c r="G14">
-        <v>90.163605798204728</v>
-      </c>
-      <c r="H14">
-        <v>79.391736376035553</v>
-      </c>
-      <c r="I14" s="6">
-        <v>61.060709867732413</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="C45">
+        <v>91.954943077771645</v>
+      </c>
+      <c r="D45">
+        <v>90.486053623351509</v>
+      </c>
+      <c r="E45">
+        <v>87.574188580435759</v>
+      </c>
+      <c r="F45">
+        <v>80.195562284133075</v>
+      </c>
+      <c r="G45">
+        <v>73.887556692554313</v>
+      </c>
+      <c r="H45">
+        <v>60.201740744469255</v>
+      </c>
+      <c r="I45" s="6">
+        <v>43.97379234137982</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="19">
-        <v>4.2020365592810807</v>
-      </c>
-      <c r="N14">
-        <v>4.1720466681044339</v>
-      </c>
-      <c r="O14">
-        <v>3.7581471432762932</v>
-      </c>
-      <c r="P14">
-        <v>4.3076189982827957</v>
-      </c>
-      <c r="Q14">
-        <v>4.9274917245957504</v>
-      </c>
-      <c r="R14">
-        <v>5.8087074538058436</v>
-      </c>
-      <c r="S14" s="6">
-        <v>8.3567598725458367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="M45">
+        <v>4.6677178192019442</v>
+      </c>
+      <c r="N45">
+        <v>4.9332992633954884</v>
+      </c>
+      <c r="O45">
+        <v>5.8893270280054093</v>
+      </c>
+      <c r="P45">
+        <v>6.2276780045249982</v>
+      </c>
+      <c r="Q45">
+        <v>7.8100433893753065</v>
+      </c>
+      <c r="R45">
+        <v>10.127273986997725</v>
+      </c>
+      <c r="S45" s="6">
+        <v>12.975199093257455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="29"/>
+      <c r="B46" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="19">
-        <v>91.321718469306248</v>
-      </c>
-      <c r="D15">
-        <v>89.908179713203992</v>
-      </c>
-      <c r="E15">
-        <v>89.519035631796129</v>
-      </c>
-      <c r="F15">
-        <v>87.236166979529798</v>
-      </c>
-      <c r="G15">
-        <v>82.889456944552578</v>
-      </c>
-      <c r="H15">
-        <v>70.134009233067189</v>
-      </c>
-      <c r="I15" s="6">
-        <v>59.459012044510182</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="C46">
+        <v>90.642246446502455</v>
+      </c>
+      <c r="D46">
+        <v>91.112891818426803</v>
+      </c>
+      <c r="E46">
+        <v>90.510903269239805</v>
+      </c>
+      <c r="F46">
+        <v>90.384514875799795</v>
+      </c>
+      <c r="G46">
+        <v>88.747243892649067</v>
+      </c>
+      <c r="H46">
+        <v>77.721185641433252</v>
+      </c>
+      <c r="I46" s="6">
+        <v>57.390955449525258</v>
+      </c>
+      <c r="K46" s="29"/>
+      <c r="L46" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="19">
-        <v>4.0707928609350361</v>
-      </c>
-      <c r="N15">
-        <v>3.976496136212496</v>
-      </c>
-      <c r="O15">
-        <v>4.5184261162470811</v>
-      </c>
-      <c r="P15">
-        <v>5.746859797294591</v>
-      </c>
-      <c r="Q15">
-        <v>6.3498230765681098</v>
-      </c>
-      <c r="R15">
-        <v>6.3431837766482779</v>
-      </c>
-      <c r="S15" s="6">
-        <v>7.7348894523697824</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="19">
-        <v>91.514534439455929</v>
-      </c>
-      <c r="D16">
-        <v>89.479894578096122</v>
-      </c>
-      <c r="E16">
-        <v>87.050407010441248</v>
-      </c>
-      <c r="F16">
-        <v>83.565725770407468</v>
-      </c>
-      <c r="G16">
-        <v>79.632767872847793</v>
-      </c>
-      <c r="H16">
-        <v>68.019688751632799</v>
-      </c>
-      <c r="I16" s="6">
-        <v>60.326810785560419</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="19">
-        <v>3.922662122179057</v>
-      </c>
-      <c r="N16">
-        <v>4.7367085519659229</v>
-      </c>
-      <c r="O16">
-        <v>5.5769285385006562</v>
-      </c>
-      <c r="P16">
-        <v>5.2954929738559997</v>
-      </c>
-      <c r="Q16">
-        <v>5.4580645521669497</v>
-      </c>
-      <c r="R16">
-        <v>7.4106264160678892</v>
-      </c>
-      <c r="S16" s="6">
-        <v>8.2108297517240523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="19">
-        <v>92.432864182792827</v>
-      </c>
-      <c r="D17">
-        <v>91.019403282035299</v>
-      </c>
-      <c r="E17">
-        <v>88.109796220843876</v>
-      </c>
-      <c r="F17">
-        <v>81.021009408962598</v>
-      </c>
-      <c r="G17">
-        <v>74.963768429369338</v>
-      </c>
-      <c r="H17">
-        <v>62.069994838478991</v>
-      </c>
-      <c r="I17" s="6">
-        <v>50.038301946095267</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17">
-        <v>4.2108570413798603</v>
-      </c>
-      <c r="N17">
-        <v>4.5462104148028173</v>
-      </c>
-      <c r="O17">
-        <v>5.5275766558417514</v>
-      </c>
-      <c r="P17">
-        <v>5.7946099467318044</v>
-      </c>
-      <c r="Q17">
-        <v>7.3784840362541857</v>
-      </c>
-      <c r="R17">
-        <v>9.4123823396153199</v>
-      </c>
-      <c r="S17" s="6">
-        <v>10.553686888253409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="M46">
+        <v>4.8046743223783803</v>
+      </c>
+      <c r="N46">
+        <v>4.6267271925378539</v>
+      </c>
+      <c r="O46">
+        <v>4.7167994848022108</v>
+      </c>
+      <c r="P46">
+        <v>4.6380378521606005</v>
+      </c>
+      <c r="Q46">
+        <v>4.941832660679113</v>
+      </c>
+      <c r="R46">
+        <v>6.5489356622072048</v>
+      </c>
+      <c r="S46" s="6">
+        <v>9.8361171493471335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="29"/>
+      <c r="B47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>90.617152023346819</v>
+      </c>
+      <c r="D47">
+        <v>90.05855315992585</v>
+      </c>
+      <c r="E47">
+        <v>89.179945583344406</v>
+      </c>
+      <c r="F47">
+        <v>86.633871646318525</v>
+      </c>
+      <c r="G47">
+        <v>82.414435110979952</v>
+      </c>
+      <c r="H47">
+        <v>69.823014577124326</v>
+      </c>
+      <c r="I47" s="6">
+        <v>57.449010771275319</v>
+      </c>
+      <c r="K47" s="29"/>
+      <c r="L47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47">
+        <v>4.2750077328577394</v>
+      </c>
+      <c r="N47">
+        <v>4.2266125705467239</v>
+      </c>
+      <c r="O47">
+        <v>5.2565974786040313</v>
+      </c>
+      <c r="P47">
+        <v>5.7069770284176009</v>
+      </c>
+      <c r="Q47">
+        <v>6.3983299535714817</v>
+      </c>
+      <c r="R47">
+        <v>6.6655406069698175</v>
+      </c>
+      <c r="S47" s="6">
+        <v>9.1124239201893804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="8">
+        <v>90.581355357949491</v>
+      </c>
+      <c r="D48" s="8">
+        <v>88.97341294355499</v>
+      </c>
+      <c r="E48" s="8">
+        <v>86.175206640299365</v>
+      </c>
+      <c r="F48" s="8">
+        <v>83.080132284515585</v>
+      </c>
+      <c r="G48" s="8">
+        <v>78.599726564969771</v>
+      </c>
+      <c r="H48" s="8">
+        <v>66.3934253274236</v>
+      </c>
+      <c r="I48" s="9">
+        <v>58.11224589934929</v>
+      </c>
+      <c r="K48" s="30"/>
+      <c r="L48" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="8">
+        <v>4.4778305644230976</v>
+      </c>
+      <c r="N48" s="8">
+        <v>4.8960641145432993</v>
+      </c>
+      <c r="O48" s="8">
+        <v>6.1124849117603945</v>
+      </c>
+      <c r="P48" s="8">
+        <v>5.8618346048185197</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>5.8104015835542553</v>
+      </c>
+      <c r="R48" s="8">
+        <v>7.7638343010849269</v>
+      </c>
+      <c r="S48" s="9">
+        <v>8.9944066091442814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="19">
-        <v>91.096670386422005</v>
-      </c>
-      <c r="D18">
-        <v>91.461592805012742</v>
-      </c>
-      <c r="E18">
-        <v>90.880088351398641</v>
-      </c>
-      <c r="F18">
-        <v>90.735548462068579</v>
-      </c>
-      <c r="G18">
-        <v>89.142233064299873</v>
-      </c>
-      <c r="H18">
-        <v>78.28085306389616</v>
-      </c>
-      <c r="I18" s="6">
-        <v>59.137720337834523</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="C49" s="18">
+        <v>88.097863565116072</v>
+      </c>
+      <c r="D49" s="10">
+        <v>88.309646130348668</v>
+      </c>
+      <c r="E49" s="10">
+        <v>89.035399074309595</v>
+      </c>
+      <c r="F49" s="10">
+        <v>86.731933778506104</v>
+      </c>
+      <c r="G49" s="10">
+        <v>81.318142561250468</v>
+      </c>
+      <c r="H49" s="10">
+        <v>70.991079823179021</v>
+      </c>
+      <c r="I49" s="11">
+        <v>56.478864955891837</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18">
-        <v>4.4913349382120487</v>
-      </c>
-      <c r="N18">
-        <v>4.3617133625626803</v>
-      </c>
-      <c r="O18">
-        <v>4.3741571728634234</v>
-      </c>
-      <c r="P18">
-        <v>4.4188066662484271</v>
-      </c>
-      <c r="Q18">
-        <v>4.681135124851953</v>
-      </c>
-      <c r="R18">
-        <v>6.1678631460711726</v>
-      </c>
-      <c r="S18" s="6">
-        <v>8.9596963179764817</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="M49" s="18">
+        <v>6.0517517161830918</v>
+      </c>
+      <c r="N49" s="10">
+        <v>5.9744489184256429</v>
+      </c>
+      <c r="O49" s="10">
+        <v>5.5712767145379676</v>
+      </c>
+      <c r="P49" s="10">
+        <v>6.3095302904344157</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>7.2771371944762926</v>
+      </c>
+      <c r="R49" s="10">
+        <v>8.5250788738023058</v>
+      </c>
+      <c r="S49" s="11">
+        <v>11.03174457619204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="29"/>
+      <c r="B50" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="19">
-        <v>91.140892222251068</v>
-      </c>
-      <c r="D19">
-        <v>90.778758178415643</v>
-      </c>
-      <c r="E19">
-        <v>89.714977349861726</v>
-      </c>
-      <c r="F19">
-        <v>87.390577196457869</v>
-      </c>
-      <c r="G19">
-        <v>83.092238398832748</v>
-      </c>
-      <c r="H19">
-        <v>70.535102668131501</v>
-      </c>
-      <c r="I19" s="6">
-        <v>59.655400709925409</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="C50" s="19">
+        <v>92.579341430099007</v>
+      </c>
+      <c r="D50">
+        <v>92.307467631253317</v>
+      </c>
+      <c r="E50">
+        <v>91.51804785502118</v>
+      </c>
+      <c r="F50">
+        <v>89.101513767447088</v>
+      </c>
+      <c r="G50">
+        <v>86.325246592619308</v>
+      </c>
+      <c r="H50">
+        <v>72.610999037461639</v>
+      </c>
+      <c r="I50" s="6">
+        <v>58.562330658368531</v>
+      </c>
+      <c r="K50" s="29"/>
+      <c r="L50" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19">
-        <v>3.903249518826176</v>
-      </c>
-      <c r="N19">
-        <v>3.7664964814263491</v>
-      </c>
-      <c r="O19">
-        <v>4.9476912235420389</v>
-      </c>
-      <c r="P19">
-        <v>5.2615038980739257</v>
-      </c>
-      <c r="Q19">
-        <v>6.0060955195153962</v>
-      </c>
-      <c r="R19">
-        <v>6.2539940538212067</v>
-      </c>
-      <c r="S19" s="6">
-        <v>8.2430478321177478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="20">
-        <v>91.081684674319575</v>
-      </c>
-      <c r="D20" s="8">
-        <v>89.615221584961816</v>
-      </c>
-      <c r="E20" s="8">
-        <v>87.015983413928026</v>
-      </c>
-      <c r="F20" s="8">
-        <v>83.854197123965903</v>
-      </c>
-      <c r="G20" s="8">
-        <v>79.498579860840763</v>
-      </c>
-      <c r="H20" s="8">
-        <v>67.591553560151908</v>
-      </c>
-      <c r="I20" s="9">
-        <v>60.079934370827893</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="8">
-        <v>4.1769763320911357</v>
-      </c>
-      <c r="N20" s="8">
-        <v>4.4319965815185709</v>
-      </c>
-      <c r="O20" s="8">
-        <v>5.5037527208820505</v>
-      </c>
-      <c r="P20" s="8">
-        <v>5.3798392628543743</v>
-      </c>
-      <c r="Q20" s="8">
-        <v>5.5725273050107447</v>
-      </c>
-      <c r="R20" s="8">
-        <v>7.3081835420438876</v>
-      </c>
-      <c r="S20" s="9">
-        <v>8.3556750707367211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="M50" s="19">
+        <v>3.9546659796940227</v>
+      </c>
+      <c r="N50">
+        <v>3.7955785731855083</v>
+      </c>
+      <c r="O50">
+        <v>4.2224549638399438</v>
+      </c>
+      <c r="P50">
+        <v>4.8645554438308114</v>
+      </c>
+      <c r="Q50">
+        <v>5.3939887636009738</v>
+      </c>
+      <c r="R50">
+        <v>6.88709839013306</v>
+      </c>
+      <c r="S50" s="6">
+        <v>7.8544484539256203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="29"/>
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="19">
+        <v>90.838947223672307</v>
+      </c>
+      <c r="D51">
+        <v>89.025256077086809</v>
+      </c>
+      <c r="E51">
+        <v>86.574536317770949</v>
+      </c>
+      <c r="F51">
+        <v>81.253101039493401</v>
+      </c>
+      <c r="G51">
+        <v>73.897336794246797</v>
+      </c>
+      <c r="H51">
+        <v>64.486669990677441</v>
+      </c>
+      <c r="I51" s="6">
+        <v>53.102947668822111</v>
+      </c>
+      <c r="K51" s="29"/>
+      <c r="L51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="19">
+        <v>4.7127350259472136</v>
+      </c>
+      <c r="N51">
+        <v>5.6041277234848277</v>
+      </c>
+      <c r="O51">
+        <v>6.6383320068267304</v>
+      </c>
+      <c r="P51">
+        <v>8.3563094542563991</v>
+      </c>
+      <c r="Q51">
+        <v>8.317698837370294</v>
+      </c>
+      <c r="R51">
+        <v>8.4609214463562026</v>
+      </c>
+      <c r="S51" s="6">
+        <v>8.2542230112224182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="29"/>
+      <c r="B52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="19">
+        <v>91.285512236598578</v>
+      </c>
+      <c r="D52">
+        <v>88.706640804109171</v>
+      </c>
+      <c r="E52">
+        <v>86.835404333433715</v>
+      </c>
+      <c r="F52">
+        <v>81.465451613146882</v>
+      </c>
+      <c r="G52">
+        <v>75.104558535380434</v>
+      </c>
+      <c r="H52">
+        <v>64.738132684993971</v>
+      </c>
+      <c r="I52" s="6">
+        <v>51.900369998563754</v>
+      </c>
+      <c r="K52" s="29"/>
+      <c r="L52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" s="19">
+        <v>4.2911852431583064</v>
+      </c>
+      <c r="N52">
+        <v>5.2602932733907437</v>
+      </c>
+      <c r="O52">
+        <v>6.0968469509561896</v>
+      </c>
+      <c r="P52">
+        <v>7.716341228249882</v>
+      </c>
+      <c r="Q52">
+        <v>7.8880883925660035</v>
+      </c>
+      <c r="R52">
+        <v>8.7310580782704434</v>
+      </c>
+      <c r="S52" s="6">
+        <v>8.2560842589602714</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="18">
-        <v>88.513949082604526</v>
-      </c>
-      <c r="D21" s="10">
-        <v>88.752166252879931</v>
-      </c>
-      <c r="E21" s="10">
-        <v>89.430903381517155</v>
-      </c>
-      <c r="F21" s="10">
-        <v>87.189341314947967</v>
-      </c>
-      <c r="G21" s="10">
-        <v>81.951493236677365</v>
-      </c>
-      <c r="H21" s="10">
-        <v>71.992690248185539</v>
-      </c>
-      <c r="I21" s="11">
-        <v>58.695098285163937</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="21" t="s">
+      <c r="B53" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="19">
+        <v>92.556186042757076</v>
+      </c>
+      <c r="D53">
+        <v>91.100597477212503</v>
+      </c>
+      <c r="E53">
+        <v>89.254913912990943</v>
+      </c>
+      <c r="F53">
+        <v>83.596127353935429</v>
+      </c>
+      <c r="G53">
+        <v>74.615790499706904</v>
+      </c>
+      <c r="H53">
+        <v>57.462105655682016</v>
+      </c>
+      <c r="I53" s="6">
+        <v>43.850076355062413</v>
+      </c>
+      <c r="K53" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="18">
-        <v>5.8644717430546391</v>
-      </c>
-      <c r="N21" s="10">
-        <v>5.6908321451813064</v>
-      </c>
-      <c r="O21" s="10">
-        <v>5.3856407846749406</v>
-      </c>
-      <c r="P21" s="10">
-        <v>5.9986753142268174</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>6.8213383559665148</v>
-      </c>
-      <c r="R21" s="10">
-        <v>7.8986687341396467</v>
-      </c>
-      <c r="S21" s="11">
-        <v>10.136570070648981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="L53" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="19">
+        <v>4.0676376638231329</v>
+      </c>
+      <c r="N53">
+        <v>5.2335174023036828</v>
+      </c>
+      <c r="O53">
+        <v>5.5089021834322027</v>
+      </c>
+      <c r="P53">
+        <v>5.4828506241098385</v>
+      </c>
+      <c r="Q53">
+        <v>8.7305935468870128</v>
+      </c>
+      <c r="R53">
+        <v>10.87890900423289</v>
+      </c>
+      <c r="S53" s="6">
+        <v>9.6396516681799174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="29"/>
+      <c r="B54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="19">
+        <v>92.605708756255126</v>
+      </c>
+      <c r="D54">
+        <v>90.873913027851216</v>
+      </c>
+      <c r="E54">
+        <v>89.115801964488611</v>
+      </c>
+      <c r="F54">
+        <v>83.517384284144256</v>
+      </c>
+      <c r="G54">
+        <v>72.637300423040756</v>
+      </c>
+      <c r="H54">
+        <v>58.239681714502687</v>
+      </c>
+      <c r="I54" s="6">
+        <v>44.446925405670939</v>
+      </c>
+      <c r="K54" s="29"/>
+      <c r="L54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="19">
+        <v>4.5806425177141055</v>
+      </c>
+      <c r="N54">
+        <v>4.9574893450046078</v>
+      </c>
+      <c r="O54">
+        <v>4.7683020212095801</v>
+      </c>
+      <c r="P54">
+        <v>5.126337571078615</v>
+      </c>
+      <c r="Q54">
+        <v>8.3564494133217924</v>
+      </c>
+      <c r="R54">
+        <v>11.18783601426275</v>
+      </c>
+      <c r="S54" s="6">
+        <v>12.149264530773241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="29"/>
+      <c r="B55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="19">
-        <v>92.990178692433901</v>
-      </c>
-      <c r="D22">
-        <v>92.76305735055378</v>
-      </c>
-      <c r="E22">
-        <v>92.086575143383598</v>
-      </c>
-      <c r="F22">
-        <v>89.683091260881739</v>
-      </c>
-      <c r="G22">
-        <v>87.089450024077479</v>
-      </c>
-      <c r="H22">
-        <v>73.437774836575869</v>
-      </c>
-      <c r="I22" s="6">
-        <v>60.562173259860948</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="C55" s="19">
+        <v>92.058134776134636</v>
+      </c>
+      <c r="D55">
+        <v>90.162473139966693</v>
+      </c>
+      <c r="E55">
+        <v>87.393242445766489</v>
+      </c>
+      <c r="F55">
+        <v>77.520907004908935</v>
+      </c>
+      <c r="G55">
+        <v>69.632237974727644</v>
+      </c>
+      <c r="H55">
+        <v>59.605803336439088</v>
+      </c>
+      <c r="I55" s="6">
+        <v>44.342875384354819</v>
+      </c>
+      <c r="K55" s="29"/>
+      <c r="L55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="19">
-        <v>3.6904396057483901</v>
-      </c>
-      <c r="N22">
-        <v>3.4554363379819328</v>
-      </c>
-      <c r="O22">
-        <v>3.740268826017374</v>
-      </c>
-      <c r="P22">
-        <v>4.6456607636345391</v>
-      </c>
-      <c r="Q22">
-        <v>4.9509671158728299</v>
-      </c>
-      <c r="R22">
-        <v>6.2990472489182006</v>
-      </c>
-      <c r="S22" s="6">
-        <v>7.0831252667102271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="M55" s="19">
+        <v>4.4300468024374355</v>
+      </c>
+      <c r="N55">
+        <v>5.111816609141079</v>
+      </c>
+      <c r="O55">
+        <v>5.4189806447489479</v>
+      </c>
+      <c r="P55">
+        <v>6.7959443022277508</v>
+      </c>
+      <c r="Q55">
+        <v>7.9838684738133434</v>
+      </c>
+      <c r="R55">
+        <v>10.6990029115548</v>
+      </c>
+      <c r="S55" s="6">
+        <v>12.551534007392801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="29"/>
+      <c r="B56" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="19">
-        <v>91.404302805387587</v>
-      </c>
-      <c r="D23">
-        <v>89.643716641147421</v>
-      </c>
-      <c r="E23">
-        <v>87.230180768576432</v>
-      </c>
-      <c r="F23">
-        <v>82.122688489231464</v>
-      </c>
-      <c r="G23">
-        <v>75.148372102411486</v>
-      </c>
-      <c r="H23">
-        <v>65.616617214105077</v>
-      </c>
-      <c r="I23" s="6">
-        <v>55.41235362474302</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="C56" s="19">
+        <v>82.145275705850779</v>
+      </c>
+      <c r="D56">
+        <v>81.476409071894921</v>
+      </c>
+      <c r="E56">
+        <v>79.570579475904296</v>
+      </c>
+      <c r="F56">
+        <v>69.877591982261691</v>
+      </c>
+      <c r="G56">
+        <v>67.566471979116884</v>
+      </c>
+      <c r="H56">
+        <v>62.187666572668974</v>
+      </c>
+      <c r="I56" s="6">
+        <v>51.041102115177971</v>
+      </c>
+      <c r="K56" s="29"/>
+      <c r="L56" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="19">
-        <v>4.2752844258887936</v>
-      </c>
-      <c r="N23">
-        <v>5.0808876195145807</v>
-      </c>
-      <c r="O23">
-        <v>6.0796524822835334</v>
-      </c>
-      <c r="P23">
-        <v>7.640476010764683</v>
-      </c>
-      <c r="Q23">
-        <v>7.5749926606153277</v>
-      </c>
-      <c r="R23">
-        <v>7.9279646675813273</v>
-      </c>
-      <c r="S23" s="6">
-        <v>7.4134306008973159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="19">
-        <v>91.836930538614808</v>
-      </c>
-      <c r="D24">
-        <v>89.440142215763117</v>
-      </c>
-      <c r="E24">
-        <v>87.468645922542592</v>
-      </c>
-      <c r="F24">
-        <v>82.47090084400962</v>
-      </c>
-      <c r="G24">
-        <v>76.064671839721797</v>
-      </c>
-      <c r="H24">
-        <v>65.754023247029238</v>
-      </c>
-      <c r="I24" s="6">
-        <v>54.757027886631093</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="19">
-        <v>3.8814886103074699</v>
-      </c>
-      <c r="N24">
-        <v>4.7694392954748359</v>
-      </c>
-      <c r="O24">
-        <v>5.6167345654756806</v>
-      </c>
-      <c r="P24">
-        <v>7.2604991212516996</v>
-      </c>
-      <c r="Q24">
-        <v>7.5316620728768529</v>
-      </c>
-      <c r="R24">
-        <v>8.2692038110791746</v>
-      </c>
-      <c r="S24" s="6">
-        <v>7.26285291036847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="19">
-        <v>93.01581328558207</v>
-      </c>
-      <c r="D25">
-        <v>91.556045755874493</v>
-      </c>
-      <c r="E25">
-        <v>89.672191512613992</v>
-      </c>
-      <c r="F25">
-        <v>84.233540082526673</v>
-      </c>
-      <c r="G25">
-        <v>75.630766702134096</v>
-      </c>
-      <c r="H25">
-        <v>58.992055871302227</v>
-      </c>
-      <c r="I25" s="6">
-        <v>47.500041811203673</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="19">
-        <v>3.6887589073733711</v>
-      </c>
-      <c r="N25">
-        <v>4.7981509529003992</v>
-      </c>
-      <c r="O25">
-        <v>5.1153571646784171</v>
-      </c>
-      <c r="P25">
-        <v>5.1553236474073074</v>
-      </c>
-      <c r="Q25">
-        <v>8.2888302831848293</v>
-      </c>
-      <c r="R25">
-        <v>10.44111300178367</v>
-      </c>
-      <c r="S25" s="6">
-        <v>8.6130591880736986</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="19">
-        <v>93.140736511561499</v>
-      </c>
-      <c r="D26">
-        <v>91.299275945293644</v>
-      </c>
-      <c r="E26">
-        <v>89.600726073178265</v>
-      </c>
-      <c r="F26">
-        <v>84.143744034694649</v>
-      </c>
-      <c r="G26">
-        <v>73.708177983085207</v>
-      </c>
-      <c r="H26">
-        <v>59.630642710288733</v>
-      </c>
-      <c r="I26" s="6">
-        <v>49.010795941141367</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="19">
-        <v>4.0606812542101052</v>
-      </c>
-      <c r="N26">
-        <v>4.6219315319205574</v>
-      </c>
-      <c r="O26">
-        <v>4.4366102899596527</v>
-      </c>
-      <c r="P26">
-        <v>4.7746509131752264</v>
-      </c>
-      <c r="Q26">
-        <v>7.8224932377096854</v>
-      </c>
-      <c r="R26">
-        <v>10.472706543681371</v>
-      </c>
-      <c r="S26" s="6">
-        <v>10.31157948273713</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="19">
-        <v>92.481062408267675</v>
-      </c>
-      <c r="D27">
-        <v>90.7445162443735</v>
-      </c>
-      <c r="E27">
-        <v>87.867585359734946</v>
-      </c>
-      <c r="F27">
-        <v>78.549690452916266</v>
-      </c>
-      <c r="G27">
-        <v>70.910154932136095</v>
-      </c>
-      <c r="H27">
-        <v>61.407734207620017</v>
-      </c>
-      <c r="I27" s="6">
-        <v>49.914304333659167</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="19">
-        <v>4.0404090948996982</v>
-      </c>
-      <c r="N27">
-        <v>4.6290467798148507</v>
-      </c>
-      <c r="O27">
-        <v>5.1035960429293752</v>
-      </c>
-      <c r="P27">
-        <v>6.2863316753197109</v>
-      </c>
-      <c r="Q27">
-        <v>7.604179761836888</v>
-      </c>
-      <c r="R27">
-        <v>10.014574255537051</v>
-      </c>
-      <c r="S27" s="6">
-        <v>10.624435465486309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="19">
-        <v>82.988413971285794</v>
-      </c>
-      <c r="D28">
-        <v>82.316897204993126</v>
-      </c>
-      <c r="E28">
-        <v>80.487478265382904</v>
-      </c>
-      <c r="F28">
-        <v>71.31253153862346</v>
-      </c>
-      <c r="G28">
-        <v>68.982349904987657</v>
-      </c>
-      <c r="H28">
-        <v>64.152120693085578</v>
-      </c>
-      <c r="I28" s="6">
-        <v>55.799392728310792</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="19">
-        <v>6.4965045402129054</v>
-      </c>
-      <c r="N28">
-        <v>6.8352677669423176</v>
-      </c>
-      <c r="O28">
-        <v>7.5204813847637411</v>
-      </c>
-      <c r="P28">
-        <v>8.4988118108224189</v>
-      </c>
-      <c r="Q28">
-        <v>9.0985532884308071</v>
-      </c>
-      <c r="R28">
-        <v>9.0730676274315165</v>
-      </c>
-      <c r="S28" s="6">
-        <v>9.6923772636774519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
-      <c r="K29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="9"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14">
-        <v>1</v>
-      </c>
-      <c r="D31" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="G31" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="H31" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="14">
-        <v>1</v>
-      </c>
-      <c r="N31" s="14">
-        <v>0.75</v>
-      </c>
-      <c r="O31" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="P31" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="R31" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="S31" s="13">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="15">
-        <v>92.567111769713335</v>
-      </c>
-      <c r="D32" s="15">
-        <v>90.835858608343599</v>
-      </c>
-      <c r="E32" s="15">
-        <v>89.217505339533233</v>
-      </c>
-      <c r="F32" s="15">
-        <v>83.237245964288078</v>
-      </c>
-      <c r="G32" s="15">
-        <v>75.380430844191011</v>
-      </c>
-      <c r="H32" s="15">
-        <v>58.994367187597383</v>
-      </c>
-      <c r="I32" s="16">
-        <v>43.622535641382179</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="L32" s="30"/>
-      <c r="M32">
-        <v>3.88093621561358</v>
-      </c>
-      <c r="N32">
-        <v>4.8164746829677396</v>
-      </c>
-      <c r="O32">
-        <v>5.2250608386616522</v>
-      </c>
-      <c r="P32">
-        <v>5.6675721086724113</v>
-      </c>
-      <c r="Q32">
-        <v>8.3263283482936075</v>
-      </c>
-      <c r="R32">
-        <v>10.49020927094638</v>
-      </c>
-      <c r="S32" s="6">
-        <v>11.060437347759546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="15">
-        <v>92.338566773632834</v>
-      </c>
-      <c r="D33" s="15">
-        <v>92.22816257293259</v>
-      </c>
-      <c r="E33" s="15">
-        <v>92.19353000091759</v>
-      </c>
-      <c r="F33" s="15">
-        <v>91.289781910285583</v>
-      </c>
-      <c r="G33" s="15">
-        <v>89.68940373291737</v>
-      </c>
-      <c r="H33" s="15">
-        <v>81.453332231966129</v>
-      </c>
-      <c r="I33" s="16">
-        <v>68.108240193153023</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="15">
-        <v>4.0483086633488163</v>
-      </c>
-      <c r="N33" s="15">
-        <v>3.9020890437152844</v>
-      </c>
-      <c r="O33" s="15">
-        <v>3.7923842410048425</v>
-      </c>
-      <c r="P33" s="15">
-        <v>4.4242632373638857</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>4.2715813123996149</v>
-      </c>
-      <c r="R33" s="15">
-        <v>6.1738858238669021</v>
-      </c>
-      <c r="S33" s="16">
-        <v>6.3931839578006242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="15">
-        <v>88.499186482198567</v>
-      </c>
-      <c r="D34" s="15">
-        <v>87.5173416768165</v>
-      </c>
-      <c r="E34" s="15">
-        <v>85.730415589590905</v>
-      </c>
-      <c r="F34" s="15">
-        <v>72.655656749380555</v>
-      </c>
-      <c r="G34" s="15">
-        <v>67.884915781227093</v>
-      </c>
-      <c r="H34" s="15">
-        <v>59.263790034123531</v>
-      </c>
-      <c r="I34" s="16">
-        <v>44.56238292926399</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L34" s="32"/>
-      <c r="M34">
-        <v>5.9037054685544437</v>
-      </c>
-      <c r="N34">
-        <v>5.6982495929152117</v>
-      </c>
-      <c r="O34">
-        <v>6.1857913087331307</v>
-      </c>
-      <c r="P34">
-        <v>8.0751376961596364</v>
-      </c>
-      <c r="Q34">
-        <v>7.9066987943669274</v>
-      </c>
-      <c r="R34">
-        <v>10.433474589731558</v>
-      </c>
-      <c r="S34" s="6">
-        <v>11.016794446797121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="10">
-        <v>92.585967481796871</v>
-      </c>
-      <c r="D35" s="10">
-        <v>91.313417902038879</v>
-      </c>
-      <c r="E35" s="10">
-        <v>89.071433240773374</v>
-      </c>
-      <c r="F35" s="10">
-        <v>84.430667065862025</v>
-      </c>
-      <c r="G35" s="10">
-        <v>74.620110321660178</v>
-      </c>
-      <c r="H35" s="10">
-        <v>57.729776408047563</v>
-      </c>
-      <c r="I35" s="11">
-        <v>40.926778409266866</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" s="10">
-        <v>4.1190461448812883</v>
-      </c>
-      <c r="N35" s="10">
-        <v>5.0479140386031087</v>
-      </c>
-      <c r="O35" s="10">
-        <v>5.7227029784618981</v>
-      </c>
-      <c r="P35" s="10">
-        <v>5.4985207967748737</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>8.9665209094802485</v>
-      </c>
-      <c r="R35" s="10">
-        <v>11.349059301553211</v>
-      </c>
-      <c r="S35" s="11">
-        <v>11.05617423164966</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36">
-        <v>92.603782215910087</v>
-      </c>
-      <c r="D36">
-        <v>90.262334808427767</v>
-      </c>
-      <c r="E36">
-        <v>89.82540629282677</v>
-      </c>
-      <c r="F36">
-        <v>84.400771771755316</v>
-      </c>
-      <c r="G36">
-        <v>78.772449333136279</v>
-      </c>
-      <c r="H36">
-        <v>61.840203650833359</v>
-      </c>
-      <c r="I36" s="6">
-        <v>38.412876121977916</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="22"/>
-      <c r="M36">
-        <v>4.4405799374618198</v>
-      </c>
-      <c r="N36">
-        <v>5.7451202216286257</v>
-      </c>
-      <c r="O36">
-        <v>4.8670511789444468</v>
-      </c>
-      <c r="P36">
-        <v>4.9325366781832338</v>
-      </c>
-      <c r="Q36">
-        <v>7.029848092265345</v>
-      </c>
-      <c r="R36">
-        <v>9.0186943841326457</v>
-      </c>
-      <c r="S36" s="6">
-        <v>7.771449833097023</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37">
-        <v>91.081927840808433</v>
-      </c>
-      <c r="D37">
-        <v>87.684987506619976</v>
-      </c>
-      <c r="E37">
-        <v>87.27081687164015</v>
-      </c>
-      <c r="F37">
-        <v>83.161961006389646</v>
-      </c>
-      <c r="G37">
-        <v>78.602198625513438</v>
-      </c>
-      <c r="H37">
-        <v>62.429217703804063</v>
-      </c>
-      <c r="I37" s="6">
-        <v>50.327216453861126</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="22"/>
-      <c r="M37">
-        <v>5.0278535681088243</v>
-      </c>
-      <c r="N37">
-        <v>6.4718041382743881</v>
-      </c>
-      <c r="O37">
-        <v>6.3307190280562127</v>
-      </c>
-      <c r="P37">
-        <v>6.3795918367927573</v>
-      </c>
-      <c r="Q37">
-        <v>7.6119651620777704</v>
-      </c>
-      <c r="R37">
-        <v>10.57249776824408</v>
-      </c>
-      <c r="S37" s="6">
-        <v>12.72817257493416</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38">
-        <v>89.644638837679821</v>
-      </c>
-      <c r="D38">
-        <v>88.832235357085267</v>
-      </c>
-      <c r="E38">
-        <v>87.784876095604616</v>
-      </c>
-      <c r="F38">
-        <v>79.565194861748779</v>
-      </c>
-      <c r="G38">
-        <v>75.734515312347014</v>
-      </c>
-      <c r="H38">
-        <v>62.439186953401219</v>
-      </c>
-      <c r="I38" s="6">
-        <v>50.474777835549446</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="22"/>
-      <c r="M38">
-        <v>5.6337263714853885</v>
-      </c>
-      <c r="N38">
-        <v>6.3295758340906003</v>
-      </c>
-      <c r="O38">
-        <v>5.712095802065237</v>
-      </c>
-      <c r="P38">
-        <v>6.0565246528809871</v>
-      </c>
-      <c r="Q38">
-        <v>7.1392332762901995</v>
-      </c>
-      <c r="R38">
-        <v>9.8513477784150112</v>
-      </c>
-      <c r="S38" s="6">
-        <v>12.535546063955879</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39">
-        <v>89.487105403835685</v>
-      </c>
-      <c r="D39">
-        <v>88.707572078492916</v>
-      </c>
-      <c r="E39">
-        <v>86.426030723556863</v>
-      </c>
-      <c r="F39">
-        <v>78.49543423448246</v>
-      </c>
-      <c r="G39">
-        <v>74.133652201259196</v>
-      </c>
-      <c r="H39">
-        <v>65.444157538801676</v>
-      </c>
-      <c r="I39" s="6">
-        <v>52.493719332914743</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="22"/>
-      <c r="M39">
-        <v>5.5869146897287463</v>
-      </c>
-      <c r="N39">
-        <v>5.7426745960735408</v>
-      </c>
-      <c r="O39">
-        <v>6.3807802799052684</v>
-      </c>
-      <c r="P39">
-        <v>6.6617360492423048</v>
-      </c>
-      <c r="Q39">
-        <v>7.4710432104834563</v>
-      </c>
-      <c r="R39">
-        <v>9.1192677577277852</v>
-      </c>
-      <c r="S39" s="6">
-        <v>11.62676144298649</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="22"/>
-      <c r="C40">
-        <v>89.019136482146294</v>
-      </c>
-      <c r="D40">
-        <v>87.41881497347002</v>
-      </c>
-      <c r="E40">
-        <v>84.760203320527722</v>
-      </c>
-      <c r="F40">
-        <v>78.539871405940673</v>
-      </c>
-      <c r="G40">
-        <v>73.359996619176897</v>
-      </c>
-      <c r="H40">
-        <v>62.13074772235575</v>
-      </c>
-      <c r="I40" s="6">
-        <v>50.478879685998855</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="22"/>
-      <c r="M40">
-        <v>5.5440228882484019</v>
-      </c>
-      <c r="N40">
-        <v>6.1890179838423203</v>
-      </c>
-      <c r="O40">
-        <v>5.9586184293843134</v>
-      </c>
-      <c r="P40">
-        <v>6.8545846160008956</v>
-      </c>
-      <c r="Q40">
-        <v>7.9156374588352119</v>
-      </c>
-      <c r="R40">
-        <v>9.791245427984272</v>
-      </c>
-      <c r="S40" s="6">
-        <v>10.04604976368349</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41">
-        <v>89.238869796493674</v>
-      </c>
-      <c r="D41">
-        <v>87.306095031975872</v>
-      </c>
-      <c r="E41">
-        <v>85.566169092021809</v>
-      </c>
-      <c r="F41">
-        <v>78.895888119014472</v>
-      </c>
-      <c r="G41">
-        <v>71.73637384351656</v>
-      </c>
-      <c r="H41">
-        <v>61.412781836092677</v>
-      </c>
-      <c r="I41" s="6">
-        <v>49.91230553601401</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="22"/>
-      <c r="M41">
-        <v>4.9520431158543712</v>
-      </c>
-      <c r="N41">
-        <v>6.089338440962786</v>
-      </c>
-      <c r="O41">
-        <v>6.2868088050108852</v>
-      </c>
-      <c r="P41">
-        <v>6.5544539385805303</v>
-      </c>
-      <c r="Q41">
-        <v>9.0032669871014477</v>
-      </c>
-      <c r="R41">
-        <v>9.5917571263641719</v>
-      </c>
-      <c r="S41" s="6">
-        <v>8.39411943554272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="8">
-        <v>87.528624354026661</v>
-      </c>
-      <c r="D42" s="8">
-        <v>86.802859639484197</v>
-      </c>
-      <c r="E42" s="8">
-        <v>85.315702308010216</v>
-      </c>
-      <c r="F42" s="8">
-        <v>77.466410195573999</v>
-      </c>
-      <c r="G42" s="8">
-        <v>70.744609004505662</v>
-      </c>
-      <c r="H42" s="8">
-        <v>60.340914073578965</v>
-      </c>
-      <c r="I42" s="9">
-        <v>50.624658682159797</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="8">
-        <v>5.0598364128504718</v>
-      </c>
-      <c r="N42" s="8">
-        <v>5.6364339917960171</v>
-      </c>
-      <c r="O42" s="8">
-        <v>5.7486513894428279</v>
-      </c>
-      <c r="P42" s="8">
-        <v>7.4568896228696975</v>
-      </c>
-      <c r="Q42" s="8">
-        <v>8.0033483489556136</v>
-      </c>
-      <c r="R42" s="8">
-        <v>9.802914975481821</v>
-      </c>
-      <c r="S42" s="9">
-        <v>10.868957426503</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="10">
-        <v>79.822274087201521</v>
-      </c>
-      <c r="D43" s="10">
-        <v>80.778688451203678</v>
-      </c>
-      <c r="E43" s="10">
-        <v>81.235621348026953</v>
-      </c>
-      <c r="F43" s="10">
-        <v>78.388392101605987</v>
-      </c>
-      <c r="G43" s="10">
-        <v>74.896268800791375</v>
-      </c>
-      <c r="H43" s="10">
-        <v>66.849727812112619</v>
-      </c>
-      <c r="I43" s="11">
-        <v>54.16366663354669</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="10">
-        <v>7.9423136815743947</v>
-      </c>
-      <c r="N43" s="10">
-        <v>7.0913207935750453</v>
-      </c>
-      <c r="O43" s="10">
-        <v>7.6126336301463384</v>
-      </c>
-      <c r="P43" s="10">
-        <v>7.4223737924041231</v>
-      </c>
-      <c r="Q43" s="10">
-        <v>7.8281249785354792</v>
-      </c>
-      <c r="R43" s="10">
-        <v>9.5420643874435545</v>
-      </c>
-      <c r="S43" s="11">
-        <v>11.93678407231933</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="22"/>
-      <c r="C44">
-        <v>92.066966520323973</v>
-      </c>
-      <c r="D44">
-        <v>91.997206382100771</v>
-      </c>
-      <c r="E44">
-        <v>92.207063308090554</v>
-      </c>
-      <c r="F44">
-        <v>91.578845428376383</v>
-      </c>
-      <c r="G44">
-        <v>89.807376758197009</v>
-      </c>
-      <c r="H44">
-        <v>78.693228668248281</v>
-      </c>
-      <c r="I44" s="6">
-        <v>59.400107247429965</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44">
-        <v>4.5862361191526402</v>
-      </c>
-      <c r="N44">
-        <v>4.4666437433078885</v>
-      </c>
-      <c r="O44">
-        <v>4.1681863274169455</v>
-      </c>
-      <c r="P44">
-        <v>4.6138456124840079</v>
-      </c>
-      <c r="Q44">
-        <v>5.1290330567574181</v>
-      </c>
-      <c r="R44">
-        <v>6.0620536051523528</v>
-      </c>
-      <c r="S44" s="6">
-        <v>9.0603004854765601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45">
-        <v>90.767440481934031</v>
-      </c>
-      <c r="D45">
-        <v>89.326742888022011</v>
-      </c>
-      <c r="E45">
-        <v>88.953713695844399</v>
-      </c>
-      <c r="F45">
-        <v>86.53853357346091</v>
-      </c>
-      <c r="G45">
-        <v>82.090667595564682</v>
-      </c>
-      <c r="H45">
-        <v>69.51245274156706</v>
-      </c>
-      <c r="I45" s="6">
-        <v>57.472415487547558</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="22"/>
-      <c r="M45">
-        <v>4.4126117660826036</v>
-      </c>
-      <c r="N45">
-        <v>4.2169626005720833</v>
-      </c>
-      <c r="O45">
-        <v>4.8002136380547658</v>
-      </c>
-      <c r="P45">
-        <v>6.3433480483529827</v>
-      </c>
-      <c r="Q45">
-        <v>6.6640597093001865</v>
-      </c>
-      <c r="R45">
-        <v>6.7349464223211086</v>
-      </c>
-      <c r="S45" s="6">
-        <v>8.3865817301991239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46">
-        <v>90.941629733573507</v>
-      </c>
-      <c r="D46">
-        <v>88.868736298242538</v>
-      </c>
-      <c r="E46">
-        <v>86.130046400212223</v>
-      </c>
-      <c r="F46">
-        <v>82.88408060477704</v>
-      </c>
-      <c r="G46">
-        <v>78.813382771082146</v>
-      </c>
-      <c r="H46">
-        <v>66.914508802777192</v>
-      </c>
-      <c r="I46" s="6">
-        <v>58.03057290210014</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46" s="22"/>
-      <c r="M46">
-        <v>4.3072256890080602</v>
-      </c>
-      <c r="N46">
-        <v>5.0590845443102621</v>
-      </c>
-      <c r="O46">
-        <v>6.1087169629067919</v>
-      </c>
-      <c r="P46">
-        <v>5.5682994686496876</v>
-      </c>
-      <c r="Q46">
-        <v>5.8348314103045897</v>
-      </c>
-      <c r="R46">
-        <v>7.8141445822040012</v>
-      </c>
-      <c r="S46" s="6">
-        <v>8.8605715056275027</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47">
-        <v>91.954943077771645</v>
-      </c>
-      <c r="D47">
-        <v>90.486053623351509</v>
-      </c>
-      <c r="E47">
-        <v>87.574188580435759</v>
-      </c>
-      <c r="F47">
-        <v>80.195562284133075</v>
-      </c>
-      <c r="G47">
-        <v>73.887556692554313</v>
-      </c>
-      <c r="H47">
-        <v>60.201740744469255</v>
-      </c>
-      <c r="I47" s="6">
-        <v>43.97379234137982</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47">
-        <v>4.6677178192019442</v>
-      </c>
-      <c r="N47">
-        <v>4.9332992633954884</v>
-      </c>
-      <c r="O47">
-        <v>5.8893270280054093</v>
-      </c>
-      <c r="P47">
-        <v>6.2276780045249982</v>
-      </c>
-      <c r="Q47">
-        <v>7.8100433893753065</v>
-      </c>
-      <c r="R47">
-        <v>10.127273986997725</v>
-      </c>
-      <c r="S47" s="6">
-        <v>12.975199093257455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48">
-        <v>90.642246446502455</v>
-      </c>
-      <c r="D48">
-        <v>91.112891818426803</v>
-      </c>
-      <c r="E48">
-        <v>90.510903269239805</v>
-      </c>
-      <c r="F48">
-        <v>90.384514875799795</v>
-      </c>
-      <c r="G48">
-        <v>88.747243892649067</v>
-      </c>
-      <c r="H48">
-        <v>77.721185641433252</v>
-      </c>
-      <c r="I48" s="6">
-        <v>57.390955449525258</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" s="22"/>
-      <c r="M48">
-        <v>4.8046743223783803</v>
-      </c>
-      <c r="N48">
-        <v>4.6267271925378539</v>
-      </c>
-      <c r="O48">
-        <v>4.7167994848022108</v>
-      </c>
-      <c r="P48">
-        <v>4.6380378521606005</v>
-      </c>
-      <c r="Q48">
-        <v>4.941832660679113</v>
-      </c>
-      <c r="R48">
-        <v>6.5489356622072048</v>
-      </c>
-      <c r="S48" s="6">
-        <v>9.8361171493471335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49">
-        <v>90.617152023346819</v>
-      </c>
-      <c r="D49">
-        <v>90.05855315992585</v>
-      </c>
-      <c r="E49">
-        <v>89.179945583344406</v>
-      </c>
-      <c r="F49">
-        <v>86.633871646318525</v>
-      </c>
-      <c r="G49">
-        <v>82.414435110979952</v>
-      </c>
-      <c r="H49">
-        <v>69.823014577124326</v>
-      </c>
-      <c r="I49" s="6">
-        <v>57.449010771275319</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="22"/>
-      <c r="M49">
-        <v>4.2750077328577394</v>
-      </c>
-      <c r="N49">
-        <v>4.2266125705467239</v>
-      </c>
-      <c r="O49">
-        <v>5.2565974786040313</v>
-      </c>
-      <c r="P49">
-        <v>5.7069770284176009</v>
-      </c>
-      <c r="Q49">
-        <v>6.3983299535714817</v>
-      </c>
-      <c r="R49">
-        <v>6.6655406069698175</v>
-      </c>
-      <c r="S49" s="6">
-        <v>9.1124239201893804</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="8">
-        <v>90.581355357949491</v>
-      </c>
-      <c r="D50" s="8">
-        <v>88.97341294355499</v>
-      </c>
-      <c r="E50" s="8">
-        <v>86.175206640299365</v>
-      </c>
-      <c r="F50" s="8">
-        <v>83.080132284515585</v>
-      </c>
-      <c r="G50" s="8">
-        <v>78.599726564969771</v>
-      </c>
-      <c r="H50" s="8">
-        <v>66.3934253274236</v>
-      </c>
-      <c r="I50" s="9">
-        <v>58.11224589934929</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" s="26"/>
-      <c r="M50" s="8">
-        <v>4.4778305644230976</v>
-      </c>
-      <c r="N50" s="8">
-        <v>4.8960641145432993</v>
-      </c>
-      <c r="O50" s="8">
-        <v>6.1124849117603945</v>
-      </c>
-      <c r="P50" s="8">
-        <v>5.8618346048185197</v>
-      </c>
-      <c r="Q50" s="8">
-        <v>5.8104015835542553</v>
-      </c>
-      <c r="R50" s="8">
-        <v>7.7638343010849269</v>
-      </c>
-      <c r="S50" s="9">
-        <v>8.9944066091442814</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="18">
-        <v>88.097863565116072</v>
-      </c>
-      <c r="D51" s="10">
-        <v>88.309646130348668</v>
-      </c>
-      <c r="E51" s="10">
-        <v>89.035399074309595</v>
-      </c>
-      <c r="F51" s="10">
-        <v>86.731933778506104</v>
-      </c>
-      <c r="G51" s="10">
-        <v>81.318142561250468</v>
-      </c>
-      <c r="H51" s="10">
-        <v>70.991079823179021</v>
-      </c>
-      <c r="I51" s="11">
-        <v>56.478864955891837</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="18">
-        <v>6.0517517161830918</v>
-      </c>
-      <c r="N51" s="10">
-        <v>5.9744489184256429</v>
-      </c>
-      <c r="O51" s="10">
-        <v>5.5712767145379676</v>
-      </c>
-      <c r="P51" s="10">
-        <v>6.3095302904344157</v>
-      </c>
-      <c r="Q51" s="10">
-        <v>7.2771371944762926</v>
-      </c>
-      <c r="R51" s="10">
-        <v>8.5250788738023058</v>
-      </c>
-      <c r="S51" s="11">
-        <v>11.03174457619204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="19">
-        <v>92.579341430099007</v>
-      </c>
-      <c r="D52">
-        <v>92.307467631253317</v>
-      </c>
-      <c r="E52">
-        <v>91.51804785502118</v>
-      </c>
-      <c r="F52">
-        <v>89.101513767447088</v>
-      </c>
-      <c r="G52">
-        <v>86.325246592619308</v>
-      </c>
-      <c r="H52">
-        <v>72.610999037461639</v>
-      </c>
-      <c r="I52" s="6">
-        <v>58.562330658368531</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="19">
-        <v>3.9546659796940227</v>
-      </c>
-      <c r="N52">
-        <v>3.7955785731855083</v>
-      </c>
-      <c r="O52">
-        <v>4.2224549638399438</v>
-      </c>
-      <c r="P52">
-        <v>4.8645554438308114</v>
-      </c>
-      <c r="Q52">
-        <v>5.3939887636009738</v>
-      </c>
-      <c r="R52">
-        <v>6.88709839013306</v>
-      </c>
-      <c r="S52" s="6">
-        <v>7.8544484539256203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="19">
-        <v>90.838947223672307</v>
-      </c>
-      <c r="D53">
-        <v>89.025256077086809</v>
-      </c>
-      <c r="E53">
-        <v>86.574536317770949</v>
-      </c>
-      <c r="F53">
-        <v>81.253101039493401</v>
-      </c>
-      <c r="G53">
-        <v>73.897336794246797</v>
-      </c>
-      <c r="H53">
-        <v>64.486669990677441</v>
-      </c>
-      <c r="I53" s="6">
-        <v>53.102947668822111</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="19">
-        <v>4.7127350259472136</v>
-      </c>
-      <c r="N53">
-        <v>5.6041277234848277</v>
-      </c>
-      <c r="O53">
-        <v>6.6383320068267304</v>
-      </c>
-      <c r="P53">
-        <v>8.3563094542563991</v>
-      </c>
-      <c r="Q53">
-        <v>8.317698837370294</v>
-      </c>
-      <c r="R53">
-        <v>8.4609214463562026</v>
-      </c>
-      <c r="S53" s="6">
-        <v>8.2542230112224182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="19">
-        <v>91.285512236598578</v>
-      </c>
-      <c r="D54">
-        <v>88.706640804109171</v>
-      </c>
-      <c r="E54">
-        <v>86.835404333433715</v>
-      </c>
-      <c r="F54">
-        <v>81.465451613146882</v>
-      </c>
-      <c r="G54">
-        <v>75.104558535380434</v>
-      </c>
-      <c r="H54">
-        <v>64.738132684993971</v>
-      </c>
-      <c r="I54" s="6">
-        <v>51.900369998563754</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="22"/>
-      <c r="M54" s="19">
-        <v>4.2911852431583064</v>
-      </c>
-      <c r="N54">
-        <v>5.2602932733907437</v>
-      </c>
-      <c r="O54">
-        <v>6.0968469509561896</v>
-      </c>
-      <c r="P54">
-        <v>7.716341228249882</v>
-      </c>
-      <c r="Q54">
-        <v>7.8880883925660035</v>
-      </c>
-      <c r="R54">
-        <v>8.7310580782704434</v>
-      </c>
-      <c r="S54" s="6">
-        <v>8.2560842589602714</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="19">
-        <v>92.556186042757076</v>
-      </c>
-      <c r="D55">
-        <v>91.100597477212503</v>
-      </c>
-      <c r="E55">
-        <v>89.254913912990943</v>
-      </c>
-      <c r="F55">
-        <v>83.596127353935429</v>
-      </c>
-      <c r="G55">
-        <v>74.615790499706904</v>
-      </c>
-      <c r="H55">
-        <v>57.462105655682016</v>
-      </c>
-      <c r="I55" s="6">
-        <v>43.850076355062413</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M55" s="19">
-        <v>4.0676376638231329</v>
-      </c>
-      <c r="N55">
-        <v>5.2335174023036828</v>
-      </c>
-      <c r="O55">
-        <v>5.5089021834322027</v>
-      </c>
-      <c r="P55">
-        <v>5.4828506241098385</v>
-      </c>
-      <c r="Q55">
-        <v>8.7305935468870128</v>
-      </c>
-      <c r="R55">
-        <v>10.87890900423289</v>
-      </c>
-      <c r="S55" s="6">
-        <v>9.6396516681799174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="19">
-        <v>92.605708756255126</v>
-      </c>
-      <c r="D56">
-        <v>90.873913027851216</v>
-      </c>
-      <c r="E56">
-        <v>89.115801964488611</v>
-      </c>
-      <c r="F56">
-        <v>83.517384284144256</v>
-      </c>
-      <c r="G56">
-        <v>72.637300423040756</v>
-      </c>
-      <c r="H56">
-        <v>58.239681714502687</v>
-      </c>
-      <c r="I56" s="6">
-        <v>44.446925405670939</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="22"/>
       <c r="M56" s="19">
-        <v>4.5806425177141055</v>
+        <v>7.0119117816178136</v>
       </c>
       <c r="N56">
-        <v>4.9574893450046078</v>
+        <v>7.3404562167921252</v>
       </c>
       <c r="O56">
-        <v>4.7683020212095801</v>
+        <v>8.1350440521004792</v>
       </c>
       <c r="P56">
-        <v>5.126337571078615</v>
+        <v>9.5025835643020606</v>
       </c>
       <c r="Q56">
-        <v>8.3564494133217924</v>
+        <v>9.9534802983190875</v>
       </c>
       <c r="R56">
-        <v>11.18783601426275</v>
+        <v>9.8676988515491555</v>
       </c>
       <c r="S56" s="6">
-        <v>12.149264530773241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="19">
-        <v>92.058134776134636</v>
-      </c>
-      <c r="D57">
-        <v>90.162473139966693</v>
-      </c>
-      <c r="E57">
-        <v>87.393242445766489</v>
-      </c>
-      <c r="F57">
-        <v>77.520907004908935</v>
-      </c>
-      <c r="G57">
-        <v>69.632237974727644</v>
-      </c>
-      <c r="H57">
-        <v>59.605803336439088</v>
-      </c>
-      <c r="I57" s="6">
-        <v>44.342875384354819</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="22"/>
-      <c r="M57" s="19">
-        <v>4.4300468024374355</v>
-      </c>
-      <c r="N57">
-        <v>5.111816609141079</v>
-      </c>
-      <c r="O57">
-        <v>5.4189806447489479</v>
-      </c>
-      <c r="P57">
-        <v>6.7959443022277508</v>
-      </c>
-      <c r="Q57">
-        <v>7.9838684738133434</v>
-      </c>
-      <c r="R57">
-        <v>10.6990029115548</v>
-      </c>
-      <c r="S57" s="6">
-        <v>12.551534007392801</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="19">
-        <v>82.145275705850779</v>
-      </c>
-      <c r="D58">
-        <v>81.476409071894921</v>
-      </c>
-      <c r="E58">
-        <v>79.570579475904296</v>
-      </c>
-      <c r="F58">
-        <v>69.877591982261691</v>
-      </c>
-      <c r="G58">
-        <v>67.566471979116884</v>
-      </c>
-      <c r="H58">
-        <v>62.187666572668974</v>
-      </c>
-      <c r="I58" s="6">
-        <v>51.041102115177971</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="22"/>
-      <c r="M58" s="19">
-        <v>7.0119117816178136</v>
-      </c>
-      <c r="N58">
-        <v>7.3404562167921252</v>
-      </c>
-      <c r="O58">
-        <v>8.1350440521004792</v>
-      </c>
-      <c r="P58">
-        <v>9.5025835643020606</v>
-      </c>
-      <c r="Q58">
-        <v>9.9534802983190875</v>
-      </c>
-      <c r="R58">
-        <v>9.8676988515491555</v>
-      </c>
-      <c r="S58" s="6">
         <v>11.78949437292836</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
-      <c r="K59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L59" s="26"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="9"/>
+    <row r="57" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="30"/>
+      <c r="B57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="20"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="L55:L59"/>
+  <mergeCells count="28">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="L35:L42"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="K33:K40"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="K53:K57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:I4">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I20">
+  <conditionalFormatting sqref="C4:I19">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3785,7 +3711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:I29">
+  <conditionalFormatting sqref="C20:I28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3797,8 +3723,40 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I29">
+  <conditionalFormatting sqref="C28:I28">
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3827,7 +3785,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -3854,7 +3812,7 @@
         <v>0.05</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>0</v>
@@ -3882,10 +3840,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -3907,10 +3865,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="32"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -3934,10 +3892,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="28"/>
+      <c r="A3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="34"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -3959,10 +3917,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="28"/>
+      <c r="K3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="34"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -3986,10 +3944,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28"/>
+      <c r="A4" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34"/>
       <c r="C4" s="1">
         <v>89.053336678229613</v>
       </c>
@@ -4011,10 +3969,10 @@
       <c r="I4" s="5">
         <v>50.508830814568753</v>
       </c>
-      <c r="K4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="28"/>
+      <c r="K4" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="34"/>
       <c r="M4" s="8">
         <v>5.4385382756811014</v>
       </c>
@@ -4039,10 +3997,10 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="21" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="10">
         <v>93.113146884200262</v>
@@ -4066,10 +4024,10 @@
         <v>46.333889854871863</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="21" t="s">
         <v>15</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="M5" s="10">
         <v>3.7040095151106671</v>
@@ -4095,9 +4053,9 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="B6" s="36"/>
       <c r="C6">
         <v>93.053143481633342</v>
       </c>
@@ -4120,9 +4078,9 @@
         <v>44.508037843464628</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="L6" s="36"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -4147,9 +4105,9 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="B7" s="36"/>
       <c r="C7">
         <v>91.579621507683157</v>
       </c>
@@ -4172,9 +4130,9 @@
         <v>54.648806073870297</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="L7" s="36"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -4199,9 +4157,9 @@
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="B8" s="36"/>
       <c r="C8">
         <v>90.212611412440125</v>
       </c>
@@ -4224,9 +4182,9 @@
         <v>55.218118957199742</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="L8" s="36"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -4251,9 +4209,9 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="36"/>
       <c r="C9">
         <v>90.084819072829347</v>
       </c>
@@ -4276,9 +4234,9 @@
         <v>56.21099086785641</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="L9" s="36"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -4303,9 +4261,9 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="36"/>
       <c r="C10">
         <v>89.661415756191658</v>
       </c>
@@ -4328,9 +4286,9 @@
         <v>54.269229549275238</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="L10" s="36"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -4355,9 +4313,9 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="36"/>
       <c r="C11">
         <v>89.817152397512075</v>
       </c>
@@ -4380,9 +4338,9 @@
         <v>53.296066574970368</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="L11" s="36"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -4407,9 +4365,9 @@
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="38"/>
       <c r="C12">
         <v>88.193943430883195</v>
       </c>
@@ -4432,9 +4390,9 @@
         <v>53.60330683368079</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="L12" s="38"/>
       <c r="M12">
         <v>4.738300568518703</v>
       </c>
@@ -4459,10 +4417,10 @@
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="18">
         <v>80.594538015034715</v>
@@ -4486,10 +4444,10 @@
         <v>56.700502022797203</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="M13" s="18">
         <v>7.4838661591817894</v>
@@ -4515,9 +4473,9 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="19">
         <v>92.492694573482453</v>
       </c>
@@ -4540,9 +4498,9 @@
         <v>61.060709867732413</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="L14" s="37"/>
       <c r="M14" s="19">
         <v>4.2020365592810807</v>
       </c>
@@ -4567,9 +4525,9 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="37"/>
       <c r="C15" s="19">
         <v>91.321718469306248</v>
       </c>
@@ -4592,9 +4550,9 @@
         <v>59.459012044510182</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="L15" s="37"/>
       <c r="M15" s="19">
         <v>4.0707928609350361</v>
       </c>
@@ -4619,9 +4577,9 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="37"/>
       <c r="C16" s="19">
         <v>91.514534439455929</v>
       </c>
@@ -4644,9 +4602,9 @@
         <v>60.326810785560419</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="L16" s="37"/>
       <c r="M16" s="19">
         <v>3.922662122179057</v>
       </c>
@@ -4671,10 +4629,10 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="19">
         <v>92.432864182792827</v>
@@ -4698,10 +4656,10 @@
         <v>50.038301946095267</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="M17" s="19">
         <v>4.2108570413798603</v>
@@ -4727,9 +4685,9 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="37"/>
       <c r="C18" s="19">
         <v>91.096670386422005</v>
       </c>
@@ -4752,9 +4710,9 @@
         <v>59.137720337834523</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="L18" s="37"/>
       <c r="M18" s="19">
         <v>4.4913349382120487</v>
       </c>
@@ -4779,9 +4737,9 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="37"/>
       <c r="C19" s="19">
         <v>91.140892222251068</v>
       </c>
@@ -4804,9 +4762,9 @@
         <v>59.655400709925409</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="L19" s="37"/>
       <c r="M19" s="19">
         <v>3.903249518826176</v>
       </c>
@@ -4831,9 +4789,9 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="37"/>
       <c r="C20" s="19">
         <v>91.081684674319575</v>
       </c>
@@ -4856,9 +4814,9 @@
         <v>60.079934370827893</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="L20" s="37"/>
       <c r="M20" s="19">
         <v>4.1769763320911357</v>
       </c>
@@ -4883,9 +4841,9 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="37"/>
       <c r="C21" s="19">
         <v>91.125234647358596</v>
       </c>
@@ -4908,9 +4866,9 @@
         <v>60.734689169744833</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="L21" s="37"/>
       <c r="M21" s="19">
         <v>4.6221295992371028</v>
       </c>
@@ -4935,9 +4893,9 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="37"/>
       <c r="C22" s="19">
         <v>91.43489995588196</v>
       </c>
@@ -4960,9 +4918,9 @@
         <v>57.303393627972561</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="L22" s="37"/>
       <c r="M22" s="19">
         <v>4.2207267229748435</v>
       </c>
@@ -4987,9 +4945,9 @@
     </row>
     <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="39"/>
       <c r="C23" s="20">
         <v>91.676793628549277</v>
       </c>
@@ -5012,9 +4970,9 @@
         <v>55.414374980175722</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="L23" s="39"/>
       <c r="M23" s="20">
         <v>4.7069173345915063</v>
       </c>
@@ -5039,10 +4997,10 @@
     </row>
     <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="10">
         <v>92.016315020026113</v>
@@ -5066,10 +5024,10 @@
         <v>59.345441281210633</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="21" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="M24" s="10">
         <v>3.5594969186984389</v>
@@ -5095,9 +5053,9 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="36"/>
       <c r="C25">
         <v>91.138051943932624</v>
       </c>
@@ -5120,9 +5078,9 @@
         <v>62.512550569929971</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="L25" s="36"/>
       <c r="M25">
         <v>4.8341548736925946</v>
       </c>
@@ -5147,9 +5105,9 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="36"/>
       <c r="C26">
         <v>89.464493637488204</v>
       </c>
@@ -5172,9 +5130,9 @@
         <v>58.870163236706198</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="L26" s="36"/>
       <c r="M26">
         <v>4.9049220966264562</v>
       </c>
@@ -5199,9 +5157,9 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="B27" s="36"/>
       <c r="C27">
         <v>88.032999132057071</v>
       </c>
@@ -5224,9 +5182,9 @@
         <v>56.324766361877408</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="L27" s="36"/>
       <c r="M27">
         <v>4.7933326181048139</v>
       </c>
@@ -5251,10 +5209,10 @@
     </row>
     <row r="28" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="C28">
         <v>77.52366658304426</v>
@@ -5278,10 +5236,10 @@
         <v>52.908231616767146</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="M28">
         <v>8.9988382676507133</v>
@@ -5307,9 +5265,9 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="36"/>
       <c r="C29">
         <v>84.83746110837177</v>
       </c>
@@ -5332,9 +5290,9 @@
         <v>58.344939546766547</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="L29" s="36"/>
       <c r="M29">
         <v>6.4398657108190296</v>
       </c>
@@ -5359,9 +5317,9 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="36"/>
       <c r="C30">
         <v>89.603309717212085</v>
       </c>
@@ -5384,9 +5342,9 @@
         <v>50.760837031462202</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="L30" s="36"/>
       <c r="M30">
         <v>4.6421688324031569</v>
       </c>
@@ -5411,9 +5369,9 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="B31" s="36"/>
       <c r="C31">
         <v>89.968586810151194</v>
       </c>
@@ -5436,9 +5394,9 @@
         <v>53.084931530549582</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="L31" s="36"/>
       <c r="M31">
         <v>4.7831146921405292</v>
       </c>
@@ -5463,9 +5421,9 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="36"/>
       <c r="C32">
         <v>90.691067108423653</v>
       </c>
@@ -5488,9 +5446,9 @@
         <v>60.350654705778879</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="L32" s="36"/>
       <c r="M32">
         <v>5.4121743283478736</v>
       </c>
@@ -5515,9 +5473,9 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="36"/>
       <c r="C33">
         <v>91.112509623785684</v>
       </c>
@@ -5540,9 +5498,9 @@
         <v>53.455520088120707</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="L33" s="36"/>
       <c r="M33">
         <v>4.5520179996051642</v>
       </c>
@@ -5567,9 +5525,9 @@
     </row>
     <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="B34" s="38"/>
       <c r="C34" s="8">
         <v>91.827074628673245</v>
       </c>
@@ -5592,9 +5550,9 @@
         <v>51.992586441059181</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="L34" s="38"/>
       <c r="M34" s="8">
         <v>4.4549479265356586</v>
       </c>
@@ -5619,10 +5577,10 @@
     </row>
     <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="C35" s="18">
         <v>88.513949082604526</v>
@@ -5646,10 +5604,10 @@
         <v>58.695098285163937</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="21" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="L35" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="M35" s="18">
         <v>5.8644717430546391</v>
@@ -5675,9 +5633,9 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B36" s="36"/>
       <c r="C36" s="19">
         <v>92.990178692433901</v>
       </c>
@@ -5700,9 +5658,9 @@
         <v>60.562173259860948</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="L36" s="36"/>
       <c r="M36" s="19">
         <v>3.6904396057483901</v>
       </c>
@@ -5727,9 +5685,9 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="B37" s="36"/>
       <c r="C37" s="19">
         <v>91.404302805387587</v>
       </c>
@@ -5752,9 +5710,9 @@
         <v>55.41235362474302</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="L37" s="36"/>
       <c r="M37" s="19">
         <v>4.2752844258887936</v>
       </c>
@@ -5779,9 +5737,9 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="B38" s="36"/>
       <c r="C38" s="19">
         <v>91.836930538614808</v>
       </c>
@@ -5804,9 +5762,9 @@
         <v>54.757027886631093</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="L38" s="36"/>
       <c r="M38" s="19">
         <v>3.8814886103074699</v>
       </c>
@@ -5831,10 +5789,10 @@
     </row>
     <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="C39" s="19">
         <v>93.01581328558207</v>
@@ -5858,10 +5816,10 @@
         <v>47.500041811203673</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="M39" s="19">
         <v>3.6887589073733711</v>
@@ -5887,9 +5845,9 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="B40" s="36"/>
       <c r="C40" s="19">
         <v>93.140736511561499</v>
       </c>
@@ -5912,9 +5870,9 @@
         <v>49.010795941141367</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="L40" s="36"/>
       <c r="M40" s="19">
         <v>4.0606812542101052</v>
       </c>
@@ -5939,9 +5897,9 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="B41" s="36"/>
       <c r="C41" s="19">
         <v>92.481062408267675</v>
       </c>
@@ -5964,9 +5922,9 @@
         <v>49.914304333659167</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="L41" s="36"/>
       <c r="M41" s="19">
         <v>4.0404090948996982</v>
       </c>
@@ -5991,9 +5949,9 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B42" s="36"/>
       <c r="C42" s="19">
         <v>82.988413971285794</v>
       </c>
@@ -6016,9 +5974,9 @@
         <v>55.799392728310792</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="L42" s="36"/>
       <c r="M42" s="19">
         <v>6.4965045402129054</v>
       </c>
@@ -6043,9 +6001,9 @@
     </row>
     <row r="43" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B43" s="38"/>
       <c r="C43" s="20"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -6054,9 +6012,9 @@
       <c r="H43" s="8"/>
       <c r="I43" s="9"/>
       <c r="K43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L43" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="L43" s="38"/>
       <c r="M43" s="20"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -6068,7 +6026,7 @@
     <row r="44" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>0</v>
@@ -6095,7 +6053,7 @@
         <v>0.05</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L45" s="13" t="s">
         <v>0</v>
@@ -6123,10 +6081,10 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="28"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="15">
         <v>92.567111769713335</v>
       </c>
@@ -6148,10 +6106,10 @@
       <c r="I46" s="16">
         <v>43.622535641382179</v>
       </c>
-      <c r="K46" s="29" t="s">
+      <c r="K46" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L46" s="30"/>
+      <c r="L46" s="32"/>
       <c r="M46">
         <v>3.88093621561358</v>
       </c>
@@ -6175,10 +6133,10 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="28"/>
+      <c r="A47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="34"/>
       <c r="C47" s="15">
         <v>92.338566773632834</v>
       </c>
@@ -6200,10 +6158,10 @@
       <c r="I47" s="16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K47" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="L47" s="28"/>
+      <c r="K47" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" s="34"/>
       <c r="M47" s="15">
         <v>4.0483086633488163</v>
       </c>
@@ -6227,10 +6185,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="28"/>
+      <c r="A48" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="34"/>
       <c r="C48" s="15">
         <v>88.499186482198567</v>
       </c>
@@ -6252,10 +6210,10 @@
       <c r="I48" s="16">
         <v>44.56238292926399</v>
       </c>
-      <c r="K48" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="32"/>
+      <c r="K48" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" s="34"/>
       <c r="M48">
         <v>5.9037054685544437</v>
       </c>
@@ -6280,10 +6238,10 @@
     </row>
     <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="21" t="s">
         <v>15</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="C49" s="10">
         <v>92.585967481796871</v>
@@ -6307,10 +6265,10 @@
         <v>40.926778409266866</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="21" t="s">
         <v>15</v>
+      </c>
+      <c r="L49" s="35" t="s">
+        <v>14</v>
       </c>
       <c r="M49" s="10">
         <v>4.1190461448812883</v>
@@ -6336,9 +6294,9 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="B50" s="36"/>
       <c r="C50">
         <v>92.603782215910087</v>
       </c>
@@ -6361,9 +6319,9 @@
         <v>38.412876121977916</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="L50" s="36"/>
       <c r="M50">
         <v>4.4405799374618198</v>
       </c>
@@ -6388,9 +6346,9 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="B51" s="36"/>
       <c r="C51">
         <v>91.081927840808433</v>
       </c>
@@ -6413,9 +6371,9 @@
         <v>50.327216453861126</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="L51" s="36"/>
       <c r="M51">
         <v>5.0278535681088243</v>
       </c>
@@ -6440,9 +6398,9 @@
     </row>
     <row r="52" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="B52" s="36"/>
       <c r="C52">
         <v>89.644638837679821</v>
       </c>
@@ -6465,9 +6423,9 @@
         <v>50.474777835549446</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="L52" s="36"/>
       <c r="M52">
         <v>5.6337263714853885</v>
       </c>
@@ -6492,9 +6450,9 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B53" s="36"/>
       <c r="C53">
         <v>89.487105403835685</v>
       </c>
@@ -6517,9 +6475,9 @@
         <v>52.493719332914743</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="L53" s="36"/>
       <c r="M53">
         <v>5.5869146897287463</v>
       </c>
@@ -6544,9 +6502,9 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="B54" s="36"/>
       <c r="C54">
         <v>89.019136482146294</v>
       </c>
@@ -6569,9 +6527,9 @@
         <v>50.478879685998855</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L54" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="L54" s="36"/>
       <c r="M54">
         <v>5.5440228882484019</v>
       </c>
@@ -6596,9 +6554,9 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="B55" s="36"/>
       <c r="C55">
         <v>89.238869796493674</v>
       </c>
@@ -6621,9 +6579,9 @@
         <v>49.91230553601401</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="L55" s="36"/>
       <c r="M55">
         <v>4.9520431158543712</v>
       </c>
@@ -6648,9 +6606,9 @@
     </row>
     <row r="56" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="B56" s="36"/>
       <c r="C56">
         <v>87.528624354026661</v>
       </c>
@@ -6673,9 +6631,9 @@
         <v>50.624658682159797</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="L56" s="36"/>
       <c r="M56">
         <v>5.0598364128504718</v>
       </c>
@@ -6700,10 +6658,10 @@
     </row>
     <row r="57" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="C57" s="10">
         <v>79.822274087201521</v>
@@ -6727,10 +6685,10 @@
         <v>54.16366663354669</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="21" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="L57" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="M57" s="10">
         <v>7.9423136815743947</v>
@@ -6756,9 +6714,9 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B58" s="36"/>
       <c r="C58">
         <v>92.066966520323973</v>
       </c>
@@ -6781,9 +6739,9 @@
         <v>59.400107247429965</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="L58" s="36"/>
       <c r="M58">
         <v>4.5862361191526402</v>
       </c>
@@ -6808,9 +6766,9 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="B59" s="36"/>
       <c r="C59">
         <v>90.767440481934031</v>
       </c>
@@ -6833,9 +6791,9 @@
         <v>57.472415487547558</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L59" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="L59" s="36"/>
       <c r="M59">
         <v>4.4126117660826036</v>
       </c>
@@ -6860,9 +6818,9 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="B60" s="36"/>
       <c r="C60">
         <v>90.941629733573507</v>
       </c>
@@ -6885,9 +6843,9 @@
         <v>58.03057290210014</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="L60" s="36"/>
       <c r="M60">
         <v>4.3072256890080602</v>
       </c>
@@ -6912,10 +6870,10 @@
     </row>
     <row r="61" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="C61">
         <v>91.954943077771645</v>
@@ -6939,10 +6897,10 @@
         <v>43.97379234137982</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L61" s="22" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="M61">
         <v>4.6677178192019442</v>
@@ -6968,9 +6926,9 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B62" s="36"/>
       <c r="C62">
         <v>90.642246446502455</v>
       </c>
@@ -6993,9 +6951,9 @@
         <v>57.390955449525258</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L62" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="L62" s="36"/>
       <c r="M62">
         <v>4.8046743223783803</v>
       </c>
@@ -7020,9 +6978,9 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="B63" s="36"/>
       <c r="C63">
         <v>90.617152023346819</v>
       </c>
@@ -7045,9 +7003,9 @@
         <v>57.449010771275319</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L63" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="L63" s="36"/>
       <c r="M63">
         <v>4.2750077328577394</v>
       </c>
@@ -7072,9 +7030,9 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="B64" s="36"/>
       <c r="C64">
         <v>90.581355357949491</v>
       </c>
@@ -7097,9 +7055,9 @@
         <v>58.11224589934929</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L64" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="L64" s="36"/>
       <c r="M64">
         <v>4.4778305644230976</v>
       </c>
@@ -7124,9 +7082,9 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="B65" s="36"/>
       <c r="C65">
         <v>90.510302373601434</v>
       </c>
@@ -7149,9 +7107,9 @@
         <v>58.433623636929134</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L65" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="L65" s="36"/>
       <c r="M65">
         <v>5.1076806654003626</v>
       </c>
@@ -7176,9 +7134,9 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="B66" s="36"/>
       <c r="C66">
         <v>90.77523149389998</v>
       </c>
@@ -7201,9 +7159,9 @@
         <v>55.042441020336085</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="L66" s="36"/>
       <c r="M66">
         <v>4.8120651940731003</v>
       </c>
@@ -7228,9 +7186,9 @@
     </row>
     <row r="67" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="B67" s="38"/>
       <c r="C67" s="8">
         <v>91.156513297158639</v>
       </c>
@@ -7253,9 +7211,9 @@
         <v>52.921194726803435</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="L67" s="38"/>
       <c r="M67" s="8">
         <v>5.1638895836383742</v>
       </c>
@@ -7280,10 +7238,10 @@
     </row>
     <row r="68" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="C68" s="18">
         <v>91.573665001683324</v>
@@ -7307,10 +7265,10 @@
         <v>57.233144295438855</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L68" s="21" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="L68" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="M68" s="18">
         <v>3.8946290870482723</v>
@@ -7336,9 +7294,9 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="B69" s="36"/>
       <c r="C69" s="19">
         <v>90.753018873298217</v>
       </c>
@@ -7361,9 +7319,9 @@
         <v>60.778502292458448</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L69" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="L69" s="36"/>
       <c r="M69" s="19">
         <v>5.1087302616689314</v>
       </c>
@@ -7388,9 +7346,9 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="B70" s="36"/>
       <c r="C70" s="19">
         <v>88.959040489692839</v>
       </c>
@@ -7413,9 +7371,9 @@
         <v>56.573336524236382</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="L70" s="36"/>
       <c r="M70" s="19">
         <v>5.2249135280576802</v>
       </c>
@@ -7440,9 +7398,9 @@
     </row>
     <row r="71" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="B71" s="36"/>
       <c r="C71" s="19">
         <v>87.426198957053913</v>
       </c>
@@ -7465,9 +7423,9 @@
         <v>53.891453756950114</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L71" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="L71" s="36"/>
       <c r="M71" s="19">
         <v>5.0521972348656563</v>
       </c>
@@ -7492,10 +7450,10 @@
     </row>
     <row r="72" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="C72" s="19">
         <v>76.752797168134109</v>
@@ -7519,10 +7477,10 @@
         <v>47.765358179002185</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="22" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="L72" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="M72" s="19">
         <v>9.3985771167019596</v>
@@ -7548,9 +7506,9 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="B73" s="36"/>
       <c r="C73" s="19">
         <v>84.199090152702041</v>
       </c>
@@ -7573,9 +7531,9 @@
         <v>54.928023981627703</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L73" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="L73" s="36"/>
       <c r="M73" s="19">
         <v>6.8541808049040309</v>
       </c>
@@ -7600,9 +7558,9 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="B74" s="36"/>
       <c r="C74" s="19">
         <v>89.131692863681508</v>
       </c>
@@ -7625,9 +7583,9 @@
         <v>45.620863436697626</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L74" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="L74" s="36"/>
       <c r="M74" s="19">
         <v>4.9480273201097891</v>
       </c>
@@ -7652,9 +7610,9 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="B75" s="36"/>
       <c r="C75" s="19">
         <v>89.343160521159632</v>
       </c>
@@ -7677,9 +7635,9 @@
         <v>48.872031783551328</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L75" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="L75" s="36"/>
       <c r="M75" s="19">
         <v>5.1733129187131341</v>
       </c>
@@ -7704,9 +7662,9 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="B76" s="36"/>
       <c r="C76" s="19">
         <v>90.136569338183705</v>
       </c>
@@ -7729,9 +7687,9 @@
         <v>57.988820953710672</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L76" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="L76" s="36"/>
       <c r="M76" s="19">
         <v>5.9292139017037657</v>
       </c>
@@ -7756,9 +7714,9 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B77" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="B77" s="36"/>
       <c r="C77" s="19">
         <v>90.588436953510907</v>
       </c>
@@ -7781,9 +7739,9 @@
         <v>49.48071237588178</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L77" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="L77" s="36"/>
       <c r="M77" s="19">
         <v>4.9553180055876025</v>
       </c>
@@ -7808,9 +7766,9 @@
     </row>
     <row r="78" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="B78" s="38"/>
       <c r="C78" s="20">
         <v>91.279707682254013</v>
       </c>
@@ -7833,9 +7791,9 @@
         <v>48.094366048916001</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L78" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="L78" s="38"/>
       <c r="M78" s="20">
         <v>4.8729900980426155</v>
       </c>
@@ -7860,10 +7818,10 @@
     </row>
     <row r="79" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="C79" s="18">
         <v>88.097863565116072</v>
@@ -7887,10 +7845,10 @@
         <v>56.478864955891837</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L79" s="21" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="L79" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="M79" s="18">
         <v>6.0517517161830918</v>
@@ -7916,9 +7874,9 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B80" s="36"/>
       <c r="C80" s="19">
         <v>92.579341430099007</v>
       </c>
@@ -7941,9 +7899,9 @@
         <v>58.562330658368531</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L80" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="L80" s="36"/>
       <c r="M80" s="19">
         <v>3.9546659796940227</v>
       </c>
@@ -7968,9 +7926,9 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="B81" s="36"/>
       <c r="C81" s="19">
         <v>90.838947223672307</v>
       </c>
@@ -7993,9 +7951,9 @@
         <v>53.102947668822111</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="L81" s="36"/>
       <c r="M81" s="19">
         <v>4.7127350259472136</v>
       </c>
@@ -8020,9 +7978,9 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="B82" s="36"/>
       <c r="C82" s="19">
         <v>91.285512236598578</v>
       </c>
@@ -8045,9 +8003,9 @@
         <v>51.900369998563754</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L82" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="L82" s="36"/>
       <c r="M82" s="19">
         <v>4.2911852431583064</v>
       </c>
@@ -8072,10 +8030,10 @@
     </row>
     <row r="83" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="C83" s="19">
         <v>92.556186042757076</v>
@@ -8099,10 +8057,10 @@
         <v>43.850076355062413</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="22" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="L83" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="M83" s="19">
         <v>4.0676376638231329</v>
@@ -8128,9 +8086,9 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="B84" s="36"/>
       <c r="C84" s="19">
         <v>92.605708756255126</v>
       </c>
@@ -8153,9 +8111,9 @@
         <v>44.446925405670939</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L84" s="22"/>
+        <v>16</v>
+      </c>
+      <c r="L84" s="36"/>
       <c r="M84" s="19">
         <v>4.5806425177141055</v>
       </c>
@@ -8180,9 +8138,9 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="B85" s="36"/>
       <c r="C85" s="19">
         <v>92.058134776134636</v>
       </c>
@@ -8205,9 +8163,9 @@
         <v>44.342875384354819</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L85" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="L85" s="36"/>
       <c r="M85" s="19">
         <v>4.4300468024374355</v>
       </c>
@@ -8232,9 +8190,9 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="B86" s="36"/>
       <c r="C86" s="19">
         <v>82.145275705850779</v>
       </c>
@@ -8257,9 +8215,9 @@
         <v>51.041102115177971</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L86" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="L86" s="36"/>
       <c r="M86" s="19">
         <v>7.0119117816178136</v>
       </c>
@@ -8284,9 +8242,9 @@
     </row>
     <row r="87" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B87" s="38"/>
       <c r="C87" s="20"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -8295,9 +8253,9 @@
       <c r="H87" s="8"/>
       <c r="I87" s="9"/>
       <c r="K87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="L87" s="38"/>
       <c r="M87" s="20"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
@@ -8322,6 +8280,8 @@
     <mergeCell ref="L35:L38"/>
     <mergeCell ref="B72:B78"/>
     <mergeCell ref="L72:L78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="L79:L82"/>
     <mergeCell ref="L5:L12"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="L17:L23"/>
@@ -8329,8 +8289,6 @@
     <mergeCell ref="L24:L27"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="L79:L82"/>
     <mergeCell ref="B57:B60"/>
     <mergeCell ref="L13:L16"/>
     <mergeCell ref="L57:L60"/>

--- a/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D5A028-5A3B-4C68-AF76-AEF42163CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7E7A3-7C62-48D2-BF09-2A8537E4074F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pcc_part_20250924" sheetId="5" r:id="rId1"/>
-    <sheet name="pcc_all_20250919" sheetId="4" r:id="rId2"/>
+    <sheet name="pcc_partiadata_20250924" sheetId="5" r:id="rId1"/>
+    <sheet name="pcc_fulldata_20250919" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -419,6 +419,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -437,42 +455,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,9 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C29D5C-8639-4163-9432-7C70C26E1499}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -819,10 +817,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -844,10 +842,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="32"/>
+      <c r="L2" s="28"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -871,10 +869,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -896,10 +894,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -923,7 +921,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -950,7 +948,7 @@
       <c r="I4" s="11">
         <v>46.333889854871863</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="31" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="22" t="s">
@@ -979,8 +977,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="19">
@@ -1004,8 +1002,8 @@
       <c r="I5" s="6">
         <v>44.508037843464628</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="40" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="25" t="s">
         <v>16</v>
       </c>
       <c r="M5">
@@ -1031,7 +1029,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
@@ -1056,7 +1054,7 @@
       <c r="I6" s="6">
         <v>54.648806073870297</v>
       </c>
-      <c r="K6" s="26"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="23" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1081,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -1108,7 +1106,7 @@
       <c r="I7" s="6">
         <v>55.218118957199742</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="23" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1133,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1158,7 @@
       <c r="I8" s="6">
         <v>56.21099086785641</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1187,7 +1185,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +1210,7 @@
       <c r="I9" s="6">
         <v>54.269229549275238</v>
       </c>
-      <c r="K9" s="26"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="23" t="s">
         <v>11</v>
       </c>
@@ -1239,7 +1237,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1262,7 @@
       <c r="I10" s="6">
         <v>53.296066574970368</v>
       </c>
-      <c r="K10" s="26"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1289,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +1314,7 @@
       <c r="I11" s="6">
         <v>53.60330683368079</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="33"/>
       <c r="L11" s="24" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1341,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1370,7 +1368,7 @@
       <c r="I12" s="11">
         <v>56.700502022797203</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -1399,8 +1397,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="19">
@@ -1424,8 +1422,8 @@
       <c r="I13" s="6">
         <v>61.060709867732413</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="41" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="M13" s="19">
@@ -1451,7 +1449,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1476,7 +1474,7 @@
       <c r="I14" s="6">
         <v>59.459012044510182</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1501,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1528,7 +1526,7 @@
       <c r="I15" s="6">
         <v>60.326810785560419</v>
       </c>
-      <c r="K15" s="29"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1553,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1582,7 +1580,7 @@
       <c r="I16" s="6">
         <v>50.038301946095267</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="35" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -1611,8 +1609,8 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="19">
@@ -1636,8 +1634,8 @@
       <c r="I17" s="6">
         <v>59.137720337834523</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="41" t="s">
+      <c r="K17" s="35"/>
+      <c r="L17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="M17">
@@ -1663,7 +1661,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1686,7 @@
       <c r="I18" s="6">
         <v>59.655400709925409</v>
       </c>
-      <c r="K18" s="29"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1715,7 +1713,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1738,7 @@
       <c r="I19" s="9">
         <v>60.079934370827893</v>
       </c>
-      <c r="K19" s="30"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="21" t="s">
         <v>7</v>
       </c>
@@ -1767,7 +1765,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1794,7 +1792,7 @@
       <c r="I20" s="11">
         <v>58.695098285163937</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="34" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -1823,8 +1821,8 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="19">
@@ -1848,8 +1846,8 @@
       <c r="I21" s="6">
         <v>60.562173259860948</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="41" t="s">
+      <c r="K21" s="35"/>
+      <c r="L21" s="26" t="s">
         <v>12</v>
       </c>
       <c r="M21" s="19">
@@ -1875,7 +1873,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +1898,7 @@
       <c r="I22" s="6">
         <v>55.41235362474302</v>
       </c>
-      <c r="K22" s="29"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1927,7 +1925,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1952,7 +1950,7 @@
       <c r="I23" s="6">
         <v>54.757027886631093</v>
       </c>
-      <c r="K23" s="29"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1979,10 +1977,10 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="19">
@@ -2006,10 +2004,10 @@
       <c r="I24" s="6">
         <v>47.500041811203673</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="26" t="s">
         <v>15</v>
       </c>
       <c r="M24" s="19">
@@ -2035,7 +2033,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
@@ -2060,7 +2058,7 @@
       <c r="I25" s="6">
         <v>49.010795941141367</v>
       </c>
-      <c r="K25" s="29"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="5" t="s">
         <v>16</v>
       </c>
@@ -2087,7 +2085,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
@@ -2112,7 +2110,7 @@
       <c r="I26" s="6">
         <v>49.914304333659167</v>
       </c>
-      <c r="K26" s="29"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="5" t="s">
         <v>13</v>
       </c>
@@ -2139,7 +2137,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2164,7 +2162,7 @@
       <c r="I27" s="6">
         <v>55.799392728310792</v>
       </c>
-      <c r="K27" s="29"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2191,7 +2189,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="21" t="s">
         <v>11</v>
       </c>
@@ -2202,7 +2200,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="21" t="s">
         <v>11</v>
       </c>
@@ -2272,10 +2270,10 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="15">
         <v>92.567111769713335</v>
       </c>
@@ -2297,10 +2295,10 @@
       <c r="I31" s="16">
         <v>43.622535641382179</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L31" s="32"/>
+      <c r="L31" s="28"/>
       <c r="M31">
         <v>3.88093621561358</v>
       </c>
@@ -2324,10 +2322,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="15">
         <v>92.338566773632834</v>
       </c>
@@ -2349,10 +2347,10 @@
       <c r="I32" s="16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="34"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="15">
         <v>4.0483086633488163</v>
       </c>
@@ -2376,7 +2374,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="22" t="s">
@@ -2403,7 +2401,7 @@
       <c r="I33" s="11">
         <v>40.926778409266866</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="31" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="22" t="s">
@@ -2432,8 +2430,8 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C34">
@@ -2457,8 +2455,8 @@
       <c r="I34" s="6">
         <v>38.412876121977916</v>
       </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="40" t="s">
+      <c r="K34" s="32"/>
+      <c r="L34" s="25" t="s">
         <v>16</v>
       </c>
       <c r="M34">
@@ -2484,7 +2482,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="23" t="s">
         <v>13</v>
       </c>
@@ -2509,7 +2507,7 @@
       <c r="I35" s="6">
         <v>50.327216453861126</v>
       </c>
-      <c r="K35" s="26"/>
+      <c r="K35" s="32"/>
       <c r="L35" s="23" t="s">
         <v>13</v>
       </c>
@@ -2536,7 +2534,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
@@ -2561,7 +2559,7 @@
       <c r="I36" s="6">
         <v>50.474777835549446</v>
       </c>
-      <c r="K36" s="26"/>
+      <c r="K36" s="32"/>
       <c r="L36" s="23" t="s">
         <v>17</v>
       </c>
@@ -2588,7 +2586,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="23" t="s">
         <v>12</v>
       </c>
@@ -2613,7 +2611,7 @@
       <c r="I37" s="6">
         <v>52.493719332914743</v>
       </c>
-      <c r="K37" s="26"/>
+      <c r="K37" s="32"/>
       <c r="L37" s="23" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2638,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="23" t="s">
         <v>11</v>
       </c>
@@ -2665,7 +2663,7 @@
       <c r="I38" s="6">
         <v>50.478879685998855</v>
       </c>
-      <c r="K38" s="26"/>
+      <c r="K38" s="32"/>
       <c r="L38" s="23" t="s">
         <v>11</v>
       </c>
@@ -2692,7 +2690,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="23" t="s">
         <v>7</v>
       </c>
@@ -2717,7 +2715,7 @@
       <c r="I39" s="6">
         <v>49.91230553601401</v>
       </c>
-      <c r="K39" s="26"/>
+      <c r="K39" s="32"/>
       <c r="L39" s="23" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +2742,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="24" t="s">
         <v>18</v>
       </c>
@@ -2769,7 +2767,7 @@
       <c r="I40" s="9">
         <v>50.624658682159797</v>
       </c>
-      <c r="K40" s="27"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="24" t="s">
         <v>18</v>
       </c>
@@ -2796,7 +2794,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2823,7 +2821,7 @@
       <c r="I41" s="11">
         <v>54.16366663354669</v>
       </c>
-      <c r="K41" s="28" t="s">
+      <c r="K41" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -2852,8 +2850,8 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C42">
@@ -2877,8 +2875,8 @@
       <c r="I42" s="6">
         <v>59.400107247429965</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="41" t="s">
+      <c r="K42" s="35"/>
+      <c r="L42" s="26" t="s">
         <v>12</v>
       </c>
       <c r="M42">
@@ -2904,7 +2902,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="5" t="s">
         <v>11</v>
       </c>
@@ -2929,7 +2927,7 @@
       <c r="I43" s="6">
         <v>57.472415487547558</v>
       </c>
-      <c r="K43" s="29"/>
+      <c r="K43" s="35"/>
       <c r="L43" s="5" t="s">
         <v>11</v>
       </c>
@@ -2956,7 +2954,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="5" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +2979,7 @@
       <c r="I44" s="6">
         <v>58.03057290210014</v>
       </c>
-      <c r="K44" s="29"/>
+      <c r="K44" s="35"/>
       <c r="L44" s="5" t="s">
         <v>7</v>
       </c>
@@ -3008,7 +3006,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3035,7 +3033,7 @@
       <c r="I45" s="6">
         <v>43.97379234137982</v>
       </c>
-      <c r="K45" s="29" t="s">
+      <c r="K45" s="35" t="s">
         <v>30</v>
       </c>
       <c r="L45" s="5" t="s">
@@ -3064,8 +3062,8 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="41" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C46">
@@ -3089,8 +3087,8 @@
       <c r="I46" s="6">
         <v>57.390955449525258</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="41" t="s">
+      <c r="K46" s="35"/>
+      <c r="L46" s="26" t="s">
         <v>12</v>
       </c>
       <c r="M46">
@@ -3116,7 +3114,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="5" t="s">
         <v>11</v>
       </c>
@@ -3141,7 +3139,7 @@
       <c r="I47" s="6">
         <v>57.449010771275319</v>
       </c>
-      <c r="K47" s="29"/>
+      <c r="K47" s="35"/>
       <c r="L47" s="5" t="s">
         <v>11</v>
       </c>
@@ -3168,7 +3166,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="21" t="s">
         <v>7</v>
       </c>
@@ -3193,7 +3191,7 @@
       <c r="I48" s="9">
         <v>58.11224589934929</v>
       </c>
-      <c r="K48" s="30"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="21" t="s">
         <v>7</v>
       </c>
@@ -3220,7 +3218,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3247,7 +3245,7 @@
       <c r="I49" s="11">
         <v>56.478864955891837</v>
       </c>
-      <c r="K49" s="28" t="s">
+      <c r="K49" s="34" t="s">
         <v>28</v>
       </c>
       <c r="L49" s="3" t="s">
@@ -3276,8 +3274,8 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
-      <c r="B50" s="41" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="19">
@@ -3301,8 +3299,8 @@
       <c r="I50" s="6">
         <v>58.562330658368531</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="41" t="s">
+      <c r="K50" s="35"/>
+      <c r="L50" s="26" t="s">
         <v>12</v>
       </c>
       <c r="M50" s="19">
@@ -3328,7 +3326,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="5" t="s">
         <v>11</v>
       </c>
@@ -3353,7 +3351,7 @@
       <c r="I51" s="6">
         <v>53.102947668822111</v>
       </c>
-      <c r="K51" s="29"/>
+      <c r="K51" s="35"/>
       <c r="L51" s="5" t="s">
         <v>11</v>
       </c>
@@ -3380,7 +3378,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="5" t="s">
         <v>7</v>
       </c>
@@ -3405,7 +3403,7 @@
       <c r="I52" s="6">
         <v>51.900369998563754</v>
       </c>
-      <c r="K52" s="29"/>
+      <c r="K52" s="35"/>
       <c r="L52" s="5" t="s">
         <v>7</v>
       </c>
@@ -3432,10 +3430,10 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="19">
@@ -3459,10 +3457,10 @@
       <c r="I53" s="6">
         <v>43.850076355062413</v>
       </c>
-      <c r="K53" s="29" t="s">
+      <c r="K53" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L53" s="41" t="s">
+      <c r="L53" s="26" t="s">
         <v>15</v>
       </c>
       <c r="M53" s="19">
@@ -3488,7 +3486,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="5" t="s">
         <v>16</v>
       </c>
@@ -3513,7 +3511,7 @@
       <c r="I54" s="6">
         <v>44.446925405670939</v>
       </c>
-      <c r="K54" s="29"/>
+      <c r="K54" s="35"/>
       <c r="L54" s="5" t="s">
         <v>16</v>
       </c>
@@ -3540,7 +3538,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="5" t="s">
         <v>13</v>
       </c>
@@ -3565,7 +3563,7 @@
       <c r="I55" s="6">
         <v>44.342875384354819</v>
       </c>
-      <c r="K55" s="29"/>
+      <c r="K55" s="35"/>
       <c r="L55" s="5" t="s">
         <v>13</v>
       </c>
@@ -3592,7 +3590,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="29"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="5" t="s">
         <v>12</v>
       </c>
@@ -3617,7 +3615,7 @@
       <c r="I56" s="6">
         <v>51.041102115177971</v>
       </c>
-      <c r="K56" s="29"/>
+      <c r="K56" s="35"/>
       <c r="L56" s="5" t="s">
         <v>12</v>
       </c>
@@ -3644,7 +3642,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="21" t="s">
         <v>11</v>
       </c>
@@ -3655,7 +3653,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
-      <c r="K57" s="30"/>
+      <c r="K57" s="36"/>
       <c r="L57" s="21" t="s">
         <v>11</v>
       </c>
@@ -3669,12 +3667,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:K40"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A57"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="A4:A11"/>
@@ -3687,18 +3689,46 @@
     <mergeCell ref="K16:K19"/>
     <mergeCell ref="K20:K23"/>
     <mergeCell ref="K24:K28"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="K33:K40"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:I3">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C4:I19">
     <cfRule type="colorScale" priority="19">
       <colorScale>
@@ -3735,38 +3765,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I3">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3840,10 +3838,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -3865,10 +3863,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="32"/>
+      <c r="L2" s="28"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -3892,10 +3890,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -3917,10 +3915,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -3944,10 +3942,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="1">
         <v>89.053336678229613</v>
       </c>
@@ -3969,10 +3967,10 @@
       <c r="I4" s="5">
         <v>50.508830814568753</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="8">
         <v>5.4385382756811014</v>
       </c>
@@ -3999,7 +3997,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10">
@@ -4026,7 +4024,7 @@
       <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="10">
@@ -4055,7 +4053,7 @@
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6">
         <v>93.053143481633342</v>
       </c>
@@ -4080,7 +4078,7 @@
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="37"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -4107,7 +4105,7 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="37"/>
       <c r="C7">
         <v>91.579621507683157</v>
       </c>
@@ -4132,7 +4130,7 @@
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="37"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -4159,7 +4157,7 @@
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="37"/>
       <c r="C8">
         <v>90.212611412440125</v>
       </c>
@@ -4184,7 +4182,7 @@
       <c r="K8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="36"/>
+      <c r="L8" s="37"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -4211,7 +4209,7 @@
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="37"/>
       <c r="C9">
         <v>90.084819072829347</v>
       </c>
@@ -4236,7 +4234,7 @@
       <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="36"/>
+      <c r="L9" s="37"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -4263,7 +4261,7 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10">
         <v>89.661415756191658</v>
       </c>
@@ -4288,7 +4286,7 @@
       <c r="K10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="37"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -4315,7 +4313,7 @@
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11">
         <v>89.817152397512075</v>
       </c>
@@ -4340,7 +4338,7 @@
       <c r="K11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="37"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -4419,7 +4417,7 @@
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="18">
@@ -4446,7 +4444,7 @@
       <c r="K13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="40" t="s">
         <v>31</v>
       </c>
       <c r="M13" s="18">
@@ -4475,7 +4473,7 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="19">
         <v>92.492694573482453</v>
       </c>
@@ -4500,7 +4498,7 @@
       <c r="K14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="37"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="19">
         <v>4.2020365592810807</v>
       </c>
@@ -4527,7 +4525,7 @@
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="19">
         <v>91.321718469306248</v>
       </c>
@@ -4552,7 +4550,7 @@
       <c r="K15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="37"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="19">
         <v>4.0707928609350361</v>
       </c>
@@ -4579,7 +4577,7 @@
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="19">
         <v>91.514534439455929</v>
       </c>
@@ -4604,7 +4602,7 @@
       <c r="K16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="37"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="19">
         <v>3.922662122179057</v>
       </c>
@@ -4631,7 +4629,7 @@
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="19">
@@ -4658,7 +4656,7 @@
       <c r="K17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="40" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="19">
@@ -4687,7 +4685,7 @@
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="19">
         <v>91.096670386422005</v>
       </c>
@@ -4712,7 +4710,7 @@
       <c r="K18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="37"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="19">
         <v>4.4913349382120487</v>
       </c>
@@ -4739,7 +4737,7 @@
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="19">
         <v>91.140892222251068</v>
       </c>
@@ -4764,7 +4762,7 @@
       <c r="K19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="37"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="19">
         <v>3.903249518826176</v>
       </c>
@@ -4791,7 +4789,7 @@
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="19">
         <v>91.081684674319575</v>
       </c>
@@ -4816,7 +4814,7 @@
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="37"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="19">
         <v>4.1769763320911357</v>
       </c>
@@ -4843,7 +4841,7 @@
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="19">
         <v>91.125234647358596</v>
       </c>
@@ -4868,7 +4866,7 @@
       <c r="K21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="37"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="19">
         <v>4.6221295992371028</v>
       </c>
@@ -4895,7 +4893,7 @@
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="19">
         <v>91.43489995588196</v>
       </c>
@@ -4920,7 +4918,7 @@
       <c r="K22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="37"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="19">
         <v>4.2207267229748435</v>
       </c>
@@ -4947,7 +4945,7 @@
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="20">
         <v>91.676793628549277</v>
       </c>
@@ -4972,7 +4970,7 @@
       <c r="K23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="39"/>
+      <c r="L23" s="41"/>
       <c r="M23" s="20">
         <v>4.7069173345915063</v>
       </c>
@@ -4999,7 +4997,7 @@
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="10">
@@ -5026,7 +5024,7 @@
       <c r="K24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="L24" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M24" s="10">
@@ -5055,7 +5053,7 @@
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="36"/>
+      <c r="B25" s="37"/>
       <c r="C25">
         <v>91.138051943932624</v>
       </c>
@@ -5080,7 +5078,7 @@
       <c r="K25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="36"/>
+      <c r="L25" s="37"/>
       <c r="M25">
         <v>4.8341548736925946</v>
       </c>
@@ -5107,7 +5105,7 @@
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="37"/>
       <c r="C26">
         <v>89.464493637488204</v>
       </c>
@@ -5132,7 +5130,7 @@
       <c r="K26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="36"/>
+      <c r="L26" s="37"/>
       <c r="M26">
         <v>4.9049220966264562</v>
       </c>
@@ -5159,7 +5157,7 @@
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="37"/>
       <c r="C27">
         <v>88.032999132057071</v>
       </c>
@@ -5184,7 +5182,7 @@
       <c r="K27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="36"/>
+      <c r="L27" s="37"/>
       <c r="M27">
         <v>4.7933326181048139</v>
       </c>
@@ -5211,7 +5209,7 @@
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C28">
@@ -5238,7 +5236,7 @@
       <c r="K28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="37" t="s">
         <v>24</v>
       </c>
       <c r="M28">
@@ -5267,7 +5265,7 @@
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="37"/>
       <c r="C29">
         <v>84.83746110837177</v>
       </c>
@@ -5292,7 +5290,7 @@
       <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="36"/>
+      <c r="L29" s="37"/>
       <c r="M29">
         <v>6.4398657108190296</v>
       </c>
@@ -5319,7 +5317,7 @@
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30">
         <v>89.603309717212085</v>
       </c>
@@ -5344,7 +5342,7 @@
       <c r="K30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="36"/>
+      <c r="L30" s="37"/>
       <c r="M30">
         <v>4.6421688324031569</v>
       </c>
@@ -5371,7 +5369,7 @@
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="37"/>
       <c r="C31">
         <v>89.968586810151194</v>
       </c>
@@ -5396,7 +5394,7 @@
       <c r="K31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="36"/>
+      <c r="L31" s="37"/>
       <c r="M31">
         <v>4.7831146921405292</v>
       </c>
@@ -5423,7 +5421,7 @@
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="37"/>
       <c r="C32">
         <v>90.691067108423653</v>
       </c>
@@ -5448,7 +5446,7 @@
       <c r="K32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="36"/>
+      <c r="L32" s="37"/>
       <c r="M32">
         <v>5.4121743283478736</v>
       </c>
@@ -5475,7 +5473,7 @@
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33">
         <v>91.112509623785684</v>
       </c>
@@ -5500,7 +5498,7 @@
       <c r="K33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="36"/>
+      <c r="L33" s="37"/>
       <c r="M33">
         <v>4.5520179996051642</v>
       </c>
@@ -5579,7 +5577,7 @@
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="18">
@@ -5606,7 +5604,7 @@
       <c r="K35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="35" t="s">
+      <c r="L35" s="39" t="s">
         <v>28</v>
       </c>
       <c r="M35" s="18">
@@ -5635,7 +5633,7 @@
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="19">
         <v>92.990178692433901</v>
       </c>
@@ -5660,7 +5658,7 @@
       <c r="K36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L36" s="36"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="19">
         <v>3.6904396057483901</v>
       </c>
@@ -5687,7 +5685,7 @@
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="36"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="19">
         <v>91.404302805387587</v>
       </c>
@@ -5712,7 +5710,7 @@
       <c r="K37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="36"/>
+      <c r="L37" s="37"/>
       <c r="M37" s="19">
         <v>4.2752844258887936</v>
       </c>
@@ -5739,7 +5737,7 @@
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="19">
         <v>91.836930538614808</v>
       </c>
@@ -5764,7 +5762,7 @@
       <c r="K38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L38" s="36"/>
+      <c r="L38" s="37"/>
       <c r="M38" s="19">
         <v>3.8814886103074699</v>
       </c>
@@ -5791,7 +5789,7 @@
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="19">
@@ -5818,7 +5816,7 @@
       <c r="K39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="36" t="s">
+      <c r="L39" s="37" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="19">
@@ -5847,7 +5845,7 @@
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="36"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="19">
         <v>93.140736511561499</v>
       </c>
@@ -5872,7 +5870,7 @@
       <c r="K40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="36"/>
+      <c r="L40" s="37"/>
       <c r="M40" s="19">
         <v>4.0606812542101052</v>
       </c>
@@ -5899,7 +5897,7 @@
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="36"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="19">
         <v>92.481062408267675</v>
       </c>
@@ -5924,7 +5922,7 @@
       <c r="K41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="36"/>
+      <c r="L41" s="37"/>
       <c r="M41" s="19">
         <v>4.0404090948996982</v>
       </c>
@@ -5951,7 +5949,7 @@
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="19">
         <v>82.988413971285794</v>
       </c>
@@ -5976,7 +5974,7 @@
       <c r="K42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="36"/>
+      <c r="L42" s="37"/>
       <c r="M42" s="19">
         <v>6.4965045402129054</v>
       </c>
@@ -6081,10 +6079,10 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="32"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="15">
         <v>92.567111769713335</v>
       </c>
@@ -6106,10 +6104,10 @@
       <c r="I46" s="16">
         <v>43.622535641382179</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L46" s="32"/>
+      <c r="L46" s="28"/>
       <c r="M46">
         <v>3.88093621561358</v>
       </c>
@@ -6133,10 +6131,10 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="15">
         <v>92.338566773632834</v>
       </c>
@@ -6158,10 +6156,10 @@
       <c r="I47" s="16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="K47" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="34"/>
+      <c r="L47" s="30"/>
       <c r="M47" s="15">
         <v>4.0483086633488163</v>
       </c>
@@ -6185,10 +6183,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="15">
         <v>88.499186482198567</v>
       </c>
@@ -6210,10 +6208,10 @@
       <c r="I48" s="16">
         <v>44.56238292926399</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L48" s="34"/>
+      <c r="L48" s="30"/>
       <c r="M48">
         <v>5.9037054685544437</v>
       </c>
@@ -6240,7 +6238,7 @@
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="10">
@@ -6267,7 +6265,7 @@
       <c r="K49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="35" t="s">
+      <c r="L49" s="39" t="s">
         <v>14</v>
       </c>
       <c r="M49" s="10">
@@ -6296,7 +6294,7 @@
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="36"/>
+      <c r="B50" s="37"/>
       <c r="C50">
         <v>92.603782215910087</v>
       </c>
@@ -6321,7 +6319,7 @@
       <c r="K50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="36"/>
+      <c r="L50" s="37"/>
       <c r="M50">
         <v>4.4405799374618198</v>
       </c>
@@ -6348,7 +6346,7 @@
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="36"/>
+      <c r="B51" s="37"/>
       <c r="C51">
         <v>91.081927840808433</v>
       </c>
@@ -6373,7 +6371,7 @@
       <c r="K51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="36"/>
+      <c r="L51" s="37"/>
       <c r="M51">
         <v>5.0278535681088243</v>
       </c>
@@ -6400,7 +6398,7 @@
       <c r="A52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="36"/>
+      <c r="B52" s="37"/>
       <c r="C52">
         <v>89.644638837679821</v>
       </c>
@@ -6425,7 +6423,7 @@
       <c r="K52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="36"/>
+      <c r="L52" s="37"/>
       <c r="M52">
         <v>5.6337263714853885</v>
       </c>
@@ -6452,7 +6450,7 @@
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="36"/>
+      <c r="B53" s="37"/>
       <c r="C53">
         <v>89.487105403835685</v>
       </c>
@@ -6477,7 +6475,7 @@
       <c r="K53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L53" s="36"/>
+      <c r="L53" s="37"/>
       <c r="M53">
         <v>5.5869146897287463</v>
       </c>
@@ -6504,7 +6502,7 @@
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="36"/>
+      <c r="B54" s="37"/>
       <c r="C54">
         <v>89.019136482146294</v>
       </c>
@@ -6529,7 +6527,7 @@
       <c r="K54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="36"/>
+      <c r="L54" s="37"/>
       <c r="M54">
         <v>5.5440228882484019</v>
       </c>
@@ -6556,7 +6554,7 @@
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="36"/>
+      <c r="B55" s="37"/>
       <c r="C55">
         <v>89.238869796493674</v>
       </c>
@@ -6581,7 +6579,7 @@
       <c r="K55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L55" s="36"/>
+      <c r="L55" s="37"/>
       <c r="M55">
         <v>4.9520431158543712</v>
       </c>
@@ -6608,7 +6606,7 @@
       <c r="A56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="37"/>
       <c r="C56">
         <v>87.528624354026661</v>
       </c>
@@ -6633,7 +6631,7 @@
       <c r="K56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="36"/>
+      <c r="L56" s="37"/>
       <c r="M56">
         <v>5.0598364128504718</v>
       </c>
@@ -6660,7 +6658,7 @@
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="10">
@@ -6687,7 +6685,7 @@
       <c r="K57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L57" s="35" t="s">
+      <c r="L57" s="39" t="s">
         <v>31</v>
       </c>
       <c r="M57" s="10">
@@ -6716,7 +6714,7 @@
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="36"/>
+      <c r="B58" s="37"/>
       <c r="C58">
         <v>92.066966520323973</v>
       </c>
@@ -6741,7 +6739,7 @@
       <c r="K58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L58" s="36"/>
+      <c r="L58" s="37"/>
       <c r="M58">
         <v>4.5862361191526402</v>
       </c>
@@ -6768,7 +6766,7 @@
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="36"/>
+      <c r="B59" s="37"/>
       <c r="C59">
         <v>90.767440481934031</v>
       </c>
@@ -6793,7 +6791,7 @@
       <c r="K59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="36"/>
+      <c r="L59" s="37"/>
       <c r="M59">
         <v>4.4126117660826036</v>
       </c>
@@ -6820,7 +6818,7 @@
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="36"/>
+      <c r="B60" s="37"/>
       <c r="C60">
         <v>90.941629733573507</v>
       </c>
@@ -6845,7 +6843,7 @@
       <c r="K60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L60" s="36"/>
+      <c r="L60" s="37"/>
       <c r="M60">
         <v>4.3072256890080602</v>
       </c>
@@ -6872,7 +6870,7 @@
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C61">
@@ -6899,7 +6897,7 @@
       <c r="K61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L61" s="36" t="s">
+      <c r="L61" s="37" t="s">
         <v>30</v>
       </c>
       <c r="M61">
@@ -6928,7 +6926,7 @@
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="36"/>
+      <c r="B62" s="37"/>
       <c r="C62">
         <v>90.642246446502455</v>
       </c>
@@ -6953,7 +6951,7 @@
       <c r="K62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L62" s="36"/>
+      <c r="L62" s="37"/>
       <c r="M62">
         <v>4.8046743223783803</v>
       </c>
@@ -6980,7 +6978,7 @@
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="36"/>
+      <c r="B63" s="37"/>
       <c r="C63">
         <v>90.617152023346819</v>
       </c>
@@ -7005,7 +7003,7 @@
       <c r="K63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="36"/>
+      <c r="L63" s="37"/>
       <c r="M63">
         <v>4.2750077328577394</v>
       </c>
@@ -7032,7 +7030,7 @@
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="36"/>
+      <c r="B64" s="37"/>
       <c r="C64">
         <v>90.581355357949491</v>
       </c>
@@ -7057,7 +7055,7 @@
       <c r="K64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L64" s="36"/>
+      <c r="L64" s="37"/>
       <c r="M64">
         <v>4.4778305644230976</v>
       </c>
@@ -7084,7 +7082,7 @@
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="36"/>
+      <c r="B65" s="37"/>
       <c r="C65">
         <v>90.510302373601434</v>
       </c>
@@ -7109,7 +7107,7 @@
       <c r="K65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L65" s="36"/>
+      <c r="L65" s="37"/>
       <c r="M65">
         <v>5.1076806654003626</v>
       </c>
@@ -7136,7 +7134,7 @@
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="36"/>
+      <c r="B66" s="37"/>
       <c r="C66">
         <v>90.77523149389998</v>
       </c>
@@ -7161,7 +7159,7 @@
       <c r="K66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L66" s="36"/>
+      <c r="L66" s="37"/>
       <c r="M66">
         <v>4.8120651940731003</v>
       </c>
@@ -7240,7 +7238,7 @@
       <c r="A68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="18">
@@ -7267,7 +7265,7 @@
       <c r="K68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L68" s="35" t="s">
+      <c r="L68" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M68" s="18">
@@ -7296,7 +7294,7 @@
       <c r="A69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="36"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="19">
         <v>90.753018873298217</v>
       </c>
@@ -7321,7 +7319,7 @@
       <c r="K69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="36"/>
+      <c r="L69" s="37"/>
       <c r="M69" s="19">
         <v>5.1087302616689314</v>
       </c>
@@ -7348,7 +7346,7 @@
       <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="36"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="19">
         <v>88.959040489692839</v>
       </c>
@@ -7373,7 +7371,7 @@
       <c r="K70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L70" s="36"/>
+      <c r="L70" s="37"/>
       <c r="M70" s="19">
         <v>5.2249135280576802</v>
       </c>
@@ -7400,7 +7398,7 @@
       <c r="A71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="36"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="19">
         <v>87.426198957053913</v>
       </c>
@@ -7425,7 +7423,7 @@
       <c r="K71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L71" s="36"/>
+      <c r="L71" s="37"/>
       <c r="M71" s="19">
         <v>5.0521972348656563</v>
       </c>
@@ -7452,7 +7450,7 @@
       <c r="A72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C72" s="19">
@@ -7479,7 +7477,7 @@
       <c r="K72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L72" s="36" t="s">
+      <c r="L72" s="37" t="s">
         <v>24</v>
       </c>
       <c r="M72" s="19">
@@ -7508,7 +7506,7 @@
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="36"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="19">
         <v>84.199090152702041</v>
       </c>
@@ -7533,7 +7531,7 @@
       <c r="K73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="36"/>
+      <c r="L73" s="37"/>
       <c r="M73" s="19">
         <v>6.8541808049040309</v>
       </c>
@@ -7560,7 +7558,7 @@
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="36"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="19">
         <v>89.131692863681508</v>
       </c>
@@ -7585,7 +7583,7 @@
       <c r="K74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L74" s="36"/>
+      <c r="L74" s="37"/>
       <c r="M74" s="19">
         <v>4.9480273201097891</v>
       </c>
@@ -7612,7 +7610,7 @@
       <c r="A75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="36"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="19">
         <v>89.343160521159632</v>
       </c>
@@ -7637,7 +7635,7 @@
       <c r="K75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="36"/>
+      <c r="L75" s="37"/>
       <c r="M75" s="19">
         <v>5.1733129187131341</v>
       </c>
@@ -7664,7 +7662,7 @@
       <c r="A76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="36"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="19">
         <v>90.136569338183705</v>
       </c>
@@ -7689,7 +7687,7 @@
       <c r="K76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L76" s="36"/>
+      <c r="L76" s="37"/>
       <c r="M76" s="19">
         <v>5.9292139017037657</v>
       </c>
@@ -7716,7 +7714,7 @@
       <c r="A77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="36"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="19">
         <v>90.588436953510907</v>
       </c>
@@ -7741,7 +7739,7 @@
       <c r="K77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L77" s="36"/>
+      <c r="L77" s="37"/>
       <c r="M77" s="19">
         <v>4.9553180055876025</v>
       </c>
@@ -7820,7 +7818,7 @@
       <c r="A79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="18">
@@ -7847,7 +7845,7 @@
       <c r="K79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="35" t="s">
+      <c r="L79" s="39" t="s">
         <v>28</v>
       </c>
       <c r="M79" s="18">
@@ -7876,7 +7874,7 @@
       <c r="A80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="36"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="19">
         <v>92.579341430099007</v>
       </c>
@@ -7901,7 +7899,7 @@
       <c r="K80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L80" s="36"/>
+      <c r="L80" s="37"/>
       <c r="M80" s="19">
         <v>3.9546659796940227</v>
       </c>
@@ -7928,7 +7926,7 @@
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="36"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="19">
         <v>90.838947223672307</v>
       </c>
@@ -7953,7 +7951,7 @@
       <c r="K81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L81" s="36"/>
+      <c r="L81" s="37"/>
       <c r="M81" s="19">
         <v>4.7127350259472136</v>
       </c>
@@ -7980,7 +7978,7 @@
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="36"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="19">
         <v>91.285512236598578</v>
       </c>
@@ -8005,7 +8003,7 @@
       <c r="K82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L82" s="36"/>
+      <c r="L82" s="37"/>
       <c r="M82" s="19">
         <v>4.2911852431583064</v>
       </c>
@@ -8032,7 +8030,7 @@
       <c r="A83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C83" s="19">
@@ -8059,7 +8057,7 @@
       <c r="K83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="36" t="s">
+      <c r="L83" s="37" t="s">
         <v>29</v>
       </c>
       <c r="M83" s="19">
@@ -8088,7 +8086,7 @@
       <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="36"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="19">
         <v>92.605708756255126</v>
       </c>
@@ -8113,7 +8111,7 @@
       <c r="K84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L84" s="36"/>
+      <c r="L84" s="37"/>
       <c r="M84" s="19">
         <v>4.5806425177141055</v>
       </c>
@@ -8140,7 +8138,7 @@
       <c r="A85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="36"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="19">
         <v>92.058134776134636</v>
       </c>
@@ -8165,7 +8163,7 @@
       <c r="K85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="36"/>
+      <c r="L85" s="37"/>
       <c r="M85" s="19">
         <v>4.4300468024374355</v>
       </c>
@@ -8192,7 +8190,7 @@
       <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="36"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="19">
         <v>82.145275705850779</v>
       </c>
@@ -8217,7 +8215,7 @@
       <c r="K86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L86" s="36"/>
+      <c r="L86" s="37"/>
       <c r="M86" s="19">
         <v>7.0119117816178136</v>
       </c>
@@ -8266,6 +8264,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B12"/>
     <mergeCell ref="B83:B87"/>
     <mergeCell ref="L83:L87"/>
     <mergeCell ref="B28:B34"/>
@@ -8282,30 +8304,6 @@
     <mergeCell ref="L72:L78"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="L79:L82"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I12 C17:I34">

--- a/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7E7A3-7C62-48D2-BF09-2A8537E4074F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04640F61-71D8-471B-AB9C-053E6A65598D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_partiadata_20250924" sheetId="5" r:id="rId1"/>
@@ -425,18 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,16 +443,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -472,7 +472,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,10 +817,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -842,10 +842,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="36"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -869,10 +869,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -894,10 +894,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="30"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -948,7 +948,7 @@
       <c r="I4" s="11">
         <v>46.333889854871863</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="22" t="s">
@@ -977,7 +977,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="25" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="I5" s="6">
         <v>44.508037843464628</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="25" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1029,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="I6" s="6">
         <v>54.648806073870297</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="23" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="I7" s="6">
         <v>55.218118957199742</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="23" t="s">
         <v>17</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="I8" s="6">
         <v>56.21099086785641</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="I9" s="6">
         <v>54.269229549275238</v>
       </c>
-      <c r="K9" s="32"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="23" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="I10" s="6">
         <v>53.296066574970368</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="I11" s="6">
         <v>53.60330683368079</v>
       </c>
-      <c r="K11" s="33"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="24" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1368,7 +1368,7 @@
       <c r="I12" s="11">
         <v>56.700502022797203</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="30" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="I13" s="6">
         <v>61.060709867732413</v>
       </c>
-      <c r="K13" s="35"/>
+      <c r="K13" s="31"/>
       <c r="L13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="I14" s="6">
         <v>59.459012044510182</v>
       </c>
-      <c r="K14" s="35"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="I15" s="6">
         <v>60.326810785560419</v>
       </c>
-      <c r="K15" s="35"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1580,7 +1580,7 @@
       <c r="I16" s="6">
         <v>50.038301946095267</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="31" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -1609,7 +1609,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="I17" s="6">
         <v>59.137720337834523</v>
       </c>
-      <c r="K17" s="35"/>
+      <c r="K17" s="31"/>
       <c r="L17" s="26" t="s">
         <v>12</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="I18" s="6">
         <v>59.655400709925409</v>
       </c>
-      <c r="K18" s="35"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="I19" s="9">
         <v>60.079934370827893</v>
       </c>
-      <c r="K19" s="36"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="21" t="s">
         <v>7</v>
       </c>
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1792,7 +1792,7 @@
       <c r="I20" s="11">
         <v>58.695098285163937</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="30" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="26" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="I21" s="6">
         <v>60.562173259860948</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="26" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="I22" s="6">
         <v>55.41235362474302</v>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="31"/>
       <c r="L22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1925,7 +1925,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="I23" s="6">
         <v>54.757027886631093</v>
       </c>
-      <c r="K23" s="35"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +1977,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -2004,7 +2004,7 @@
       <c r="I24" s="6">
         <v>47.500041811203673</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="31" t="s">
         <v>29</v>
       </c>
       <c r="L24" s="26" t="s">
@@ -2033,7 +2033,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="I25" s="6">
         <v>49.010795941141367</v>
       </c>
-      <c r="K25" s="35"/>
+      <c r="K25" s="31"/>
       <c r="L25" s="5" t="s">
         <v>16</v>
       </c>
@@ -2085,7 +2085,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="I26" s="6">
         <v>49.914304333659167</v>
       </c>
-      <c r="K26" s="35"/>
+      <c r="K26" s="31"/>
       <c r="L26" s="5" t="s">
         <v>13</v>
       </c>
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="I27" s="6">
         <v>55.799392728310792</v>
       </c>
-      <c r="K27" s="35"/>
+      <c r="K27" s="31"/>
       <c r="L27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="21" t="s">
         <v>11</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
-      <c r="K28" s="36"/>
+      <c r="K28" s="32"/>
       <c r="L28" s="21" t="s">
         <v>11</v>
       </c>
@@ -2270,10 +2270,10 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="15">
         <v>92.567111769713335</v>
       </c>
@@ -2295,10 +2295,10 @@
       <c r="I31" s="16">
         <v>43.622535641382179</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L31" s="28"/>
+      <c r="L31" s="36"/>
       <c r="M31">
         <v>3.88093621561358</v>
       </c>
@@ -2322,10 +2322,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="15">
         <v>92.338566773632834</v>
       </c>
@@ -2347,10 +2347,10 @@
       <c r="I32" s="16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K32" s="29" t="s">
+      <c r="K32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="30"/>
+      <c r="L32" s="34"/>
       <c r="M32" s="15">
         <v>4.0483086633488163</v>
       </c>
@@ -2374,7 +2374,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="22" t="s">
@@ -2401,7 +2401,7 @@
       <c r="I33" s="11">
         <v>40.926778409266866</v>
       </c>
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="27" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="22" t="s">
@@ -2430,7 +2430,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="25" t="s">
         <v>16</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="I34" s="6">
         <v>38.412876121977916</v>
       </c>
-      <c r="K34" s="32"/>
+      <c r="K34" s="28"/>
       <c r="L34" s="25" t="s">
         <v>16</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="23" t="s">
         <v>13</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="I35" s="6">
         <v>50.327216453861126</v>
       </c>
-      <c r="K35" s="32"/>
+      <c r="K35" s="28"/>
       <c r="L35" s="23" t="s">
         <v>13</v>
       </c>
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="I36" s="6">
         <v>50.474777835549446</v>
       </c>
-      <c r="K36" s="32"/>
+      <c r="K36" s="28"/>
       <c r="L36" s="23" t="s">
         <v>17</v>
       </c>
@@ -2586,7 +2586,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="23" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="I37" s="6">
         <v>52.493719332914743</v>
       </c>
-      <c r="K37" s="32"/>
+      <c r="K37" s="28"/>
       <c r="L37" s="23" t="s">
         <v>12</v>
       </c>
@@ -2638,7 +2638,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="23" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="I38" s="6">
         <v>50.478879685998855</v>
       </c>
-      <c r="K38" s="32"/>
+      <c r="K38" s="28"/>
       <c r="L38" s="23" t="s">
         <v>11</v>
       </c>
@@ -2690,7 +2690,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="23" t="s">
         <v>7</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="I39" s="6">
         <v>49.91230553601401</v>
       </c>
-      <c r="K39" s="32"/>
+      <c r="K39" s="28"/>
       <c r="L39" s="23" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="24" t="s">
         <v>18</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="I40" s="9">
         <v>50.624658682159797</v>
       </c>
-      <c r="K40" s="33"/>
+      <c r="K40" s="29"/>
       <c r="L40" s="24" t="s">
         <v>18</v>
       </c>
@@ -2794,7 +2794,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2821,7 +2821,7 @@
       <c r="I41" s="11">
         <v>54.16366663354669</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="30" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -2850,7 +2850,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="26" t="s">
         <v>12</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="I42" s="6">
         <v>59.400107247429965</v>
       </c>
-      <c r="K42" s="35"/>
+      <c r="K42" s="31"/>
       <c r="L42" s="26" t="s">
         <v>12</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="5" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="I43" s="6">
         <v>57.472415487547558</v>
       </c>
-      <c r="K43" s="35"/>
+      <c r="K43" s="31"/>
       <c r="L43" s="5" t="s">
         <v>11</v>
       </c>
@@ -2954,7 +2954,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="5" t="s">
         <v>7</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="I44" s="6">
         <v>58.03057290210014</v>
       </c>
-      <c r="K44" s="35"/>
+      <c r="K44" s="31"/>
       <c r="L44" s="5" t="s">
         <v>7</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3033,7 +3033,7 @@
       <c r="I45" s="6">
         <v>43.97379234137982</v>
       </c>
-      <c r="K45" s="35" t="s">
+      <c r="K45" s="31" t="s">
         <v>30</v>
       </c>
       <c r="L45" s="5" t="s">
@@ -3062,7 +3062,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="26" t="s">
         <v>12</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="I46" s="6">
         <v>57.390955449525258</v>
       </c>
-      <c r="K46" s="35"/>
+      <c r="K46" s="31"/>
       <c r="L46" s="26" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="5" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="I47" s="6">
         <v>57.449010771275319</v>
       </c>
-      <c r="K47" s="35"/>
+      <c r="K47" s="31"/>
       <c r="L47" s="5" t="s">
         <v>11</v>
       </c>
@@ -3166,7 +3166,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="21" t="s">
         <v>7</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="I48" s="9">
         <v>58.11224589934929</v>
       </c>
-      <c r="K48" s="36"/>
+      <c r="K48" s="32"/>
       <c r="L48" s="21" t="s">
         <v>7</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3245,7 +3245,7 @@
       <c r="I49" s="11">
         <v>56.478864955891837</v>
       </c>
-      <c r="K49" s="34" t="s">
+      <c r="K49" s="30" t="s">
         <v>28</v>
       </c>
       <c r="L49" s="3" t="s">
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="26" t="s">
         <v>12</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="I50" s="6">
         <v>58.562330658368531</v>
       </c>
-      <c r="K50" s="35"/>
+      <c r="K50" s="31"/>
       <c r="L50" s="26" t="s">
         <v>12</v>
       </c>
@@ -3326,7 +3326,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="5" t="s">
         <v>11</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="I51" s="6">
         <v>53.102947668822111</v>
       </c>
-      <c r="K51" s="35"/>
+      <c r="K51" s="31"/>
       <c r="L51" s="5" t="s">
         <v>11</v>
       </c>
@@ -3378,7 +3378,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="35"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="5" t="s">
         <v>7</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="I52" s="6">
         <v>51.900369998563754</v>
       </c>
-      <c r="K52" s="35"/>
+      <c r="K52" s="31"/>
       <c r="L52" s="5" t="s">
         <v>7</v>
       </c>
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="26" t="s">
@@ -3457,7 +3457,7 @@
       <c r="I53" s="6">
         <v>43.850076355062413</v>
       </c>
-      <c r="K53" s="35" t="s">
+      <c r="K53" s="31" t="s">
         <v>29</v>
       </c>
       <c r="L53" s="26" t="s">
@@ -3486,7 +3486,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="5" t="s">
         <v>16</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="I54" s="6">
         <v>44.446925405670939</v>
       </c>
-      <c r="K54" s="35"/>
+      <c r="K54" s="31"/>
       <c r="L54" s="5" t="s">
         <v>16</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="5" t="s">
         <v>13</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="I55" s="6">
         <v>44.342875384354819</v>
       </c>
-      <c r="K55" s="35"/>
+      <c r="K55" s="31"/>
       <c r="L55" s="5" t="s">
         <v>13</v>
       </c>
@@ -3590,7 +3590,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="5" t="s">
         <v>12</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="I56" s="6">
         <v>51.041102115177971</v>
       </c>
-      <c r="K56" s="35"/>
+      <c r="K56" s="31"/>
       <c r="L56" s="5" t="s">
         <v>12</v>
       </c>
@@ -3642,7 +3642,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="21" t="s">
         <v>11</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
-      <c r="K57" s="36"/>
+      <c r="K57" s="32"/>
       <c r="L57" s="21" t="s">
         <v>11</v>
       </c>
@@ -3667,16 +3667,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K33:K40"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="K53:K57"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K31:L31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="A4:A11"/>
@@ -3689,12 +3685,16 @@
     <mergeCell ref="K16:K19"/>
     <mergeCell ref="K20:K23"/>
     <mergeCell ref="K24:K28"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="K33:K40"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="K53:K57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I3">
@@ -3838,10 +3838,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -3863,10 +3863,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="36"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -3890,10 +3890,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -3915,10 +3915,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="30"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -3942,10 +3942,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="1">
         <v>89.053336678229613</v>
       </c>
@@ -3967,10 +3967,10 @@
       <c r="I4" s="5">
         <v>50.508830814568753</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="30"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="8">
         <v>5.4385382756811014</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10">
@@ -4024,7 +4024,7 @@
       <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="37" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="10">
@@ -4053,7 +4053,7 @@
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6">
         <v>93.053143481633342</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="37"/>
+      <c r="L6" s="38"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7">
         <v>91.579621507683157</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="37"/>
+      <c r="L7" s="38"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8">
         <v>90.212611412440125</v>
       </c>
@@ -4182,7 +4182,7 @@
       <c r="K8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="37"/>
+      <c r="L8" s="38"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="38"/>
       <c r="C9">
         <v>90.084819072829347</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="37"/>
+      <c r="L9" s="38"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -4261,7 +4261,7 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="38"/>
       <c r="C10">
         <v>89.661415756191658</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="K10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="37"/>
+      <c r="L10" s="38"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="38"/>
       <c r="C11">
         <v>89.817152397512075</v>
       </c>
@@ -4338,7 +4338,7 @@
       <c r="K11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="37"/>
+      <c r="L11" s="38"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="40"/>
       <c r="C12">
         <v>88.193943430883195</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="40"/>
       <c r="M12">
         <v>4.738300568518703</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="18">
@@ -4444,7 +4444,7 @@
       <c r="K13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="39" t="s">
         <v>31</v>
       </c>
       <c r="M13" s="18">
@@ -4473,7 +4473,7 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="19">
         <v>92.492694573482453</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="K14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="40"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="19">
         <v>4.2020365592810807</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="19">
         <v>91.321718469306248</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="K15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="40"/>
+      <c r="L15" s="39"/>
       <c r="M15" s="19">
         <v>4.0707928609350361</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="19">
         <v>91.514534439455929</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="K16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="40"/>
+      <c r="L16" s="39"/>
       <c r="M16" s="19">
         <v>3.922662122179057</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="19">
@@ -4656,7 +4656,7 @@
       <c r="K17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="40" t="s">
+      <c r="L17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="19">
@@ -4685,7 +4685,7 @@
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="19">
         <v>91.096670386422005</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="K18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="40"/>
+      <c r="L18" s="39"/>
       <c r="M18" s="19">
         <v>4.4913349382120487</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="19">
         <v>91.140892222251068</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="K19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="40"/>
+      <c r="L19" s="39"/>
       <c r="M19" s="19">
         <v>3.903249518826176</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="19">
         <v>91.081684674319575</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="40"/>
+      <c r="L20" s="39"/>
       <c r="M20" s="19">
         <v>4.1769763320911357</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="19">
         <v>91.125234647358596</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="K21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="40"/>
+      <c r="L21" s="39"/>
       <c r="M21" s="19">
         <v>4.6221295992371028</v>
       </c>
@@ -4893,7 +4893,7 @@
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="19">
         <v>91.43489995588196</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="K22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="40"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="19">
         <v>4.2207267229748435</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="10">
@@ -5024,7 +5024,7 @@
       <c r="K24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="37" t="s">
         <v>23</v>
       </c>
       <c r="M24" s="10">
@@ -5053,7 +5053,7 @@
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="38"/>
       <c r="C25">
         <v>91.138051943932624</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="K25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="37"/>
+      <c r="L25" s="38"/>
       <c r="M25">
         <v>4.8341548736925946</v>
       </c>
@@ -5105,7 +5105,7 @@
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="38"/>
       <c r="C26">
         <v>89.464493637488204</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="K26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="37"/>
+      <c r="L26" s="38"/>
       <c r="M26">
         <v>4.9049220966264562</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="38"/>
       <c r="C27">
         <v>88.032999132057071</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="K27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="37"/>
+      <c r="L27" s="38"/>
       <c r="M27">
         <v>4.7933326181048139</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C28">
@@ -5236,7 +5236,7 @@
       <c r="K28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="38" t="s">
         <v>24</v>
       </c>
       <c r="M28">
@@ -5265,7 +5265,7 @@
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29">
         <v>84.83746110837177</v>
       </c>
@@ -5290,7 +5290,7 @@
       <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="37"/>
+      <c r="L29" s="38"/>
       <c r="M29">
         <v>6.4398657108190296</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30">
         <v>89.603309717212085</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="K30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="37"/>
+      <c r="L30" s="38"/>
       <c r="M30">
         <v>4.6421688324031569</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="38"/>
       <c r="C31">
         <v>89.968586810151194</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="K31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="37"/>
+      <c r="L31" s="38"/>
       <c r="M31">
         <v>4.7831146921405292</v>
       </c>
@@ -5421,7 +5421,7 @@
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="38"/>
       <c r="C32">
         <v>90.691067108423653</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="K32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="37"/>
+      <c r="L32" s="38"/>
       <c r="M32">
         <v>5.4121743283478736</v>
       </c>
@@ -5473,7 +5473,7 @@
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="37"/>
+      <c r="B33" s="38"/>
       <c r="C33">
         <v>91.112509623785684</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="K33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="37"/>
+      <c r="L33" s="38"/>
       <c r="M33">
         <v>4.5520179996051642</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="8">
         <v>91.827074628673245</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="K34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="38"/>
+      <c r="L34" s="40"/>
       <c r="M34" s="8">
         <v>4.4549479265356586</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="18">
@@ -5604,7 +5604,7 @@
       <c r="K35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="39" t="s">
+      <c r="L35" s="37" t="s">
         <v>28</v>
       </c>
       <c r="M35" s="18">
@@ -5633,7 +5633,7 @@
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="19">
         <v>92.990178692433901</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="K36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L36" s="37"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="19">
         <v>3.6904396057483901</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="37"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="19">
         <v>91.404302805387587</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="K37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="37"/>
+      <c r="L37" s="38"/>
       <c r="M37" s="19">
         <v>4.2752844258887936</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="19">
         <v>91.836930538614808</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="K38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L38" s="37"/>
+      <c r="L38" s="38"/>
       <c r="M38" s="19">
         <v>3.8814886103074699</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="38" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="19">
@@ -5816,7 +5816,7 @@
       <c r="K39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="L39" s="38" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="19">
@@ -5845,7 +5845,7 @@
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="19">
         <v>93.140736511561499</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="K40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="37"/>
+      <c r="L40" s="38"/>
       <c r="M40" s="19">
         <v>4.0606812542101052</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="19">
         <v>92.481062408267675</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="K41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="37"/>
+      <c r="L41" s="38"/>
       <c r="M41" s="19">
         <v>4.0404090948996982</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="37"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="19">
         <v>82.988413971285794</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="K42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="37"/>
+      <c r="L42" s="38"/>
       <c r="M42" s="19">
         <v>6.4965045402129054</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="20"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -6012,7 +6012,7 @@
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="38"/>
+      <c r="L43" s="40"/>
       <c r="M43" s="20"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -6079,10 +6079,10 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="28"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="15">
         <v>92.567111769713335</v>
       </c>
@@ -6104,10 +6104,10 @@
       <c r="I46" s="16">
         <v>43.622535641382179</v>
       </c>
-      <c r="K46" s="27" t="s">
+      <c r="K46" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L46" s="28"/>
+      <c r="L46" s="36"/>
       <c r="M46">
         <v>3.88093621561358</v>
       </c>
@@ -6131,10 +6131,10 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="30"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="15">
         <v>92.338566773632834</v>
       </c>
@@ -6156,10 +6156,10 @@
       <c r="I47" s="16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="30"/>
+      <c r="L47" s="34"/>
       <c r="M47" s="15">
         <v>4.0483086633488163</v>
       </c>
@@ -6183,10 +6183,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="30"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="15">
         <v>88.499186482198567</v>
       </c>
@@ -6208,10 +6208,10 @@
       <c r="I48" s="16">
         <v>44.56238292926399</v>
       </c>
-      <c r="K48" s="29" t="s">
+      <c r="K48" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L48" s="30"/>
+      <c r="L48" s="34"/>
       <c r="M48">
         <v>5.9037054685544437</v>
       </c>
@@ -6238,7 +6238,7 @@
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="10">
@@ -6265,7 +6265,7 @@
       <c r="K49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="37" t="s">
         <v>14</v>
       </c>
       <c r="M49" s="10">
@@ -6294,7 +6294,7 @@
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="37"/>
+      <c r="B50" s="38"/>
       <c r="C50">
         <v>92.603782215910087</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="K50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="37"/>
+      <c r="L50" s="38"/>
       <c r="M50">
         <v>4.4405799374618198</v>
       </c>
@@ -6346,7 +6346,7 @@
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="38"/>
       <c r="C51">
         <v>91.081927840808433</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="K51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="37"/>
+      <c r="L51" s="38"/>
       <c r="M51">
         <v>5.0278535681088243</v>
       </c>
@@ -6398,7 +6398,7 @@
       <c r="A52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="38"/>
       <c r="C52">
         <v>89.644638837679821</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="K52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="37"/>
+      <c r="L52" s="38"/>
       <c r="M52">
         <v>5.6337263714853885</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="38"/>
       <c r="C53">
         <v>89.487105403835685</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="K53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L53" s="37"/>
+      <c r="L53" s="38"/>
       <c r="M53">
         <v>5.5869146897287463</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="37"/>
+      <c r="B54" s="38"/>
       <c r="C54">
         <v>89.019136482146294</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="K54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="37"/>
+      <c r="L54" s="38"/>
       <c r="M54">
         <v>5.5440228882484019</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="38"/>
       <c r="C55">
         <v>89.238869796493674</v>
       </c>
@@ -6579,7 +6579,7 @@
       <c r="K55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L55" s="37"/>
+      <c r="L55" s="38"/>
       <c r="M55">
         <v>4.9520431158543712</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="A56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="37"/>
+      <c r="B56" s="38"/>
       <c r="C56">
         <v>87.528624354026661</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="K56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="37"/>
+      <c r="L56" s="38"/>
       <c r="M56">
         <v>5.0598364128504718</v>
       </c>
@@ -6658,7 +6658,7 @@
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="37" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="10">
@@ -6685,7 +6685,7 @@
       <c r="K57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="37" t="s">
         <v>31</v>
       </c>
       <c r="M57" s="10">
@@ -6714,7 +6714,7 @@
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="38"/>
       <c r="C58">
         <v>92.066966520323973</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="K58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L58" s="37"/>
+      <c r="L58" s="38"/>
       <c r="M58">
         <v>4.5862361191526402</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="38"/>
       <c r="C59">
         <v>90.767440481934031</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="K59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="37"/>
+      <c r="L59" s="38"/>
       <c r="M59">
         <v>4.4126117660826036</v>
       </c>
@@ -6818,7 +6818,7 @@
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="37"/>
+      <c r="B60" s="38"/>
       <c r="C60">
         <v>90.941629733573507</v>
       </c>
@@ -6843,7 +6843,7 @@
       <c r="K60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L60" s="37"/>
+      <c r="L60" s="38"/>
       <c r="M60">
         <v>4.3072256890080602</v>
       </c>
@@ -6870,7 +6870,7 @@
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C61">
@@ -6897,7 +6897,7 @@
       <c r="K61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L61" s="37" t="s">
+      <c r="L61" s="38" t="s">
         <v>30</v>
       </c>
       <c r="M61">
@@ -6926,7 +6926,7 @@
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="37"/>
+      <c r="B62" s="38"/>
       <c r="C62">
         <v>90.642246446502455</v>
       </c>
@@ -6951,7 +6951,7 @@
       <c r="K62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L62" s="37"/>
+      <c r="L62" s="38"/>
       <c r="M62">
         <v>4.8046743223783803</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="37"/>
+      <c r="B63" s="38"/>
       <c r="C63">
         <v>90.617152023346819</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="K63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="37"/>
+      <c r="L63" s="38"/>
       <c r="M63">
         <v>4.2750077328577394</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="38"/>
       <c r="C64">
         <v>90.581355357949491</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="K64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L64" s="37"/>
+      <c r="L64" s="38"/>
       <c r="M64">
         <v>4.4778305644230976</v>
       </c>
@@ -7082,7 +7082,7 @@
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="38"/>
       <c r="C65">
         <v>90.510302373601434</v>
       </c>
@@ -7107,7 +7107,7 @@
       <c r="K65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L65" s="37"/>
+      <c r="L65" s="38"/>
       <c r="M65">
         <v>5.1076806654003626</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="37"/>
+      <c r="B66" s="38"/>
       <c r="C66">
         <v>90.77523149389998</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="K66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L66" s="37"/>
+      <c r="L66" s="38"/>
       <c r="M66">
         <v>4.8120651940731003</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="A67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="38"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="8">
         <v>91.156513297158639</v>
       </c>
@@ -7211,7 +7211,7 @@
       <c r="K67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L67" s="38"/>
+      <c r="L67" s="40"/>
       <c r="M67" s="8">
         <v>5.1638895836383742</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="A68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="37" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="18">
@@ -7265,7 +7265,7 @@
       <c r="K68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L68" s="39" t="s">
+      <c r="L68" s="37" t="s">
         <v>23</v>
       </c>
       <c r="M68" s="18">
@@ -7294,7 +7294,7 @@
       <c r="A69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="19">
         <v>90.753018873298217</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="K69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="37"/>
+      <c r="L69" s="38"/>
       <c r="M69" s="19">
         <v>5.1087302616689314</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="19">
         <v>88.959040489692839</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="K70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L70" s="37"/>
+      <c r="L70" s="38"/>
       <c r="M70" s="19">
         <v>5.2249135280576802</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="A71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="19">
         <v>87.426198957053913</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="K71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L71" s="37"/>
+      <c r="L71" s="38"/>
       <c r="M71" s="19">
         <v>5.0521972348656563</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="A72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="38" t="s">
         <v>24</v>
       </c>
       <c r="C72" s="19">
@@ -7477,7 +7477,7 @@
       <c r="K72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L72" s="37" t="s">
+      <c r="L72" s="38" t="s">
         <v>24</v>
       </c>
       <c r="M72" s="19">
@@ -7506,7 +7506,7 @@
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="19">
         <v>84.199090152702041</v>
       </c>
@@ -7531,7 +7531,7 @@
       <c r="K73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="37"/>
+      <c r="L73" s="38"/>
       <c r="M73" s="19">
         <v>6.8541808049040309</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="19">
         <v>89.131692863681508</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="K74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L74" s="37"/>
+      <c r="L74" s="38"/>
       <c r="M74" s="19">
         <v>4.9480273201097891</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="A75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="37"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="19">
         <v>89.343160521159632</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="K75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="37"/>
+      <c r="L75" s="38"/>
       <c r="M75" s="19">
         <v>5.1733129187131341</v>
       </c>
@@ -7662,7 +7662,7 @@
       <c r="A76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="37"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="19">
         <v>90.136569338183705</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="K76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L76" s="37"/>
+      <c r="L76" s="38"/>
       <c r="M76" s="19">
         <v>5.9292139017037657</v>
       </c>
@@ -7714,7 +7714,7 @@
       <c r="A77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="37"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="19">
         <v>90.588436953510907</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="K77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L77" s="37"/>
+      <c r="L77" s="38"/>
       <c r="M77" s="19">
         <v>4.9553180055876025</v>
       </c>
@@ -7766,7 +7766,7 @@
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="38"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="20">
         <v>91.279707682254013</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="K78" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L78" s="38"/>
+      <c r="L78" s="40"/>
       <c r="M78" s="20">
         <v>4.8729900980426155</v>
       </c>
@@ -7818,7 +7818,7 @@
       <c r="A79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="18">
@@ -7845,7 +7845,7 @@
       <c r="K79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="39" t="s">
+      <c r="L79" s="37" t="s">
         <v>28</v>
       </c>
       <c r="M79" s="18">
@@ -7874,7 +7874,7 @@
       <c r="A80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="19">
         <v>92.579341430099007</v>
       </c>
@@ -7899,7 +7899,7 @@
       <c r="K80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L80" s="37"/>
+      <c r="L80" s="38"/>
       <c r="M80" s="19">
         <v>3.9546659796940227</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="19">
         <v>90.838947223672307</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="K81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L81" s="37"/>
+      <c r="L81" s="38"/>
       <c r="M81" s="19">
         <v>4.7127350259472136</v>
       </c>
@@ -7978,7 +7978,7 @@
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="37"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="19">
         <v>91.285512236598578</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="K82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L82" s="37"/>
+      <c r="L82" s="38"/>
       <c r="M82" s="19">
         <v>4.2911852431583064</v>
       </c>
@@ -8030,7 +8030,7 @@
       <c r="A83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="38" t="s">
         <v>29</v>
       </c>
       <c r="C83" s="19">
@@ -8057,7 +8057,7 @@
       <c r="K83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="37" t="s">
+      <c r="L83" s="38" t="s">
         <v>29</v>
       </c>
       <c r="M83" s="19">
@@ -8086,7 +8086,7 @@
       <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="37"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="19">
         <v>92.605708756255126</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="K84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L84" s="37"/>
+      <c r="L84" s="38"/>
       <c r="M84" s="19">
         <v>4.5806425177141055</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="A85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="37"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="19">
         <v>92.058134776134636</v>
       </c>
@@ -8163,7 +8163,7 @@
       <c r="K85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="37"/>
+      <c r="L85" s="38"/>
       <c r="M85" s="19">
         <v>4.4300468024374355</v>
       </c>
@@ -8190,7 +8190,7 @@
       <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="37"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="19">
         <v>82.145275705850779</v>
       </c>
@@ -8215,7 +8215,7 @@
       <c r="K86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L86" s="37"/>
+      <c r="L86" s="38"/>
       <c r="M86" s="19">
         <v>7.0119117816178136</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="A87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="38"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="20"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -8253,7 +8253,7 @@
       <c r="K87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L87" s="38"/>
+      <c r="L87" s="40"/>
       <c r="M87" s="20"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
@@ -8264,30 +8264,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B12"/>
     <mergeCell ref="B83:B87"/>
     <mergeCell ref="L83:L87"/>
     <mergeCell ref="B28:B34"/>
@@ -8304,6 +8280,30 @@
     <mergeCell ref="L72:L78"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="L79:L82"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I12 C17:I34">

--- a/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc_20251002/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc_20251002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04640F61-71D8-471B-AB9C-053E6A65598D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5426A129-DF3B-45C0-83B8-7340CD44D387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pcc_partiadata_20250924" sheetId="5" r:id="rId1"/>
@@ -425,6 +425,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -443,28 +455,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -472,7 +472,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,10 +788,10 @@
       <c r="I1" s="13">
         <v>0.05</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="12">
@@ -817,10 +817,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -842,10 +842,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="28"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -869,10 +869,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -894,10 +894,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -948,7 +948,7 @@
       <c r="I4" s="11">
         <v>46.333889854871863</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="31" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="22" t="s">
@@ -977,7 +977,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="25" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="I5" s="6">
         <v>44.508037843464628</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="25" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1029,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="I6" s="6">
         <v>54.648806073870297</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="23" t="s">
         <v>13</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="23" t="s">
         <v>17</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="I7" s="6">
         <v>55.218118957199742</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="23" t="s">
         <v>17</v>
       </c>
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="I8" s="6">
         <v>56.21099086785641</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="23" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="I9" s="6">
         <v>54.269229549275238</v>
       </c>
-      <c r="K9" s="28"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="23" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1262,7 @@
       <c r="I10" s="6">
         <v>53.296066574970368</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="I11" s="6">
         <v>53.60330683368079</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="33"/>
       <c r="L11" s="24" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1368,7 +1368,7 @@
       <c r="I12" s="11">
         <v>56.700502022797203</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="I13" s="6">
         <v>61.060709867732413</v>
       </c>
-      <c r="K13" s="31"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="26" t="s">
         <v>12</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="I14" s="6">
         <v>59.459012044510182</v>
       </c>
-      <c r="K14" s="31"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="I15" s="6">
         <v>60.326810785560419</v>
       </c>
-      <c r="K15" s="31"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1580,7 +1580,7 @@
       <c r="I16" s="6">
         <v>50.038301946095267</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="35" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -1609,7 +1609,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="I17" s="6">
         <v>59.137720337834523</v>
       </c>
-      <c r="K17" s="31"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="26" t="s">
         <v>12</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="I18" s="6">
         <v>59.655400709925409</v>
       </c>
-      <c r="K18" s="31"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1713,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="21" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="I19" s="9">
         <v>60.079934370827893</v>
       </c>
-      <c r="K19" s="32"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="21" t="s">
         <v>7</v>
       </c>
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1792,7 +1792,7 @@
       <c r="I20" s="11">
         <v>58.695098285163937</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="34" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="26" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="I21" s="6">
         <v>60.562173259860948</v>
       </c>
-      <c r="K21" s="31"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="26" t="s">
         <v>12</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="I22" s="6">
         <v>55.41235362474302</v>
       </c>
-      <c r="K22" s="31"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1925,7 +1925,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="I23" s="6">
         <v>54.757027886631093</v>
       </c>
-      <c r="K23" s="31"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +1977,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -2004,7 +2004,7 @@
       <c r="I24" s="6">
         <v>47.500041811203673</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="35" t="s">
         <v>29</v>
       </c>
       <c r="L24" s="26" t="s">
@@ -2033,7 +2033,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="I25" s="6">
         <v>49.010795941141367</v>
       </c>
-      <c r="K25" s="31"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="5" t="s">
         <v>16</v>
       </c>
@@ -2085,7 +2085,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="I26" s="6">
         <v>49.914304333659167</v>
       </c>
-      <c r="K26" s="31"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="5" t="s">
         <v>13</v>
       </c>
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="I27" s="6">
         <v>55.799392728310792</v>
       </c>
-      <c r="K27" s="31"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="21" t="s">
         <v>11</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
-      <c r="K28" s="32"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="21" t="s">
         <v>11</v>
       </c>
@@ -2270,10 +2270,10 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="15">
         <v>92.567111769713335</v>
       </c>
@@ -2295,10 +2295,10 @@
       <c r="I31" s="16">
         <v>43.622535641382179</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L31" s="36"/>
+      <c r="L31" s="28"/>
       <c r="M31">
         <v>3.88093621561358</v>
       </c>
@@ -2322,10 +2322,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="15">
         <v>92.338566773632834</v>
       </c>
@@ -2347,10 +2347,10 @@
       <c r="I32" s="16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="34"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="15">
         <v>4.0483086633488163</v>
       </c>
@@ -2374,7 +2374,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="31" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="22" t="s">
@@ -2401,7 +2401,7 @@
       <c r="I33" s="11">
         <v>40.926778409266866</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="31" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="22" t="s">
@@ -2430,7 +2430,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="25" t="s">
         <v>16</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="I34" s="6">
         <v>38.412876121977916</v>
       </c>
-      <c r="K34" s="28"/>
+      <c r="K34" s="32"/>
       <c r="L34" s="25" t="s">
         <v>16</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="23" t="s">
         <v>13</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="I35" s="6">
         <v>50.327216453861126</v>
       </c>
-      <c r="K35" s="28"/>
+      <c r="K35" s="32"/>
       <c r="L35" s="23" t="s">
         <v>13</v>
       </c>
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="23" t="s">
         <v>17</v>
       </c>
@@ -2559,7 +2559,7 @@
       <c r="I36" s="6">
         <v>50.474777835549446</v>
       </c>
-      <c r="K36" s="28"/>
+      <c r="K36" s="32"/>
       <c r="L36" s="23" t="s">
         <v>17</v>
       </c>
@@ -2586,7 +2586,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="23" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="I37" s="6">
         <v>52.493719332914743</v>
       </c>
-      <c r="K37" s="28"/>
+      <c r="K37" s="32"/>
       <c r="L37" s="23" t="s">
         <v>12</v>
       </c>
@@ -2638,7 +2638,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="23" t="s">
         <v>11</v>
       </c>
@@ -2663,7 +2663,7 @@
       <c r="I38" s="6">
         <v>50.478879685998855</v>
       </c>
-      <c r="K38" s="28"/>
+      <c r="K38" s="32"/>
       <c r="L38" s="23" t="s">
         <v>11</v>
       </c>
@@ -2690,7 +2690,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="23" t="s">
         <v>7</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="I39" s="6">
         <v>49.91230553601401</v>
       </c>
-      <c r="K39" s="28"/>
+      <c r="K39" s="32"/>
       <c r="L39" s="23" t="s">
         <v>7</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="24" t="s">
         <v>18</v>
       </c>
@@ -2767,7 +2767,7 @@
       <c r="I40" s="9">
         <v>50.624658682159797</v>
       </c>
-      <c r="K40" s="29"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="24" t="s">
         <v>18</v>
       </c>
@@ -2794,7 +2794,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2821,7 +2821,7 @@
       <c r="I41" s="11">
         <v>54.16366663354669</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="34" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -2850,7 +2850,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="26" t="s">
         <v>12</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="I42" s="6">
         <v>59.400107247429965</v>
       </c>
-      <c r="K42" s="31"/>
+      <c r="K42" s="35"/>
       <c r="L42" s="26" t="s">
         <v>12</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="5" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="I43" s="6">
         <v>57.472415487547558</v>
       </c>
-      <c r="K43" s="31"/>
+      <c r="K43" s="35"/>
       <c r="L43" s="5" t="s">
         <v>11</v>
       </c>
@@ -2954,7 +2954,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="5" t="s">
         <v>7</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="I44" s="6">
         <v>58.03057290210014</v>
       </c>
-      <c r="K44" s="31"/>
+      <c r="K44" s="35"/>
       <c r="L44" s="5" t="s">
         <v>7</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3033,7 +3033,7 @@
       <c r="I45" s="6">
         <v>43.97379234137982</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="35" t="s">
         <v>30</v>
       </c>
       <c r="L45" s="5" t="s">
@@ -3062,7 +3062,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="26" t="s">
         <v>12</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="I46" s="6">
         <v>57.390955449525258</v>
       </c>
-      <c r="K46" s="31"/>
+      <c r="K46" s="35"/>
       <c r="L46" s="26" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="5" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="I47" s="6">
         <v>57.449010771275319</v>
       </c>
-      <c r="K47" s="31"/>
+      <c r="K47" s="35"/>
       <c r="L47" s="5" t="s">
         <v>11</v>
       </c>
@@ -3166,7 +3166,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="21" t="s">
         <v>7</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="I48" s="9">
         <v>58.11224589934929</v>
       </c>
-      <c r="K48" s="32"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="21" t="s">
         <v>7</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3245,7 +3245,7 @@
       <c r="I49" s="11">
         <v>56.478864955891837</v>
       </c>
-      <c r="K49" s="30" t="s">
+      <c r="K49" s="34" t="s">
         <v>28</v>
       </c>
       <c r="L49" s="3" t="s">
@@ -3274,7 +3274,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="26" t="s">
         <v>12</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="I50" s="6">
         <v>58.562330658368531</v>
       </c>
-      <c r="K50" s="31"/>
+      <c r="K50" s="35"/>
       <c r="L50" s="26" t="s">
         <v>12</v>
       </c>
@@ -3326,7 +3326,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="5" t="s">
         <v>11</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="I51" s="6">
         <v>53.102947668822111</v>
       </c>
-      <c r="K51" s="31"/>
+      <c r="K51" s="35"/>
       <c r="L51" s="5" t="s">
         <v>11</v>
       </c>
@@ -3378,7 +3378,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="5" t="s">
         <v>7</v>
       </c>
@@ -3403,7 +3403,7 @@
       <c r="I52" s="6">
         <v>51.900369998563754</v>
       </c>
-      <c r="K52" s="31"/>
+      <c r="K52" s="35"/>
       <c r="L52" s="5" t="s">
         <v>7</v>
       </c>
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="26" t="s">
@@ -3457,7 +3457,7 @@
       <c r="I53" s="6">
         <v>43.850076355062413</v>
       </c>
-      <c r="K53" s="31" t="s">
+      <c r="K53" s="35" t="s">
         <v>29</v>
       </c>
       <c r="L53" s="26" t="s">
@@ -3486,7 +3486,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="5" t="s">
         <v>16</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="I54" s="6">
         <v>44.446925405670939</v>
       </c>
-      <c r="K54" s="31"/>
+      <c r="K54" s="35"/>
       <c r="L54" s="5" t="s">
         <v>16</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="5" t="s">
         <v>13</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="I55" s="6">
         <v>44.342875384354819</v>
       </c>
-      <c r="K55" s="31"/>
+      <c r="K55" s="35"/>
       <c r="L55" s="5" t="s">
         <v>13</v>
       </c>
@@ -3590,7 +3590,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="5" t="s">
         <v>12</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="I56" s="6">
         <v>51.041102115177971</v>
       </c>
-      <c r="K56" s="31"/>
+      <c r="K56" s="35"/>
       <c r="L56" s="5" t="s">
         <v>12</v>
       </c>
@@ -3642,7 +3642,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
+      <c r="A57" s="36"/>
       <c r="B57" s="21" t="s">
         <v>11</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
-      <c r="K57" s="32"/>
+      <c r="K57" s="36"/>
       <c r="L57" s="21" t="s">
         <v>11</v>
       </c>
@@ -3667,12 +3667,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:K40"/>
+    <mergeCell ref="K41:K44"/>
+    <mergeCell ref="K45:K48"/>
+    <mergeCell ref="K49:K52"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A57"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="A4:A11"/>
@@ -3685,16 +3689,12 @@
     <mergeCell ref="K16:K19"/>
     <mergeCell ref="K20:K23"/>
     <mergeCell ref="K24:K28"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="K33:K40"/>
-    <mergeCell ref="K41:K44"/>
-    <mergeCell ref="K45:K48"/>
-    <mergeCell ref="K49:K52"/>
-    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="K31:L31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I3">
@@ -3838,10 +3838,10 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1">
         <v>93.101364775358491</v>
       </c>
@@ -3863,10 +3863,10 @@
       <c r="I2" s="5">
         <v>47.740900296138662</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="36"/>
+      <c r="L2" s="28"/>
       <c r="M2">
         <v>3.4649270444699574</v>
       </c>
@@ -3890,10 +3890,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12">
         <v>92.9174329651064</v>
       </c>
@@ -3915,10 +3915,10 @@
       <c r="I3" s="13">
         <v>69.856172342898006</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="17">
         <v>3.5837407947350735</v>
       </c>
@@ -3942,10 +3942,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="1">
         <v>89.053336678229613</v>
       </c>
@@ -3967,10 +3967,10 @@
       <c r="I4" s="5">
         <v>50.508830814568753</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="34"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="8">
         <v>5.4385382756811014</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10">
@@ -4024,7 +4024,7 @@
       <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="10">
@@ -4053,7 +4053,7 @@
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="37"/>
       <c r="C6">
         <v>93.053143481633342</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="38"/>
+      <c r="L6" s="37"/>
       <c r="M6">
         <v>3.9872752197675312</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="37"/>
       <c r="C7">
         <v>91.579621507683157</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="37"/>
       <c r="M7">
         <v>4.5335274096690847</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="37"/>
       <c r="C8">
         <v>90.212611412440125</v>
       </c>
@@ -4182,7 +4182,7 @@
       <c r="K8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="37"/>
       <c r="M8">
         <v>5.1774780277668837</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="37"/>
       <c r="C9">
         <v>90.084819072829347</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="37"/>
       <c r="M9">
         <v>5.1380550132743084</v>
       </c>
@@ -4261,7 +4261,7 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="37"/>
       <c r="C10">
         <v>89.661415756191658</v>
       </c>
@@ -4286,7 +4286,7 @@
       <c r="K10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="37"/>
       <c r="M10">
         <v>5.0704882397024411</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="37"/>
       <c r="C11">
         <v>89.817152397512075</v>
       </c>
@@ -4338,7 +4338,7 @@
       <c r="K11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="37"/>
       <c r="M11">
         <v>4.5124657638145411</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="38"/>
       <c r="C12">
         <v>88.193943430883195</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="40"/>
+      <c r="L12" s="38"/>
       <c r="M12">
         <v>4.738300568518703</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="18">
@@ -4444,7 +4444,7 @@
       <c r="K13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="40" t="s">
         <v>31</v>
       </c>
       <c r="M13" s="18">
@@ -4473,7 +4473,7 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="19">
         <v>92.492694573482453</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="K14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="19">
         <v>4.2020365592810807</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="19">
         <v>91.321718469306248</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="K15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="40"/>
       <c r="M15" s="19">
         <v>4.0707928609350361</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="19">
         <v>91.514534439455929</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="K16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="40"/>
       <c r="M16" s="19">
         <v>3.922662122179057</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="19">
@@ -4656,7 +4656,7 @@
       <c r="K17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="40" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="19">
@@ -4685,7 +4685,7 @@
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="19">
         <v>91.096670386422005</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="K18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="39"/>
+      <c r="L18" s="40"/>
       <c r="M18" s="19">
         <v>4.4913349382120487</v>
       </c>
@@ -4737,7 +4737,7 @@
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="19">
         <v>91.140892222251068</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="K19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="39"/>
+      <c r="L19" s="40"/>
       <c r="M19" s="19">
         <v>3.903249518826176</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="19">
         <v>91.081684674319575</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="K20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="39"/>
+      <c r="L20" s="40"/>
       <c r="M20" s="19">
         <v>4.1769763320911357</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="19">
         <v>91.125234647358596</v>
       </c>
@@ -4866,7 +4866,7 @@
       <c r="K21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="39"/>
+      <c r="L21" s="40"/>
       <c r="M21" s="19">
         <v>4.6221295992371028</v>
       </c>
@@ -4893,7 +4893,7 @@
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="19">
         <v>91.43489995588196</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="K22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="39"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="19">
         <v>4.2207267229748435</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="10">
@@ -5024,7 +5024,7 @@
       <c r="K24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M24" s="10">
@@ -5053,7 +5053,7 @@
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="37"/>
       <c r="C25">
         <v>91.138051943932624</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="K25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="37"/>
       <c r="M25">
         <v>4.8341548736925946</v>
       </c>
@@ -5105,7 +5105,7 @@
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="37"/>
       <c r="C26">
         <v>89.464493637488204</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="K26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="38"/>
+      <c r="L26" s="37"/>
       <c r="M26">
         <v>4.9049220966264562</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="37"/>
       <c r="C27">
         <v>88.032999132057071</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="K27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="38"/>
+      <c r="L27" s="37"/>
       <c r="M27">
         <v>4.7933326181048139</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C28">
@@ -5236,7 +5236,7 @@
       <c r="K28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="38" t="s">
+      <c r="L28" s="37" t="s">
         <v>24</v>
       </c>
       <c r="M28">
@@ -5265,7 +5265,7 @@
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="37"/>
       <c r="C29">
         <v>84.83746110837177</v>
       </c>
@@ -5290,7 +5290,7 @@
       <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="38"/>
+      <c r="L29" s="37"/>
       <c r="M29">
         <v>6.4398657108190296</v>
       </c>
@@ -5317,7 +5317,7 @@
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="37"/>
       <c r="C30">
         <v>89.603309717212085</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="K30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="38"/>
+      <c r="L30" s="37"/>
       <c r="M30">
         <v>4.6421688324031569</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="37"/>
       <c r="C31">
         <v>89.968586810151194</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="K31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="38"/>
+      <c r="L31" s="37"/>
       <c r="M31">
         <v>4.7831146921405292</v>
       </c>
@@ -5421,7 +5421,7 @@
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="37"/>
       <c r="C32">
         <v>90.691067108423653</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="K32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="38"/>
+      <c r="L32" s="37"/>
       <c r="M32">
         <v>5.4121743283478736</v>
       </c>
@@ -5473,7 +5473,7 @@
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="37"/>
       <c r="C33">
         <v>91.112509623785684</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="K33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L33" s="38"/>
+      <c r="L33" s="37"/>
       <c r="M33">
         <v>4.5520179996051642</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="8">
         <v>91.827074628673245</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="K34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L34" s="40"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="8">
         <v>4.4549479265356586</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="18">
@@ -5604,7 +5604,7 @@
       <c r="K35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="37" t="s">
+      <c r="L35" s="39" t="s">
         <v>28</v>
       </c>
       <c r="M35" s="18">
@@ -5633,7 +5633,7 @@
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="19">
         <v>92.990178692433901</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="K36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L36" s="38"/>
+      <c r="L36" s="37"/>
       <c r="M36" s="19">
         <v>3.6904396057483901</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="19">
         <v>91.404302805387587</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="K37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="38"/>
+      <c r="L37" s="37"/>
       <c r="M37" s="19">
         <v>4.2752844258887936</v>
       </c>
@@ -5737,7 +5737,7 @@
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="19">
         <v>91.836930538614808</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="K38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L38" s="38"/>
+      <c r="L38" s="37"/>
       <c r="M38" s="19">
         <v>3.8814886103074699</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="19">
@@ -5816,7 +5816,7 @@
       <c r="K39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="38" t="s">
+      <c r="L39" s="37" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="19">
@@ -5845,7 +5845,7 @@
       <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="19">
         <v>93.140736511561499</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="K40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="38"/>
+      <c r="L40" s="37"/>
       <c r="M40" s="19">
         <v>4.0606812542101052</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="19">
         <v>92.481062408267675</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="K41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="38"/>
+      <c r="L41" s="37"/>
       <c r="M41" s="19">
         <v>4.0404090948996982</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="19">
         <v>82.988413971285794</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="K42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="38"/>
+      <c r="L42" s="37"/>
       <c r="M42" s="19">
         <v>6.4965045402129054</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="20"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -6012,7 +6012,7 @@
       <c r="K43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="40"/>
+      <c r="L43" s="38"/>
       <c r="M43" s="20"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -6079,10 +6079,10 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="36"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="15">
         <v>92.567111769713335</v>
       </c>
@@ -6104,10 +6104,10 @@
       <c r="I46" s="16">
         <v>43.622535641382179</v>
       </c>
-      <c r="K46" s="35" t="s">
+      <c r="K46" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L46" s="36"/>
+      <c r="L46" s="28"/>
       <c r="M46">
         <v>3.88093621561358</v>
       </c>
@@ -6131,10 +6131,10 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="34"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="15">
         <v>92.338566773632834</v>
       </c>
@@ -6156,10 +6156,10 @@
       <c r="I47" s="16">
         <v>68.108240193153023</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="K47" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="34"/>
+      <c r="L47" s="30"/>
       <c r="M47" s="15">
         <v>4.0483086633488163</v>
       </c>
@@ -6183,10 +6183,10 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="34"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="15">
         <v>88.499186482198567</v>
       </c>
@@ -6208,10 +6208,10 @@
       <c r="I48" s="16">
         <v>44.56238292926399</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L48" s="34"/>
+      <c r="L48" s="30"/>
       <c r="M48">
         <v>5.9037054685544437</v>
       </c>
@@ -6238,7 +6238,7 @@
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="10">
@@ -6265,7 +6265,7 @@
       <c r="K49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="37" t="s">
+      <c r="L49" s="39" t="s">
         <v>14</v>
       </c>
       <c r="M49" s="10">
@@ -6294,7 +6294,7 @@
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="37"/>
       <c r="C50">
         <v>92.603782215910087</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="K50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="38"/>
+      <c r="L50" s="37"/>
       <c r="M50">
         <v>4.4405799374618198</v>
       </c>
@@ -6346,7 +6346,7 @@
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="38"/>
+      <c r="B51" s="37"/>
       <c r="C51">
         <v>91.081927840808433</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="K51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="38"/>
+      <c r="L51" s="37"/>
       <c r="M51">
         <v>5.0278535681088243</v>
       </c>
@@ -6398,7 +6398,7 @@
       <c r="A52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="37"/>
       <c r="C52">
         <v>89.644638837679821</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="K52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="38"/>
+      <c r="L52" s="37"/>
       <c r="M52">
         <v>5.6337263714853885</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="37"/>
       <c r="C53">
         <v>89.487105403835685</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="K53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L53" s="38"/>
+      <c r="L53" s="37"/>
       <c r="M53">
         <v>5.5869146897287463</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="37"/>
       <c r="C54">
         <v>89.019136482146294</v>
       </c>
@@ -6527,7 +6527,7 @@
       <c r="K54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="38"/>
+      <c r="L54" s="37"/>
       <c r="M54">
         <v>5.5440228882484019</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="38"/>
+      <c r="B55" s="37"/>
       <c r="C55">
         <v>89.238869796493674</v>
       </c>
@@ -6579,7 +6579,7 @@
       <c r="K55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L55" s="38"/>
+      <c r="L55" s="37"/>
       <c r="M55">
         <v>4.9520431158543712</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="A56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="37"/>
       <c r="C56">
         <v>87.528624354026661</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="K56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="38"/>
+      <c r="L56" s="37"/>
       <c r="M56">
         <v>5.0598364128504718</v>
       </c>
@@ -6658,7 +6658,7 @@
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C57" s="10">
@@ -6685,7 +6685,7 @@
       <c r="K57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L57" s="37" t="s">
+      <c r="L57" s="39" t="s">
         <v>31</v>
       </c>
       <c r="M57" s="10">
@@ -6714,7 +6714,7 @@
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="37"/>
       <c r="C58">
         <v>92.066966520323973</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="K58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L58" s="38"/>
+      <c r="L58" s="37"/>
       <c r="M58">
         <v>4.5862361191526402</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="37"/>
       <c r="C59">
         <v>90.767440481934031</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="K59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="38"/>
+      <c r="L59" s="37"/>
       <c r="M59">
         <v>4.4126117660826036</v>
       </c>
@@ -6818,7 +6818,7 @@
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="38"/>
+      <c r="B60" s="37"/>
       <c r="C60">
         <v>90.941629733573507</v>
       </c>
@@ -6843,7 +6843,7 @@
       <c r="K60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L60" s="38"/>
+      <c r="L60" s="37"/>
       <c r="M60">
         <v>4.3072256890080602</v>
       </c>
@@ -6870,7 +6870,7 @@
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C61">
@@ -6897,7 +6897,7 @@
       <c r="K61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L61" s="38" t="s">
+      <c r="L61" s="37" t="s">
         <v>30</v>
       </c>
       <c r="M61">
@@ -6926,7 +6926,7 @@
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="37"/>
       <c r="C62">
         <v>90.642246446502455</v>
       </c>
@@ -6951,7 +6951,7 @@
       <c r="K62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L62" s="38"/>
+      <c r="L62" s="37"/>
       <c r="M62">
         <v>4.8046743223783803</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="37"/>
       <c r="C63">
         <v>90.617152023346819</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="K63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="38"/>
+      <c r="L63" s="37"/>
       <c r="M63">
         <v>4.2750077328577394</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="37"/>
       <c r="C64">
         <v>90.581355357949491</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="K64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L64" s="38"/>
+      <c r="L64" s="37"/>
       <c r="M64">
         <v>4.4778305644230976</v>
       </c>
@@ -7082,7 +7082,7 @@
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="38"/>
+      <c r="B65" s="37"/>
       <c r="C65">
         <v>90.510302373601434</v>
       </c>
@@ -7107,7 +7107,7 @@
       <c r="K65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L65" s="38"/>
+      <c r="L65" s="37"/>
       <c r="M65">
         <v>5.1076806654003626</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="38"/>
+      <c r="B66" s="37"/>
       <c r="C66">
         <v>90.77523149389998</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="K66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L66" s="38"/>
+      <c r="L66" s="37"/>
       <c r="M66">
         <v>4.8120651940731003</v>
       </c>
@@ -7186,7 +7186,7 @@
       <c r="A67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="40"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="8">
         <v>91.156513297158639</v>
       </c>
@@ -7211,7 +7211,7 @@
       <c r="K67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L67" s="40"/>
+      <c r="L67" s="38"/>
       <c r="M67" s="8">
         <v>5.1638895836383742</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="A68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C68" s="18">
@@ -7265,7 +7265,7 @@
       <c r="K68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L68" s="37" t="s">
+      <c r="L68" s="39" t="s">
         <v>23</v>
       </c>
       <c r="M68" s="18">
@@ -7294,7 +7294,7 @@
       <c r="A69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="19">
         <v>90.753018873298217</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="K69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L69" s="38"/>
+      <c r="L69" s="37"/>
       <c r="M69" s="19">
         <v>5.1087302616689314</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="19">
         <v>88.959040489692839</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="K70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L70" s="38"/>
+      <c r="L70" s="37"/>
       <c r="M70" s="19">
         <v>5.2249135280576802</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="A71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="38"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="19">
         <v>87.426198957053913</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="K71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L71" s="38"/>
+      <c r="L71" s="37"/>
       <c r="M71" s="19">
         <v>5.0521972348656563</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="A72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C72" s="19">
@@ -7477,7 +7477,7 @@
       <c r="K72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L72" s="38" t="s">
+      <c r="L72" s="37" t="s">
         <v>24</v>
       </c>
       <c r="M72" s="19">
@@ -7506,7 +7506,7 @@
       <c r="A73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="38"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="19">
         <v>84.199090152702041</v>
       </c>
@@ -7531,7 +7531,7 @@
       <c r="K73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L73" s="38"/>
+      <c r="L73" s="37"/>
       <c r="M73" s="19">
         <v>6.8541808049040309</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="38"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="19">
         <v>89.131692863681508</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="K74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L74" s="38"/>
+      <c r="L74" s="37"/>
       <c r="M74" s="19">
         <v>4.9480273201097891</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="A75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="38"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="19">
         <v>89.343160521159632</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="K75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="38"/>
+      <c r="L75" s="37"/>
       <c r="M75" s="19">
         <v>5.1733129187131341</v>
       </c>
@@ -7662,7 +7662,7 @@
       <c r="A76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="38"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="19">
         <v>90.136569338183705</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="K76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L76" s="38"/>
+      <c r="L76" s="37"/>
       <c r="M76" s="19">
         <v>5.9292139017037657</v>
       </c>
@@ -7714,7 +7714,7 @@
       <c r="A77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="38"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="19">
         <v>90.588436953510907</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="K77" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L77" s="38"/>
+      <c r="L77" s="37"/>
       <c r="M77" s="19">
         <v>4.9553180055876025</v>
       </c>
@@ -7766,7 +7766,7 @@
       <c r="A78" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="40"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="20">
         <v>91.279707682254013</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="K78" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L78" s="40"/>
+      <c r="L78" s="38"/>
       <c r="M78" s="20">
         <v>4.8729900980426155</v>
       </c>
@@ -7818,7 +7818,7 @@
       <c r="A79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="37" t="s">
+      <c r="B79" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C79" s="18">
@@ -7845,7 +7845,7 @@
       <c r="K79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="37" t="s">
+      <c r="L79" s="39" t="s">
         <v>28</v>
       </c>
       <c r="M79" s="18">
@@ -7874,7 +7874,7 @@
       <c r="A80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="38"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="19">
         <v>92.579341430099007</v>
       </c>
@@ -7899,7 +7899,7 @@
       <c r="K80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L80" s="38"/>
+      <c r="L80" s="37"/>
       <c r="M80" s="19">
         <v>3.9546659796940227</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="38"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="19">
         <v>90.838947223672307</v>
       </c>
@@ -7951,7 +7951,7 @@
       <c r="K81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L81" s="38"/>
+      <c r="L81" s="37"/>
       <c r="M81" s="19">
         <v>4.7127350259472136</v>
       </c>
@@ -7978,7 +7978,7 @@
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="38"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="19">
         <v>91.285512236598578</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="K82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L82" s="38"/>
+      <c r="L82" s="37"/>
       <c r="M82" s="19">
         <v>4.2911852431583064</v>
       </c>
@@ -8030,7 +8030,7 @@
       <c r="A83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C83" s="19">
@@ -8057,7 +8057,7 @@
       <c r="K83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="38" t="s">
+      <c r="L83" s="37" t="s">
         <v>29</v>
       </c>
       <c r="M83" s="19">
@@ -8086,7 +8086,7 @@
       <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="38"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="19">
         <v>92.605708756255126</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="K84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L84" s="38"/>
+      <c r="L84" s="37"/>
       <c r="M84" s="19">
         <v>4.5806425177141055</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="A85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B85" s="38"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="19">
         <v>92.058134776134636</v>
       </c>
@@ -8163,7 +8163,7 @@
       <c r="K85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L85" s="38"/>
+      <c r="L85" s="37"/>
       <c r="M85" s="19">
         <v>4.4300468024374355</v>
       </c>
@@ -8190,7 +8190,7 @@
       <c r="A86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="38"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="19">
         <v>82.145275705850779</v>
       </c>
@@ -8215,7 +8215,7 @@
       <c r="K86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L86" s="38"/>
+      <c r="L86" s="37"/>
       <c r="M86" s="19">
         <v>7.0119117816178136</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="A87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="40"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="20"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -8253,7 +8253,7 @@
       <c r="K87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L87" s="40"/>
+      <c r="L87" s="38"/>
       <c r="M87" s="20"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
@@ -8264,6 +8264,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="L17:L23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B12"/>
     <mergeCell ref="B83:B87"/>
     <mergeCell ref="L83:L87"/>
     <mergeCell ref="B28:B34"/>
@@ -8280,30 +8304,6 @@
     <mergeCell ref="L72:L78"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="L79:L82"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="L17:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:I12 C17:I34">
